--- a/tradept/Excel/Localization/english/J技能列表_Skills_Heros_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能列表_Skills_Heros_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A816B0-2B35-473A-96EA-9D1F6823BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E09275-F478-4C08-AAD1-6B6026E5681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19792,7 +19792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1589"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1579" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -19800,7 +19800,8 @@
   <cols>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="6" width="36.5703125" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="57" customHeight="1">

--- a/tradept/Excel/Localization/english/J技能列表_Skills_Heros_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能列表_Skills_Heros_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E09275-F478-4C08-AAD1-6B6026E5681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95501EF9-5BBA-4FDF-9C3F-6488B64F7FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17237,9 +17237,6 @@
     <t>Investida de Lança Longa</t>
   </si>
   <si>
-    <t>Salte 800 côvados na direção alvo. Causa [&amp;[%stat:s_攻击%]*1,25+50*[%def_val%]&amp;] [[explain:(Ataque Físico*1,25+50*Nível de Habilidade)]] Dano a todos os inimigos ao longo do caminho.</t>
-  </si>
-  <si>
     <t>Perfurador de Armadura de Aço</t>
   </si>
   <si>
@@ -19384,6 +19381,9 @@
   </si>
   <si>
     <t>技能描述_Description</t>
+  </si>
+  <si>
+    <t>Salte 800 cúbitos na direção alvo. Cause [&amp;[%stat:s_攻击%]*1.25+50*[%def_val%]&amp;] [[explain:(Ataque Físico*1.25+50*Nível da Habilidade)]] de dano a todos os inimigos ao longo do caminho.</t>
   </si>
 </sst>
 </file>
@@ -19792,8 +19792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1579" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="E1139" workbookViewId="0">
+      <selection activeCell="E1140" sqref="E1140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19818,7 +19818,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6359</v>
+        <v>6358</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -38691,7 +38691,7 @@
         <v>2716</v>
       </c>
       <c r="E1139" t="s">
-        <v>5644</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="1140" spans="1:5" ht="57" customHeight="1">
@@ -38702,13 +38702,13 @@
         <v>2718</v>
       </c>
       <c r="C1140" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
       <c r="D1140" s="3" t="s">
         <v>2719</v>
       </c>
       <c r="E1140" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
     </row>
     <row r="1141" spans="1:5" ht="71.25" customHeight="1">
@@ -38719,13 +38719,13 @@
         <v>2721</v>
       </c>
       <c r="C1141" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
       <c r="D1141" s="3" t="s">
         <v>2722</v>
       </c>
       <c r="E1141" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
     </row>
     <row r="1142" spans="1:5" ht="42.75" customHeight="1">
@@ -38736,13 +38736,13 @@
         <v>2724</v>
       </c>
       <c r="C1142" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
       <c r="D1142" s="3" t="s">
         <v>2725</v>
       </c>
       <c r="E1142" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
     </row>
     <row r="1143" spans="1:5" ht="71.25" customHeight="1">
@@ -38753,13 +38753,13 @@
         <v>2727</v>
       </c>
       <c r="C1143" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
       <c r="D1143" s="3" t="s">
         <v>2728</v>
       </c>
       <c r="E1143" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
     </row>
     <row r="1144" spans="1:5" ht="85.5" customHeight="1">
@@ -38770,13 +38770,13 @@
         <v>2730</v>
       </c>
       <c r="C1144" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
       <c r="D1144" s="3" t="s">
         <v>2731</v>
       </c>
       <c r="E1144" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="1145" spans="1:5" ht="99.75" customHeight="1">
@@ -38793,7 +38793,7 @@
         <v>2733</v>
       </c>
       <c r="E1145" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="1146" spans="1:5" ht="99.75" customHeight="1">
@@ -38810,7 +38810,7 @@
         <v>2735</v>
       </c>
       <c r="E1146" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
     </row>
     <row r="1147" spans="1:5" ht="128.25" customHeight="1">
@@ -38821,13 +38821,13 @@
         <v>2737</v>
       </c>
       <c r="C1147" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
       <c r="D1147" s="3" t="s">
         <v>2738</v>
       </c>
       <c r="E1147" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
     </row>
     <row r="1148" spans="1:5" ht="42.75" customHeight="1">
@@ -38838,13 +38838,13 @@
         <v>2740</v>
       </c>
       <c r="C1148" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
       <c r="D1148" s="3" t="s">
         <v>2741</v>
       </c>
       <c r="E1148" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
     </row>
     <row r="1149" spans="1:5" ht="42.75" customHeight="1">
@@ -38855,13 +38855,13 @@
         <v>2743</v>
       </c>
       <c r="C1149" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
       <c r="D1149" s="3" t="s">
         <v>2744</v>
       </c>
       <c r="E1149" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
     </row>
     <row r="1150" spans="1:5" ht="85.5" customHeight="1">
@@ -38872,13 +38872,13 @@
         <v>2746</v>
       </c>
       <c r="C1150" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
       <c r="D1150" s="3" t="s">
         <v>2747</v>
       </c>
       <c r="E1150" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
     </row>
     <row r="1151" spans="1:5" ht="114" customHeight="1">
@@ -38889,13 +38889,13 @@
         <v>2749</v>
       </c>
       <c r="C1151" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
       <c r="D1151" s="6" t="s">
         <v>2750</v>
       </c>
       <c r="E1151" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="1152" spans="1:5" ht="99.75" customHeight="1">
@@ -38912,7 +38912,7 @@
         <v>2752</v>
       </c>
       <c r="E1152" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
     </row>
     <row r="1153" spans="1:5" ht="42.75" customHeight="1">
@@ -38923,13 +38923,13 @@
         <v>2754</v>
       </c>
       <c r="C1153" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="D1153" s="3" t="s">
         <v>2755</v>
       </c>
       <c r="E1153" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
     </row>
     <row r="1154" spans="1:5" ht="42.75" customHeight="1">
@@ -38940,13 +38940,13 @@
         <v>2757</v>
       </c>
       <c r="C1154" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
       <c r="D1154" s="3" t="s">
         <v>2758</v>
       </c>
       <c r="E1154" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="1155" spans="1:5" ht="57" customHeight="1">
@@ -38957,13 +38957,13 @@
         <v>2760</v>
       </c>
       <c r="C1155" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
       <c r="D1155" s="3" t="s">
         <v>2761</v>
       </c>
       <c r="E1155" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
     </row>
     <row r="1156" spans="1:5" ht="85.5" customHeight="1">
@@ -38974,13 +38974,13 @@
         <v>2763</v>
       </c>
       <c r="C1156" t="s">
-        <v>5674</v>
+        <v>5673</v>
       </c>
       <c r="D1156" s="3" t="s">
         <v>2764</v>
       </c>
       <c r="E1156" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="57" customHeight="1">
@@ -38991,13 +38991,13 @@
         <v>2766</v>
       </c>
       <c r="C1157" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
       <c r="D1157" s="3" t="s">
         <v>2767</v>
       </c>
       <c r="E1157" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
     </row>
     <row r="1158" spans="1:5" ht="42.75" customHeight="1">
@@ -39008,13 +39008,13 @@
         <v>2769</v>
       </c>
       <c r="C1158" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
       <c r="D1158" s="3" t="s">
         <v>2770</v>
       </c>
       <c r="E1158" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
     </row>
     <row r="1159" spans="1:5" ht="85.5" customHeight="1">
@@ -39025,13 +39025,13 @@
         <v>2772</v>
       </c>
       <c r="C1159" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
       <c r="D1159" s="3" t="s">
         <v>2773</v>
       </c>
       <c r="E1159" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="1160" spans="1:5" ht="57" customHeight="1">
@@ -39042,13 +39042,13 @@
         <v>2775</v>
       </c>
       <c r="C1160" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
       <c r="D1160" s="3" t="s">
         <v>2776</v>
       </c>
       <c r="E1160" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
     </row>
     <row r="1161" spans="1:5" ht="99.75" customHeight="1">
@@ -39059,13 +39059,13 @@
         <v>2778</v>
       </c>
       <c r="C1161" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="D1161" s="3" t="s">
         <v>2779</v>
       </c>
       <c r="E1161" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
     </row>
     <row r="1162" spans="1:5" ht="42.75" customHeight="1">
@@ -39076,13 +39076,13 @@
         <v>2781</v>
       </c>
       <c r="C1162" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
       <c r="D1162" s="7" t="s">
         <v>2782</v>
       </c>
       <c r="E1162" s="8" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
     </row>
     <row r="1163" spans="1:5" ht="114" customHeight="1">
@@ -39093,13 +39093,13 @@
         <v>2784</v>
       </c>
       <c r="C1163" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
       <c r="D1163" s="3" t="s">
         <v>2785</v>
       </c>
       <c r="E1163" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
     </row>
     <row r="1164" spans="1:5" ht="85.5" customHeight="1">
@@ -39110,13 +39110,13 @@
         <v>2787</v>
       </c>
       <c r="C1164" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
       <c r="D1164" s="3" t="s">
         <v>2788</v>
       </c>
       <c r="E1164" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
     </row>
     <row r="1165" spans="1:5" ht="42.75" customHeight="1">
@@ -39127,13 +39127,13 @@
         <v>2790</v>
       </c>
       <c r="C1165" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="D1165" s="3" t="s">
         <v>2791</v>
       </c>
       <c r="E1165" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
     </row>
     <row r="1166" spans="1:5" ht="85.5" customHeight="1">
@@ -39144,13 +39144,13 @@
         <v>2793</v>
       </c>
       <c r="C1166" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="D1166" s="3" t="s">
         <v>2794</v>
       </c>
       <c r="E1166" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
     </row>
     <row r="1167" spans="1:5" ht="42.75" customHeight="1">
@@ -39161,13 +39161,13 @@
         <v>2796</v>
       </c>
       <c r="C1167" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
       <c r="D1167" s="3" t="s">
         <v>2797</v>
       </c>
       <c r="E1167" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
     </row>
     <row r="1168" spans="1:5" ht="199.5" customHeight="1">
@@ -39178,13 +39178,13 @@
         <v>1132</v>
       </c>
       <c r="C1168" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
       <c r="D1168" s="3" t="s">
         <v>2799</v>
       </c>
       <c r="E1168" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
     </row>
     <row r="1169" spans="1:5" ht="42.75" customHeight="1">
@@ -39195,13 +39195,13 @@
         <v>2801</v>
       </c>
       <c r="C1169" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
       <c r="D1169" s="3" t="s">
         <v>2802</v>
       </c>
       <c r="E1169" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
     </row>
     <row r="1170" spans="1:5" ht="42.75" customHeight="1">
@@ -39212,13 +39212,13 @@
         <v>2804</v>
       </c>
       <c r="C1170" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="D1170" s="3" t="s">
         <v>2805</v>
       </c>
       <c r="E1170" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
     </row>
     <row r="1171" spans="1:5" ht="85.5" customHeight="1">
@@ -39229,13 +39229,13 @@
         <v>2807</v>
       </c>
       <c r="C1171" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="D1171" s="3" t="s">
         <v>2808</v>
       </c>
       <c r="E1171" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="1172" spans="1:5" ht="85.5" customHeight="1">
@@ -39252,7 +39252,7 @@
         <v>2810</v>
       </c>
       <c r="E1172" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="1173" spans="1:5" ht="85.5" customHeight="1">
@@ -39269,7 +39269,7 @@
         <v>2810</v>
       </c>
       <c r="E1173" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="1174" spans="1:5" ht="185.25" customHeight="1">
@@ -39286,7 +39286,7 @@
         <v>2813</v>
       </c>
       <c r="E1174" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
     </row>
     <row r="1175" spans="1:5" ht="57" customHeight="1">
@@ -39297,13 +39297,13 @@
         <v>2815</v>
       </c>
       <c r="C1175" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="D1175" s="3" t="s">
         <v>2816</v>
       </c>
       <c r="E1175" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
     </row>
     <row r="1176" spans="1:5" ht="71.25" customHeight="1">
@@ -39314,13 +39314,13 @@
         <v>2818</v>
       </c>
       <c r="C1176" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
       <c r="D1176" s="3" t="s">
         <v>2819</v>
       </c>
       <c r="E1176" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
     </row>
     <row r="1177" spans="1:5" ht="57" customHeight="1">
@@ -39331,13 +39331,13 @@
         <v>2821</v>
       </c>
       <c r="C1177" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="D1177" s="3" t="s">
         <v>2822</v>
       </c>
       <c r="E1177" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
     </row>
     <row r="1178" spans="1:5" ht="85.5" customHeight="1">
@@ -39348,13 +39348,13 @@
         <v>2051</v>
       </c>
       <c r="C1178" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="D1178" s="3" t="s">
         <v>2824</v>
       </c>
       <c r="E1178" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="1179" spans="1:5" ht="85.5" customHeight="1">
@@ -39371,7 +39371,7 @@
         <v>2826</v>
       </c>
       <c r="E1179" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
     </row>
     <row r="1180" spans="1:5" ht="42.75" customHeight="1">
@@ -39382,13 +39382,13 @@
         <v>2828</v>
       </c>
       <c r="C1180" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="D1180" s="3" t="s">
         <v>2829</v>
       </c>
       <c r="E1180" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
     </row>
     <row r="1181" spans="1:5" ht="57" customHeight="1">
@@ -39399,13 +39399,13 @@
         <v>2831</v>
       </c>
       <c r="C1181" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
       <c r="D1181" s="3" t="s">
         <v>2832</v>
       </c>
       <c r="E1181" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
     </row>
     <row r="1182" spans="1:5" ht="42.75" customHeight="1">
@@ -39416,13 +39416,13 @@
         <v>2834</v>
       </c>
       <c r="C1182" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="D1182" s="3" t="s">
         <v>2835</v>
       </c>
       <c r="E1182" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
     </row>
     <row r="1183" spans="1:5" ht="85.5" customHeight="1">
@@ -39433,13 +39433,13 @@
         <v>2837</v>
       </c>
       <c r="C1183" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
       <c r="D1183" s="3" t="s">
         <v>2838</v>
       </c>
       <c r="E1183" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
     </row>
     <row r="1184" spans="1:5" ht="42.75" customHeight="1">
@@ -39450,13 +39450,13 @@
         <v>2840</v>
       </c>
       <c r="C1184" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="D1184" s="3" t="s">
         <v>2841</v>
       </c>
       <c r="E1184" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="1185" spans="1:5" ht="199.5" customHeight="1">
@@ -39473,7 +39473,7 @@
         <v>2843</v>
       </c>
       <c r="E1185" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
     </row>
     <row r="1186" spans="1:5" ht="42.75" customHeight="1">
@@ -39484,7 +39484,7 @@
         <v>506</v>
       </c>
       <c r="C1186" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="D1186" s="3"/>
     </row>
@@ -39496,13 +39496,13 @@
         <v>2846</v>
       </c>
       <c r="C1187" t="s">
-        <v>5729</v>
+        <v>5728</v>
       </c>
       <c r="D1187" s="3" t="s">
         <v>2847</v>
       </c>
       <c r="E1187" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
     </row>
     <row r="1188" spans="1:5" ht="42.75" customHeight="1">
@@ -39513,13 +39513,13 @@
         <v>2849</v>
       </c>
       <c r="C1188" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="D1188" s="3" t="s">
         <v>2850</v>
       </c>
       <c r="E1188" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
     </row>
     <row r="1189" spans="1:5" ht="71.25" customHeight="1">
@@ -39530,13 +39530,13 @@
         <v>2852</v>
       </c>
       <c r="C1189" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="D1189" s="3" t="s">
         <v>2853</v>
       </c>
       <c r="E1189" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
     </row>
     <row r="1190" spans="1:5" ht="42.75" customHeight="1">
@@ -39547,13 +39547,13 @@
         <v>2236</v>
       </c>
       <c r="C1190" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
       <c r="D1190" s="3" t="s">
         <v>2855</v>
       </c>
       <c r="E1190" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="1191" spans="1:5" ht="99.75" customHeight="1">
@@ -39570,7 +39570,7 @@
         <v>2857</v>
       </c>
       <c r="E1191" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
     </row>
     <row r="1192" spans="1:5" ht="42.75" customHeight="1">
@@ -39581,13 +39581,13 @@
         <v>2859</v>
       </c>
       <c r="C1192" t="s">
-        <v>5738</v>
+        <v>5737</v>
       </c>
       <c r="D1192" s="3" t="s">
         <v>2860</v>
       </c>
       <c r="E1192" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
     </row>
     <row r="1193" spans="1:5" ht="42.75" customHeight="1">
@@ -39598,13 +39598,13 @@
         <v>2862</v>
       </c>
       <c r="C1193" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="D1193" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="E1193" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
     </row>
     <row r="1194" spans="1:5" ht="28.5" customHeight="1">
@@ -39615,7 +39615,7 @@
         <v>2864</v>
       </c>
       <c r="C1194" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="D1194" s="3"/>
     </row>
@@ -39627,13 +39627,13 @@
         <v>2865</v>
       </c>
       <c r="C1195" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="D1195" s="3" t="s">
         <v>2866</v>
       </c>
       <c r="E1195" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
     </row>
     <row r="1196" spans="1:5" ht="28.5" customHeight="1">
@@ -39644,13 +39644,13 @@
         <v>2867</v>
       </c>
       <c r="C1196" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
       <c r="D1196" s="3" t="s">
         <v>2868</v>
       </c>
       <c r="E1196" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
     </row>
     <row r="1197" spans="1:5" ht="57" customHeight="1">
@@ -39661,13 +39661,13 @@
         <v>2870</v>
       </c>
       <c r="C1197" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="D1197" s="3" t="s">
         <v>2871</v>
       </c>
       <c r="E1197" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
     </row>
     <row r="1198" spans="1:5" ht="99.75" customHeight="1">
@@ -39678,13 +39678,13 @@
         <v>2230</v>
       </c>
       <c r="C1198" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="D1198" s="3" t="s">
         <v>2873</v>
       </c>
       <c r="E1198" t="s">
-        <v>5750</v>
+        <v>5749</v>
       </c>
     </row>
     <row r="1199" spans="1:5" ht="114" customHeight="1">
@@ -39695,13 +39695,13 @@
         <v>595</v>
       </c>
       <c r="C1199" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
       <c r="D1199" s="3" t="s">
         <v>2875</v>
       </c>
       <c r="E1199" t="s">
-        <v>5752</v>
+        <v>5751</v>
       </c>
     </row>
     <row r="1200" spans="1:5" ht="42.75" customHeight="1">
@@ -39712,13 +39712,13 @@
         <v>2877</v>
       </c>
       <c r="C1200" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
       <c r="D1200" s="3" t="s">
         <v>2878</v>
       </c>
       <c r="E1200" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
     </row>
     <row r="1201" spans="1:5" ht="85.5" customHeight="1">
@@ -39729,13 +39729,13 @@
         <v>2880</v>
       </c>
       <c r="C1201" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="D1201" s="3" t="s">
         <v>2881</v>
       </c>
       <c r="E1201" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
     </row>
     <row r="1202" spans="1:5" ht="57" customHeight="1">
@@ -39746,13 +39746,13 @@
         <v>2883</v>
       </c>
       <c r="C1202" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="D1202" s="3" t="s">
         <v>2884</v>
       </c>
       <c r="E1202" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="1203" spans="1:5" ht="28.5" customHeight="1">
@@ -39763,13 +39763,13 @@
         <v>2886</v>
       </c>
       <c r="C1203" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="D1203" s="6" t="s">
         <v>2887</v>
       </c>
       <c r="E1203" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="1204" spans="1:5" ht="85.5" customHeight="1">
@@ -39786,7 +39786,7 @@
         <v>2889</v>
       </c>
       <c r="E1204" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
     </row>
     <row r="1205" spans="1:5" ht="156.75" customHeight="1">
@@ -39803,7 +39803,7 @@
         <v>2891</v>
       </c>
       <c r="E1205" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="1206" spans="1:5" ht="57" customHeight="1">
@@ -39814,13 +39814,13 @@
         <v>2893</v>
       </c>
       <c r="C1206" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="D1206" s="3" t="s">
         <v>2894</v>
       </c>
       <c r="E1206" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
     </row>
     <row r="1207" spans="1:5" ht="57" customHeight="1">
@@ -39831,13 +39831,13 @@
         <v>2896</v>
       </c>
       <c r="C1207" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="D1207" s="3" t="s">
         <v>2897</v>
       </c>
       <c r="E1207" t="s">
-        <v>5765</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="1208" spans="1:5" ht="71.25" customHeight="1">
@@ -39848,13 +39848,13 @@
         <v>2899</v>
       </c>
       <c r="C1208" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="D1208" s="3" t="s">
         <v>2900</v>
       </c>
       <c r="E1208" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="1209" spans="1:5" ht="71.25" customHeight="1">
@@ -39865,13 +39865,13 @@
         <v>2902</v>
       </c>
       <c r="C1209" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="D1209" s="3" t="s">
         <v>2903</v>
       </c>
       <c r="E1209" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="1210" spans="1:5" ht="99.75" customHeight="1">
@@ -39882,13 +39882,13 @@
         <v>2905</v>
       </c>
       <c r="C1210" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="D1210" s="3" t="s">
         <v>2906</v>
       </c>
       <c r="E1210" t="s">
-        <v>5771</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="1211" spans="1:5" ht="71.25" customHeight="1">
@@ -39899,13 +39899,13 @@
         <v>2908</v>
       </c>
       <c r="C1211" t="s">
-        <v>5772</v>
+        <v>5771</v>
       </c>
       <c r="D1211" s="3" t="s">
         <v>2909</v>
       </c>
       <c r="E1211" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="1212" spans="1:5" ht="99.75" customHeight="1">
@@ -39916,13 +39916,13 @@
         <v>2911</v>
       </c>
       <c r="C1212" t="s">
-        <v>5774</v>
+        <v>5773</v>
       </c>
       <c r="D1212" s="3" t="s">
         <v>2912</v>
       </c>
       <c r="E1212" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="1213" spans="1:5" ht="42.75" customHeight="1">
@@ -39933,13 +39933,13 @@
         <v>2914</v>
       </c>
       <c r="C1213" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="D1213" s="3" t="s">
         <v>2915</v>
       </c>
       <c r="E1213" t="s">
-        <v>5777</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="1214" spans="1:5" ht="114" customHeight="1">
@@ -39950,13 +39950,13 @@
         <v>2917</v>
       </c>
       <c r="C1214" t="s">
-        <v>5778</v>
+        <v>5777</v>
       </c>
       <c r="D1214" s="3" t="s">
         <v>2918</v>
       </c>
       <c r="E1214" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
     </row>
     <row r="1215" spans="1:5" ht="99.75" customHeight="1">
@@ -39973,7 +39973,7 @@
         <v>2920</v>
       </c>
       <c r="E1215" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="1216" spans="1:5" ht="57" customHeight="1">
@@ -39984,13 +39984,13 @@
         <v>2922</v>
       </c>
       <c r="C1216" t="s">
-        <v>5781</v>
+        <v>5780</v>
       </c>
       <c r="D1216" s="3" t="s">
         <v>2923</v>
       </c>
       <c r="E1216" t="s">
-        <v>5782</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="1217" spans="1:5" ht="42.75" customHeight="1">
@@ -40001,13 +40001,13 @@
         <v>2925</v>
       </c>
       <c r="C1217" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="D1217" s="3" t="s">
         <v>2926</v>
       </c>
       <c r="E1217" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="1218" spans="1:5" ht="42.75" customHeight="1">
@@ -40018,13 +40018,13 @@
         <v>2928</v>
       </c>
       <c r="C1218" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="D1218" s="3" t="s">
         <v>2929</v>
       </c>
       <c r="E1218" t="s">
-        <v>5786</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="1219" spans="1:5" ht="69.75" customHeight="1">
@@ -40035,13 +40035,13 @@
         <v>2931</v>
       </c>
       <c r="C1219" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="D1219" s="3" t="s">
         <v>2932</v>
       </c>
       <c r="E1219" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="1220" spans="1:5" ht="42.75" customHeight="1">
@@ -40052,13 +40052,13 @@
         <v>2934</v>
       </c>
       <c r="C1220" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="D1220" s="3" t="s">
         <v>2935</v>
       </c>
       <c r="E1220" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
     </row>
     <row r="1221" spans="1:5" ht="313.5" customHeight="1">
@@ -40075,7 +40075,7 @@
         <v>2937</v>
       </c>
       <c r="E1221" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="1222" spans="1:5" ht="42.75" customHeight="1">
@@ -40086,13 +40086,13 @@
         <v>2939</v>
       </c>
       <c r="C1222" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="D1222" s="3" t="s">
         <v>2940</v>
       </c>
       <c r="E1222" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="1223" spans="1:5" ht="42.75" customHeight="1">
@@ -40103,13 +40103,13 @@
         <v>2942</v>
       </c>
       <c r="C1223" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="D1223" s="3" t="s">
         <v>2943</v>
       </c>
       <c r="E1223" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="1224" spans="1:5" ht="128.25" customHeight="1">
@@ -40120,13 +40120,13 @@
         <v>2945</v>
       </c>
       <c r="C1224" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="D1224" s="3" t="s">
         <v>2946</v>
       </c>
       <c r="E1224" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="1225" spans="1:5" ht="42.75" customHeight="1">
@@ -40137,13 +40137,13 @@
         <v>2948</v>
       </c>
       <c r="C1225" t="s">
-        <v>5798</v>
+        <v>5797</v>
       </c>
       <c r="D1225" s="3" t="s">
         <v>2949</v>
       </c>
       <c r="E1225" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="1226" spans="1:5" ht="99.75" customHeight="1">
@@ -40154,13 +40154,13 @@
         <v>2951</v>
       </c>
       <c r="C1226" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
       <c r="D1226" s="3" t="s">
         <v>2952</v>
       </c>
       <c r="E1226" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1227" spans="1:5" ht="57" customHeight="1">
@@ -40171,13 +40171,13 @@
         <v>2954</v>
       </c>
       <c r="C1227" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="D1227" s="3" t="s">
         <v>2955</v>
       </c>
       <c r="E1227" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="1228" spans="1:5" ht="85.5" customHeight="1">
@@ -40188,13 +40188,13 @@
         <v>2957</v>
       </c>
       <c r="C1228" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
       <c r="D1228" s="3" t="s">
         <v>2958</v>
       </c>
       <c r="E1228" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="1229" spans="1:5" ht="57" customHeight="1">
@@ -40205,13 +40205,13 @@
         <v>2960</v>
       </c>
       <c r="C1229" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
       <c r="D1229" s="3" t="s">
         <v>2961</v>
       </c>
       <c r="E1229" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="1230" spans="1:5" ht="71.25" customHeight="1">
@@ -40222,13 +40222,13 @@
         <v>2963</v>
       </c>
       <c r="C1230" t="s">
-        <v>5808</v>
+        <v>5807</v>
       </c>
       <c r="D1230" s="3" t="s">
         <v>2964</v>
       </c>
       <c r="E1230" t="s">
-        <v>5809</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="1231" spans="1:5" ht="128.25" customHeight="1">
@@ -40239,13 +40239,13 @@
         <v>2966</v>
       </c>
       <c r="C1231" t="s">
-        <v>5810</v>
+        <v>5809</v>
       </c>
       <c r="D1231" s="3" t="s">
         <v>2967</v>
       </c>
       <c r="E1231" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="1232" spans="1:5" ht="28.5" customHeight="1">
@@ -40256,7 +40256,7 @@
         <v>2969</v>
       </c>
       <c r="C1232" t="s">
-        <v>5810</v>
+        <v>5809</v>
       </c>
       <c r="D1232" s="3"/>
     </row>
@@ -40268,13 +40268,13 @@
         <v>2971</v>
       </c>
       <c r="C1233" t="s">
-        <v>5812</v>
+        <v>5811</v>
       </c>
       <c r="D1233" s="3" t="s">
         <v>2972</v>
       </c>
       <c r="E1233" t="s">
-        <v>5813</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="1234" spans="1:5" ht="199.5" customHeight="1">
@@ -40285,13 +40285,13 @@
         <v>2974</v>
       </c>
       <c r="C1234" t="s">
-        <v>5814</v>
+        <v>5813</v>
       </c>
       <c r="D1234" s="3" t="s">
         <v>2975</v>
       </c>
       <c r="E1234" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="1235" spans="1:5" ht="57" customHeight="1">
@@ -40302,13 +40302,13 @@
         <v>2977</v>
       </c>
       <c r="C1235" t="s">
-        <v>5816</v>
+        <v>5815</v>
       </c>
       <c r="D1235" s="3" t="s">
         <v>2978</v>
       </c>
       <c r="E1235" t="s">
-        <v>5817</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="1236" spans="1:5" ht="57" customHeight="1">
@@ -40319,13 +40319,13 @@
         <v>2980</v>
       </c>
       <c r="C1236" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
       <c r="D1236" s="3" t="s">
         <v>2981</v>
       </c>
       <c r="E1236" t="s">
-        <v>5819</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="1237" spans="1:5" ht="57" customHeight="1">
@@ -40336,13 +40336,13 @@
         <v>2983</v>
       </c>
       <c r="C1237" t="s">
-        <v>5820</v>
+        <v>5819</v>
       </c>
       <c r="D1237" s="3" t="s">
         <v>2984</v>
       </c>
       <c r="E1237" t="s">
-        <v>5821</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="1238" spans="1:5" ht="142.5" customHeight="1">
@@ -40353,13 +40353,13 @@
         <v>539</v>
       </c>
       <c r="C1238" t="s">
-        <v>5822</v>
+        <v>5821</v>
       </c>
       <c r="D1238" s="3" t="s">
         <v>2986</v>
       </c>
       <c r="E1238" t="s">
-        <v>5823</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="1239" spans="1:5" ht="42.75" customHeight="1">
@@ -40370,13 +40370,13 @@
         <v>2988</v>
       </c>
       <c r="C1239" t="s">
-        <v>5824</v>
+        <v>5823</v>
       </c>
       <c r="D1239" s="3" t="s">
         <v>2989</v>
       </c>
       <c r="E1239" t="s">
-        <v>5825</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="1240" spans="1:5" ht="42.75" customHeight="1">
@@ -40387,13 +40387,13 @@
         <v>2991</v>
       </c>
       <c r="C1240" t="s">
-        <v>5826</v>
+        <v>5825</v>
       </c>
       <c r="D1240" s="3" t="s">
         <v>2992</v>
       </c>
       <c r="E1240" t="s">
-        <v>5827</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="1241" spans="1:5" ht="28.5" customHeight="1">
@@ -40411,13 +40411,13 @@
         <v>2995</v>
       </c>
       <c r="C1242" t="s">
-        <v>5828</v>
+        <v>5827</v>
       </c>
       <c r="D1242" s="3" t="s">
         <v>2996</v>
       </c>
       <c r="E1242" t="s">
-        <v>5829</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="1243" spans="1:5" ht="28.5" customHeight="1">
@@ -40435,13 +40435,13 @@
         <v>2998</v>
       </c>
       <c r="C1244" t="s">
-        <v>5830</v>
+        <v>5829</v>
       </c>
       <c r="D1244" s="3" t="s">
         <v>2999</v>
       </c>
       <c r="E1244" t="s">
-        <v>5831</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1245" spans="1:5" ht="71.25" customHeight="1">
@@ -40452,13 +40452,13 @@
         <v>3000</v>
       </c>
       <c r="C1245" t="s">
-        <v>5832</v>
+        <v>5831</v>
       </c>
       <c r="D1245" s="3" t="s">
         <v>3001</v>
       </c>
       <c r="E1245" t="s">
-        <v>5833</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="1246" spans="1:5" ht="57" customHeight="1">
@@ -40469,13 +40469,13 @@
         <v>3003</v>
       </c>
       <c r="C1246" t="s">
-        <v>5834</v>
+        <v>5833</v>
       </c>
       <c r="D1246" s="3" t="s">
         <v>3004</v>
       </c>
       <c r="E1246" t="s">
-        <v>5835</v>
+        <v>5834</v>
       </c>
     </row>
     <row r="1247" spans="1:5" ht="171" customHeight="1">
@@ -40492,7 +40492,7 @@
         <v>3006</v>
       </c>
       <c r="E1247" t="s">
-        <v>5836</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="1248" spans="1:5" ht="85.5" customHeight="1">
@@ -40503,13 +40503,13 @@
         <v>3008</v>
       </c>
       <c r="C1248" t="s">
-        <v>5837</v>
+        <v>5836</v>
       </c>
       <c r="D1248" s="3" t="s">
         <v>3009</v>
       </c>
       <c r="E1248" t="s">
-        <v>5838</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="1249" spans="1:5" ht="71.25" customHeight="1">
@@ -40520,13 +40520,13 @@
         <v>3011</v>
       </c>
       <c r="C1249" t="s">
-        <v>5839</v>
+        <v>5838</v>
       </c>
       <c r="D1249" s="3" t="s">
         <v>3012</v>
       </c>
       <c r="E1249" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="1250" spans="1:5" ht="171" customHeight="1">
@@ -40537,13 +40537,13 @@
         <v>3014</v>
       </c>
       <c r="C1250" t="s">
-        <v>5841</v>
+        <v>5840</v>
       </c>
       <c r="D1250" s="3" t="s">
         <v>3015</v>
       </c>
       <c r="E1250" t="s">
-        <v>5842</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="1251" spans="1:5" ht="85.5" customHeight="1">
@@ -40554,13 +40554,13 @@
         <v>2171</v>
       </c>
       <c r="C1251" t="s">
-        <v>5843</v>
+        <v>5842</v>
       </c>
       <c r="D1251" s="3" t="s">
         <v>3017</v>
       </c>
       <c r="E1251" t="s">
-        <v>5844</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="1252" spans="1:5" ht="142.5" customHeight="1">
@@ -40577,7 +40577,7 @@
         <v>3019</v>
       </c>
       <c r="E1252" t="s">
-        <v>5845</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="1253" spans="1:5" ht="42.75" customHeight="1">
@@ -40588,13 +40588,13 @@
         <v>3021</v>
       </c>
       <c r="C1253" t="s">
-        <v>5846</v>
+        <v>5845</v>
       </c>
       <c r="D1253" s="3" t="s">
         <v>3022</v>
       </c>
       <c r="E1253" t="s">
-        <v>5847</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="1254" spans="1:5" ht="42.75" customHeight="1">
@@ -40605,13 +40605,13 @@
         <v>3024</v>
       </c>
       <c r="C1254" t="s">
-        <v>5848</v>
+        <v>5847</v>
       </c>
       <c r="D1254" s="3" t="s">
         <v>3025</v>
       </c>
       <c r="E1254" t="s">
-        <v>5849</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="1255" spans="1:5" ht="42.75" customHeight="1">
@@ -40622,13 +40622,13 @@
         <v>3027</v>
       </c>
       <c r="C1255" t="s">
-        <v>5850</v>
+        <v>5849</v>
       </c>
       <c r="D1255" s="3" t="s">
         <v>3028</v>
       </c>
       <c r="E1255" t="s">
-        <v>5851</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1256" spans="1:5" ht="85.5" customHeight="1">
@@ -40639,13 +40639,13 @@
         <v>3030</v>
       </c>
       <c r="C1256" t="s">
-        <v>5852</v>
+        <v>5851</v>
       </c>
       <c r="D1256" s="3" t="s">
         <v>3031</v>
       </c>
       <c r="E1256" t="s">
-        <v>5853</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="1257" spans="1:5" ht="57" customHeight="1">
@@ -40656,13 +40656,13 @@
         <v>3033</v>
       </c>
       <c r="C1257" t="s">
-        <v>5854</v>
+        <v>5853</v>
       </c>
       <c r="D1257" s="3" t="s">
         <v>3034</v>
       </c>
       <c r="E1257" t="s">
-        <v>5855</v>
+        <v>5854</v>
       </c>
     </row>
     <row r="1258" spans="1:5" ht="99.75" customHeight="1">
@@ -40679,7 +40679,7 @@
         <v>3036</v>
       </c>
       <c r="E1258" t="s">
-        <v>5856</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="1259" spans="1:5" ht="42.75" customHeight="1">
@@ -40690,13 +40690,13 @@
         <v>3038</v>
       </c>
       <c r="C1259" t="s">
-        <v>5857</v>
+        <v>5856</v>
       </c>
       <c r="D1259" s="3" t="s">
         <v>3039</v>
       </c>
       <c r="E1259" t="s">
-        <v>5858</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="1260" spans="1:5" ht="42.75" customHeight="1">
@@ -40707,13 +40707,13 @@
         <v>3041</v>
       </c>
       <c r="C1260" t="s">
-        <v>5859</v>
+        <v>5858</v>
       </c>
       <c r="D1260" s="3" t="s">
         <v>3042</v>
       </c>
       <c r="E1260" t="s">
-        <v>5860</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="1261" spans="1:5" ht="99.75" customHeight="1">
@@ -40724,13 +40724,13 @@
         <v>3044</v>
       </c>
       <c r="C1261" t="s">
-        <v>5861</v>
+        <v>5860</v>
       </c>
       <c r="D1261" s="7" t="s">
         <v>3045</v>
       </c>
       <c r="E1261" s="8" t="s">
-        <v>5862</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="1262" spans="1:5" ht="71.25" customHeight="1">
@@ -40741,13 +40741,13 @@
         <v>3047</v>
       </c>
       <c r="C1262" t="s">
-        <v>5863</v>
+        <v>5862</v>
       </c>
       <c r="D1262" s="7" t="s">
         <v>3048</v>
       </c>
       <c r="E1262" s="8" t="s">
-        <v>5864</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="1263" spans="1:5" ht="57" customHeight="1">
@@ -40758,13 +40758,13 @@
         <v>3050</v>
       </c>
       <c r="C1263" t="s">
-        <v>5865</v>
+        <v>5864</v>
       </c>
       <c r="D1263" s="3" t="s">
         <v>3051</v>
       </c>
       <c r="E1263" t="s">
-        <v>5866</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="1264" spans="1:5" ht="57" customHeight="1">
@@ -40775,13 +40775,13 @@
         <v>3053</v>
       </c>
       <c r="C1264" t="s">
-        <v>5867</v>
+        <v>5866</v>
       </c>
       <c r="D1264" s="3" t="s">
         <v>3054</v>
       </c>
       <c r="E1264" t="s">
-        <v>5868</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="1265" spans="1:5" ht="99.75" customHeight="1">
@@ -40792,13 +40792,13 @@
         <v>2015</v>
       </c>
       <c r="C1265" t="s">
-        <v>5869</v>
+        <v>5868</v>
       </c>
       <c r="D1265" s="3" t="s">
         <v>3056</v>
       </c>
       <c r="E1265" t="s">
-        <v>5870</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="1266" spans="1:5" ht="85.5" customHeight="1">
@@ -40809,13 +40809,13 @@
         <v>3058</v>
       </c>
       <c r="C1266" t="s">
-        <v>5871</v>
+        <v>5870</v>
       </c>
       <c r="D1266" s="3" t="s">
         <v>3059</v>
       </c>
       <c r="E1266" t="s">
-        <v>5872</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="85.5" customHeight="1">
@@ -40826,13 +40826,13 @@
         <v>2092</v>
       </c>
       <c r="C1267" t="s">
-        <v>5873</v>
+        <v>5872</v>
       </c>
       <c r="D1267" s="3" t="s">
         <v>3061</v>
       </c>
       <c r="E1267" t="s">
-        <v>5874</v>
+        <v>5873</v>
       </c>
     </row>
     <row r="1268" spans="1:5" ht="85.5" customHeight="1">
@@ -40849,7 +40849,7 @@
         <v>3063</v>
       </c>
       <c r="E1268" t="s">
-        <v>5875</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="1269" spans="1:5" ht="85.5" customHeight="1">
@@ -40860,13 +40860,13 @@
         <v>3065</v>
       </c>
       <c r="C1269" t="s">
-        <v>5876</v>
+        <v>5875</v>
       </c>
       <c r="D1269" s="3" t="s">
         <v>3066</v>
       </c>
       <c r="E1269" t="s">
-        <v>5877</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="1270" spans="1:5" ht="128.25" customHeight="1">
@@ -40877,13 +40877,13 @@
         <v>3068</v>
       </c>
       <c r="C1270" t="s">
-        <v>5878</v>
+        <v>5877</v>
       </c>
       <c r="D1270" s="3" t="s">
         <v>3069</v>
       </c>
       <c r="E1270" t="s">
-        <v>5879</v>
+        <v>5878</v>
       </c>
     </row>
     <row r="1271" spans="1:5" ht="71.25" customHeight="1">
@@ -40894,7 +40894,7 @@
         <v>3071</v>
       </c>
       <c r="C1271" t="s">
-        <v>5880</v>
+        <v>5879</v>
       </c>
       <c r="D1271" s="3" t="s">
         <v>3072</v>
@@ -40911,13 +40911,13 @@
         <v>3074</v>
       </c>
       <c r="C1272" t="s">
-        <v>5881</v>
+        <v>5880</v>
       </c>
       <c r="D1272" s="7" t="s">
         <v>3075</v>
       </c>
       <c r="E1272" s="8" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="1273" spans="1:5" ht="71.25" customHeight="1">
@@ -40928,13 +40928,13 @@
         <v>3074</v>
       </c>
       <c r="C1273" t="s">
-        <v>5883</v>
+        <v>5882</v>
       </c>
       <c r="D1273" s="7" t="s">
         <v>3075</v>
       </c>
       <c r="E1273" s="8" t="s">
-        <v>5882</v>
+        <v>5881</v>
       </c>
     </row>
     <row r="1274" spans="1:5" ht="99.75" customHeight="1">
@@ -40945,13 +40945,13 @@
         <v>3078</v>
       </c>
       <c r="C1274" t="s">
-        <v>5884</v>
+        <v>5883</v>
       </c>
       <c r="D1274" s="7" t="s">
         <v>3079</v>
       </c>
       <c r="E1274" s="8" t="s">
-        <v>5885</v>
+        <v>5884</v>
       </c>
     </row>
     <row r="1275" spans="1:5" ht="213.75" customHeight="1">
@@ -40968,7 +40968,7 @@
         <v>3081</v>
       </c>
       <c r="E1275" t="s">
-        <v>5886</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="1276" spans="1:5" ht="42.75" customHeight="1">
@@ -40979,13 +40979,13 @@
         <v>3083</v>
       </c>
       <c r="C1276" t="s">
-        <v>5887</v>
+        <v>5886</v>
       </c>
       <c r="D1276" s="3" t="s">
         <v>3084</v>
       </c>
       <c r="E1276" t="s">
-        <v>5888</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="1277" spans="1:5" ht="42.75" customHeight="1">
@@ -40996,13 +40996,13 @@
         <v>3086</v>
       </c>
       <c r="C1277" t="s">
-        <v>5889</v>
+        <v>5888</v>
       </c>
       <c r="D1277" s="3" t="s">
         <v>3087</v>
       </c>
       <c r="E1277" t="s">
-        <v>5890</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="1278" spans="1:5" ht="128.25" customHeight="1">
@@ -41013,13 +41013,13 @@
         <v>3089</v>
       </c>
       <c r="C1278" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="D1278" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E1278" t="s">
-        <v>5892</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="1279" spans="1:5" ht="28.5" customHeight="1">
@@ -41030,7 +41030,7 @@
         <v>3089</v>
       </c>
       <c r="C1279" t="s">
-        <v>5891</v>
+        <v>5890</v>
       </c>
       <c r="D1279" s="3">
         <v>0</v>
@@ -41044,13 +41044,13 @@
         <v>3093</v>
       </c>
       <c r="C1280" t="s">
-        <v>5893</v>
+        <v>5892</v>
       </c>
       <c r="D1280" s="3" t="s">
         <v>3094</v>
       </c>
       <c r="E1280" t="s">
-        <v>5894</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="1281" spans="1:5" ht="42.75" customHeight="1">
@@ -41061,13 +41061,13 @@
         <v>3096</v>
       </c>
       <c r="C1281" t="s">
-        <v>5895</v>
+        <v>5894</v>
       </c>
       <c r="D1281" s="3" t="s">
         <v>3097</v>
       </c>
       <c r="E1281" t="s">
-        <v>5896</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="1282" spans="1:5" ht="71.25" customHeight="1">
@@ -41078,13 +41078,13 @@
         <v>3099</v>
       </c>
       <c r="C1282" t="s">
-        <v>5897</v>
+        <v>5896</v>
       </c>
       <c r="D1282" s="3" t="s">
         <v>3100</v>
       </c>
       <c r="E1282" t="s">
-        <v>5898</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="1283" spans="1:5" ht="142.5" customHeight="1">
@@ -41095,13 +41095,13 @@
         <v>3102</v>
       </c>
       <c r="C1283" t="s">
-        <v>5899</v>
+        <v>5898</v>
       </c>
       <c r="D1283" s="3" t="s">
         <v>3103</v>
       </c>
       <c r="E1283" t="s">
-        <v>5900</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="1284" spans="1:5" ht="57" customHeight="1">
@@ -41112,13 +41112,13 @@
         <v>3105</v>
       </c>
       <c r="C1284" t="s">
-        <v>5901</v>
+        <v>5900</v>
       </c>
       <c r="D1284" s="3" t="s">
         <v>3106</v>
       </c>
       <c r="E1284" t="s">
-        <v>5902</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="1285" spans="1:5" ht="156.75" customHeight="1">
@@ -41129,13 +41129,13 @@
         <v>1922</v>
       </c>
       <c r="C1285" t="s">
-        <v>5903</v>
+        <v>5902</v>
       </c>
       <c r="D1285" s="3" t="s">
         <v>3108</v>
       </c>
       <c r="E1285" t="s">
-        <v>5904</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="1286" spans="1:5" ht="99.75" customHeight="1">
@@ -41146,13 +41146,13 @@
         <v>1918</v>
       </c>
       <c r="C1286" t="s">
-        <v>5905</v>
+        <v>5904</v>
       </c>
       <c r="D1286" s="3" t="s">
         <v>3110</v>
       </c>
       <c r="E1286" t="s">
-        <v>5906</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="1287" spans="1:5" ht="99.75" customHeight="1">
@@ -41163,13 +41163,13 @@
         <v>3112</v>
       </c>
       <c r="C1287" t="s">
-        <v>5907</v>
+        <v>5906</v>
       </c>
       <c r="D1287" s="3" t="s">
         <v>3113</v>
       </c>
       <c r="E1287" t="s">
-        <v>5908</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="1288" spans="1:5" ht="85.5" customHeight="1">
@@ -41180,13 +41180,13 @@
         <v>3115</v>
       </c>
       <c r="C1288" t="s">
-        <v>5909</v>
+        <v>5908</v>
       </c>
       <c r="D1288" s="3" t="s">
         <v>3116</v>
       </c>
       <c r="E1288" t="s">
-        <v>5910</v>
+        <v>5909</v>
       </c>
     </row>
     <row r="1289" spans="1:5" ht="71.25" customHeight="1">
@@ -41203,7 +41203,7 @@
         <v>3118</v>
       </c>
       <c r="E1289" t="s">
-        <v>5911</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="1290" spans="1:5" ht="53.25" customHeight="1">
@@ -41214,13 +41214,13 @@
         <v>3120</v>
       </c>
       <c r="C1290" t="s">
-        <v>5912</v>
+        <v>5911</v>
       </c>
       <c r="D1290" s="3" t="s">
         <v>3121</v>
       </c>
       <c r="E1290" t="s">
-        <v>5913</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="1291" spans="1:5" ht="42.75" customHeight="1">
@@ -41231,13 +41231,13 @@
         <v>3123</v>
       </c>
       <c r="C1291" t="s">
-        <v>5914</v>
+        <v>5913</v>
       </c>
       <c r="D1291" s="3" t="s">
         <v>3124</v>
       </c>
       <c r="E1291" t="s">
-        <v>5915</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="1292" spans="1:5" ht="85.5" customHeight="1">
@@ -41248,13 +41248,13 @@
         <v>537</v>
       </c>
       <c r="C1292" t="s">
-        <v>5916</v>
+        <v>5915</v>
       </c>
       <c r="D1292" s="3" t="s">
         <v>3126</v>
       </c>
       <c r="E1292" t="s">
-        <v>5917</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="1293" spans="1:5" ht="42.75" customHeight="1">
@@ -41265,13 +41265,13 @@
         <v>3128</v>
       </c>
       <c r="C1293" t="s">
-        <v>5918</v>
+        <v>5917</v>
       </c>
       <c r="D1293" s="3" t="s">
         <v>3129</v>
       </c>
       <c r="E1293" t="s">
-        <v>5919</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="1294" spans="1:5" ht="57" customHeight="1">
@@ -41282,13 +41282,13 @@
         <v>3131</v>
       </c>
       <c r="C1294" t="s">
-        <v>5920</v>
+        <v>5919</v>
       </c>
       <c r="D1294" s="3" t="s">
         <v>3132</v>
       </c>
       <c r="E1294" t="s">
-        <v>5921</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1295" spans="1:5" ht="128.25" customHeight="1">
@@ -41299,13 +41299,13 @@
         <v>3134</v>
       </c>
       <c r="C1295" t="s">
-        <v>5922</v>
+        <v>5921</v>
       </c>
       <c r="D1295" s="3" t="s">
         <v>3135</v>
       </c>
       <c r="E1295" t="s">
-        <v>5923</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="1296" spans="1:5" ht="85.5" customHeight="1">
@@ -41316,13 +41316,13 @@
         <v>3137</v>
       </c>
       <c r="C1296" t="s">
-        <v>5924</v>
+        <v>5923</v>
       </c>
       <c r="D1296" s="3" t="s">
         <v>3138</v>
       </c>
       <c r="E1296" t="s">
-        <v>5925</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="1297" spans="1:5" ht="128.25" customHeight="1">
@@ -41333,13 +41333,13 @@
         <v>3140</v>
       </c>
       <c r="C1297" t="s">
-        <v>5926</v>
+        <v>5925</v>
       </c>
       <c r="D1297" s="3" t="s">
         <v>3141</v>
       </c>
       <c r="E1297" t="s">
-        <v>5927</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="1298" spans="1:5" ht="71.25" customHeight="1">
@@ -41350,13 +41350,13 @@
         <v>3143</v>
       </c>
       <c r="C1298" t="s">
-        <v>5928</v>
+        <v>5927</v>
       </c>
       <c r="D1298" s="3" t="s">
         <v>3144</v>
       </c>
       <c r="E1298" t="s">
-        <v>5929</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="1299" spans="1:5" ht="85.5" customHeight="1">
@@ -41367,13 +41367,13 @@
         <v>3146</v>
       </c>
       <c r="C1299" t="s">
-        <v>5930</v>
+        <v>5929</v>
       </c>
       <c r="D1299" s="3" t="s">
         <v>3147</v>
       </c>
       <c r="E1299" t="s">
-        <v>5931</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="1300" spans="1:5" ht="28.5" customHeight="1">
@@ -41384,13 +41384,13 @@
         <v>3149</v>
       </c>
       <c r="C1300" t="s">
-        <v>5932</v>
+        <v>5931</v>
       </c>
       <c r="D1300" s="3" t="s">
         <v>3150</v>
       </c>
       <c r="E1300" t="s">
-        <v>5933</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="1301" spans="1:5" ht="57" customHeight="1">
@@ -41401,13 +41401,13 @@
         <v>2379</v>
       </c>
       <c r="C1301" t="s">
-        <v>5934</v>
+        <v>5933</v>
       </c>
       <c r="D1301" s="3" t="s">
         <v>2380</v>
       </c>
       <c r="E1301" t="s">
-        <v>5935</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="1302" spans="1:5" ht="85.5" customHeight="1">
@@ -41424,7 +41424,7 @@
         <v>3154</v>
       </c>
       <c r="E1302" t="s">
-        <v>5936</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="1303" spans="1:5" ht="42.75" customHeight="1">
@@ -41441,7 +41441,7 @@
         <v>3158</v>
       </c>
       <c r="E1303" t="s">
-        <v>5937</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="1304" spans="1:5" ht="42.75" customHeight="1">
@@ -41458,7 +41458,7 @@
         <v>3160</v>
       </c>
       <c r="E1304" t="s">
-        <v>5938</v>
+        <v>5937</v>
       </c>
     </row>
     <row r="1305" spans="1:5" ht="171" customHeight="1">
@@ -41475,7 +41475,7 @@
         <v>3164</v>
       </c>
       <c r="E1305" t="s">
-        <v>5939</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="1306" spans="1:5" ht="71.25" customHeight="1">
@@ -41486,13 +41486,13 @@
         <v>3166</v>
       </c>
       <c r="C1306" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="D1306" s="3" t="s">
         <v>3168</v>
       </c>
       <c r="E1306" t="s">
-        <v>5941</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1307" spans="1:5" ht="57" customHeight="1">
@@ -41509,7 +41509,7 @@
         <v>3172</v>
       </c>
       <c r="E1307" t="s">
-        <v>5942</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="1308" spans="1:5" ht="42.75" customHeight="1">
@@ -41520,13 +41520,13 @@
         <v>3174</v>
       </c>
       <c r="C1308" t="s">
-        <v>5940</v>
+        <v>5939</v>
       </c>
       <c r="D1308" s="3" t="s">
         <v>3176</v>
       </c>
       <c r="E1308" t="s">
-        <v>5943</v>
+        <v>5942</v>
       </c>
     </row>
     <row r="1309" spans="1:5" ht="128.25" customHeight="1">
@@ -41543,7 +41543,7 @@
         <v>3178</v>
       </c>
       <c r="E1309" t="s">
-        <v>5944</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="1310" spans="1:5" ht="42.75" customHeight="1">
@@ -41554,13 +41554,13 @@
         <v>3180</v>
       </c>
       <c r="C1310" t="s">
-        <v>5945</v>
+        <v>5944</v>
       </c>
       <c r="D1310" s="3" t="s">
         <v>3182</v>
       </c>
       <c r="E1310" t="s">
-        <v>5946</v>
+        <v>5945</v>
       </c>
     </row>
     <row r="1311" spans="1:5" ht="42.75" customHeight="1">
@@ -41577,7 +41577,7 @@
         <v>3186</v>
       </c>
       <c r="E1311" t="s">
-        <v>5947</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="1312" spans="1:5" ht="99.75" customHeight="1">
@@ -41588,13 +41588,13 @@
         <v>3188</v>
       </c>
       <c r="C1312" t="s">
-        <v>5948</v>
+        <v>5947</v>
       </c>
       <c r="D1312" s="3" t="s">
         <v>3190</v>
       </c>
       <c r="E1312" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="1313" spans="1:5" ht="71.25" customHeight="1">
@@ -41611,7 +41611,7 @@
         <v>3194</v>
       </c>
       <c r="E1313" t="s">
-        <v>5950</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="1314" spans="1:5" ht="71.25" customHeight="1">
@@ -41622,13 +41622,13 @@
         <v>3196</v>
       </c>
       <c r="C1314" t="s">
-        <v>5951</v>
+        <v>5950</v>
       </c>
       <c r="D1314" s="3" t="s">
         <v>3198</v>
       </c>
       <c r="E1314" t="s">
-        <v>5952</v>
+        <v>5951</v>
       </c>
     </row>
     <row r="1315" spans="1:5" ht="42.75" customHeight="1">
@@ -41645,7 +41645,7 @@
         <v>3202</v>
       </c>
       <c r="E1315" t="s">
-        <v>5953</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="1316" spans="1:5" ht="128.25" customHeight="1">
@@ -41656,13 +41656,13 @@
         <v>2143</v>
       </c>
       <c r="C1316" t="s">
-        <v>5954</v>
+        <v>5953</v>
       </c>
       <c r="D1316" s="3" t="s">
         <v>3204</v>
       </c>
       <c r="E1316" t="s">
-        <v>5955</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="1317" spans="1:5" ht="57" customHeight="1">
@@ -41679,7 +41679,7 @@
         <v>3208</v>
       </c>
       <c r="E1317" t="s">
-        <v>5956</v>
+        <v>5955</v>
       </c>
     </row>
     <row r="1318" spans="1:5" ht="171" customHeight="1">
@@ -41696,7 +41696,7 @@
         <v>3210</v>
       </c>
       <c r="E1318" t="s">
-        <v>5957</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="1319" spans="1:5" ht="71.25" customHeight="1">
@@ -41713,7 +41713,7 @@
         <v>3012</v>
       </c>
       <c r="E1319" t="s">
-        <v>5840</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="1320" spans="1:5" ht="142.5" customHeight="1">
@@ -41724,13 +41724,13 @@
         <v>3213</v>
       </c>
       <c r="C1320" t="s">
-        <v>5958</v>
+        <v>5957</v>
       </c>
       <c r="D1320" s="3" t="s">
         <v>3215</v>
       </c>
       <c r="E1320" t="s">
-        <v>5959</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="1321" spans="1:5" ht="99.75" customHeight="1">
@@ -41747,7 +41747,7 @@
         <v>3219</v>
       </c>
       <c r="E1321" t="s">
-        <v>5960</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="57" customHeight="1">
@@ -41758,13 +41758,13 @@
         <v>3221</v>
       </c>
       <c r="C1322" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="D1322" s="3" t="s">
         <v>3223</v>
       </c>
       <c r="E1322" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="1323" spans="1:5" ht="99.75" customHeight="1">
@@ -41781,7 +41781,7 @@
         <v>3227</v>
       </c>
       <c r="E1323" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="1324" spans="1:5" ht="99.75" customHeight="1">
@@ -41792,13 +41792,13 @@
         <v>3229</v>
       </c>
       <c r="C1324" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
       <c r="D1324" s="3" t="s">
         <v>3231</v>
       </c>
       <c r="E1324" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
     </row>
     <row r="1325" spans="1:5" ht="213.75" customHeight="1">
@@ -41815,7 +41815,7 @@
         <v>3233</v>
       </c>
       <c r="E1325" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="1326" spans="1:5" ht="42.75" customHeight="1">
@@ -41826,13 +41826,13 @@
         <v>3235</v>
       </c>
       <c r="C1326" t="s">
-        <v>5967</v>
+        <v>5966</v>
       </c>
       <c r="D1326" s="3" t="s">
         <v>3237</v>
       </c>
       <c r="E1326" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
     </row>
     <row r="1327" spans="1:5" ht="42.75" customHeight="1">
@@ -41849,7 +41849,7 @@
         <v>3241</v>
       </c>
       <c r="E1327" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="1328" spans="1:5" ht="42.75" customHeight="1">
@@ -41860,13 +41860,13 @@
         <v>3188</v>
       </c>
       <c r="C1328" t="s">
-        <v>5970</v>
+        <v>5969</v>
       </c>
       <c r="D1328" s="3" t="s">
         <v>3243</v>
       </c>
       <c r="E1328" t="s">
-        <v>5949</v>
+        <v>5948</v>
       </c>
     </row>
     <row r="1329" spans="1:5" ht="114" customHeight="1">
@@ -41883,7 +41883,7 @@
         <v>3247</v>
       </c>
       <c r="E1329" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1330" spans="1:5" ht="85.5" customHeight="1">
@@ -41894,13 +41894,13 @@
         <v>3249</v>
       </c>
       <c r="C1330" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="D1330" s="3" t="s">
         <v>3251</v>
       </c>
       <c r="E1330" t="s">
-        <v>5973</v>
+        <v>5972</v>
       </c>
     </row>
     <row r="1331" spans="1:5" ht="99.75" customHeight="1">
@@ -41917,7 +41917,7 @@
         <v>3253</v>
       </c>
       <c r="E1331" t="s">
-        <v>5974</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="1332" spans="1:5" ht="42.75" customHeight="1">
@@ -41928,13 +41928,13 @@
         <v>3255</v>
       </c>
       <c r="C1332" t="s">
-        <v>5975</v>
+        <v>5974</v>
       </c>
       <c r="D1332" s="3" t="s">
         <v>3257</v>
       </c>
       <c r="E1332" t="s">
-        <v>5976</v>
+        <v>5975</v>
       </c>
     </row>
     <row r="1333" spans="1:5" ht="85.5" customHeight="1">
@@ -41951,7 +41951,7 @@
         <v>3259</v>
       </c>
       <c r="E1333" t="s">
-        <v>5977</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="1334" spans="1:5" ht="85.5" customHeight="1">
@@ -41962,13 +41962,13 @@
         <v>3261</v>
       </c>
       <c r="C1334" t="s">
-        <v>5978</v>
+        <v>5977</v>
       </c>
       <c r="D1334" s="3" t="s">
         <v>3263</v>
       </c>
       <c r="E1334" t="s">
-        <v>5979</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="1335" spans="1:5" ht="128.25" customHeight="1">
@@ -41985,7 +41985,7 @@
         <v>3265</v>
       </c>
       <c r="E1335" t="s">
-        <v>5980</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="1336" spans="1:5" ht="99.75" customHeight="1">
@@ -42002,7 +42002,7 @@
         <v>3267</v>
       </c>
       <c r="E1336" t="s">
-        <v>5981</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="1337" spans="1:5" ht="57" customHeight="1">
@@ -42019,7 +42019,7 @@
         <v>3271</v>
       </c>
       <c r="E1337" t="s">
-        <v>5982</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="1338" spans="1:5" ht="71.25" customHeight="1">
@@ -42030,13 +42030,13 @@
         <v>3273</v>
       </c>
       <c r="C1338" t="s">
-        <v>5983</v>
+        <v>5982</v>
       </c>
       <c r="D1338" s="3" t="s">
         <v>3275</v>
       </c>
       <c r="E1338" t="s">
-        <v>5984</v>
+        <v>5983</v>
       </c>
     </row>
     <row r="1339" spans="1:5" ht="34.5" customHeight="1">
@@ -42053,7 +42053,7 @@
         <v>3279</v>
       </c>
       <c r="E1339" t="s">
-        <v>5985</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="1340" spans="1:5" ht="85.5" customHeight="1">
@@ -42064,13 +42064,13 @@
         <v>3281</v>
       </c>
       <c r="C1340" t="s">
-        <v>5986</v>
+        <v>5985</v>
       </c>
       <c r="D1340" s="6" t="s">
         <v>3283</v>
       </c>
       <c r="E1340" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="1341" spans="1:5" ht="51.75" customHeight="1">
@@ -42087,7 +42087,7 @@
         <v>3287</v>
       </c>
       <c r="E1341" t="s">
-        <v>5988</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="1342" spans="1:5" ht="171" customHeight="1">
@@ -42098,13 +42098,13 @@
         <v>1068</v>
       </c>
       <c r="C1342" t="s">
-        <v>5989</v>
+        <v>5988</v>
       </c>
       <c r="D1342" s="3" t="s">
         <v>3289</v>
       </c>
       <c r="E1342" t="s">
-        <v>5990</v>
+        <v>5989</v>
       </c>
     </row>
     <row r="1343" spans="1:5" ht="42.75" customHeight="1">
@@ -42121,7 +42121,7 @@
         <v>3293</v>
       </c>
       <c r="E1343" t="s">
-        <v>5991</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="1344" spans="1:5" ht="42.75" customHeight="1">
@@ -42132,13 +42132,13 @@
         <v>3295</v>
       </c>
       <c r="C1344" t="s">
-        <v>5992</v>
+        <v>5991</v>
       </c>
       <c r="D1344" s="3" t="s">
         <v>3297</v>
       </c>
       <c r="E1344" t="s">
-        <v>5993</v>
+        <v>5992</v>
       </c>
     </row>
     <row r="1345" spans="1:5" ht="114" customHeight="1">
@@ -42155,7 +42155,7 @@
         <v>3301</v>
       </c>
       <c r="E1345" t="s">
-        <v>5994</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="1346" spans="1:5" ht="142.5" customHeight="1">
@@ -42166,13 +42166,13 @@
         <v>3303</v>
       </c>
       <c r="C1346" t="s">
-        <v>5995</v>
+        <v>5994</v>
       </c>
       <c r="D1346" s="3" t="s">
         <v>3305</v>
       </c>
       <c r="E1346" t="s">
-        <v>5996</v>
+        <v>5995</v>
       </c>
     </row>
     <row r="1347" spans="1:5" ht="99.75" customHeight="1">
@@ -42189,7 +42189,7 @@
         <v>3309</v>
       </c>
       <c r="E1347" t="s">
-        <v>5997</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="1348" spans="1:5" ht="99.75" customHeight="1">
@@ -42200,13 +42200,13 @@
         <v>3311</v>
       </c>
       <c r="C1348" t="s">
-        <v>5998</v>
+        <v>5997</v>
       </c>
       <c r="D1348" s="3" t="s">
         <v>3313</v>
       </c>
       <c r="E1348" t="s">
-        <v>5999</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="1349" spans="1:5" ht="99.75" customHeight="1">
@@ -42223,7 +42223,7 @@
         <v>3313</v>
       </c>
       <c r="E1349" t="s">
-        <v>5999</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="1350" spans="1:5" ht="71.25" customHeight="1">
@@ -42240,7 +42240,7 @@
         <v>3318</v>
       </c>
       <c r="E1350" t="s">
-        <v>6000</v>
+        <v>5999</v>
       </c>
     </row>
     <row r="1351" spans="1:5" ht="42.75" customHeight="1">
@@ -42257,7 +42257,7 @@
         <v>3322</v>
       </c>
       <c r="E1351" t="s">
-        <v>6001</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1352" spans="1:5" ht="99.75" customHeight="1">
@@ -42268,13 +42268,13 @@
         <v>3324</v>
       </c>
       <c r="C1352" t="s">
-        <v>6002</v>
+        <v>6001</v>
       </c>
       <c r="D1352" s="3" t="s">
         <v>3326</v>
       </c>
       <c r="E1352" t="s">
-        <v>6003</v>
+        <v>6002</v>
       </c>
     </row>
     <row r="1353" spans="1:5" ht="99.75" customHeight="1">
@@ -42291,7 +42291,7 @@
         <v>3330</v>
       </c>
       <c r="E1353" t="s">
-        <v>6004</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="1354" spans="1:5" ht="42.75" customHeight="1">
@@ -42302,13 +42302,13 @@
         <v>3332</v>
       </c>
       <c r="C1354" t="s">
-        <v>6005</v>
+        <v>6004</v>
       </c>
       <c r="D1354" s="3" t="s">
         <v>3334</v>
       </c>
       <c r="E1354" t="s">
-        <v>6006</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="1355" spans="1:5" ht="42.75" customHeight="1">
@@ -42325,7 +42325,7 @@
         <v>3338</v>
       </c>
       <c r="E1355" t="s">
-        <v>6007</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="1356" spans="1:5" ht="71.25" customHeight="1">
@@ -42336,13 +42336,13 @@
         <v>3340</v>
       </c>
       <c r="C1356" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
       <c r="D1356" s="6" t="s">
         <v>3342</v>
       </c>
       <c r="E1356" t="s">
-        <v>6008</v>
+        <v>6007</v>
       </c>
     </row>
     <row r="1357" spans="1:5" ht="28.5" customHeight="1">
@@ -42359,7 +42359,7 @@
         <v>3346</v>
       </c>
       <c r="E1357" t="s">
-        <v>6009</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="1358" spans="1:5" ht="57" customHeight="1">
@@ -42370,13 +42370,13 @@
         <v>3348</v>
       </c>
       <c r="C1358" t="s">
-        <v>6010</v>
+        <v>6009</v>
       </c>
       <c r="D1358" s="3" t="s">
         <v>3350</v>
       </c>
       <c r="E1358" t="s">
-        <v>6011</v>
+        <v>6010</v>
       </c>
     </row>
     <row r="1359" spans="1:5" ht="114" customHeight="1">
@@ -42393,7 +42393,7 @@
         <v>3353</v>
       </c>
       <c r="E1359" t="s">
-        <v>6012</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="1360" spans="1:5" ht="42.75" customHeight="1">
@@ -42404,13 +42404,13 @@
         <v>3355</v>
       </c>
       <c r="C1360" t="s">
-        <v>6013</v>
+        <v>6012</v>
       </c>
       <c r="D1360" s="3" t="s">
         <v>3356</v>
       </c>
       <c r="E1360" t="s">
-        <v>6014</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="1361" spans="1:5" ht="42.75" customHeight="1">
@@ -42427,7 +42427,7 @@
         <v>3360</v>
       </c>
       <c r="E1361" t="s">
-        <v>6015</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="1362" spans="1:5" ht="57" customHeight="1">
@@ -42438,13 +42438,13 @@
         <v>3362</v>
       </c>
       <c r="C1362" t="s">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="D1362" s="3" t="s">
         <v>3364</v>
       </c>
       <c r="E1362" s="11" t="s">
-        <v>6017</v>
+        <v>6016</v>
       </c>
     </row>
     <row r="1363" spans="1:5" ht="71.25" customHeight="1">
@@ -42461,7 +42461,7 @@
         <v>3368</v>
       </c>
       <c r="E1363" t="s">
-        <v>6018</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="1364" spans="1:5" ht="71.25" customHeight="1">
@@ -42472,13 +42472,13 @@
         <v>3366</v>
       </c>
       <c r="C1364" t="s">
-        <v>6019</v>
+        <v>6018</v>
       </c>
       <c r="D1364" s="3" t="s">
         <v>3368</v>
       </c>
       <c r="E1364" t="s">
-        <v>6018</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="1365" spans="1:5" ht="99.75" customHeight="1">
@@ -42495,7 +42495,7 @@
         <v>3373</v>
       </c>
       <c r="E1365" t="s">
-        <v>6020</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="1366" spans="1:5" ht="99.75" customHeight="1">
@@ -42506,13 +42506,13 @@
         <v>3375</v>
       </c>
       <c r="C1366" t="s">
-        <v>6021</v>
+        <v>6020</v>
       </c>
       <c r="D1366" s="3" t="s">
         <v>3376</v>
       </c>
       <c r="E1366" t="s">
-        <v>6022</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="1367" spans="1:5" ht="99.75" customHeight="1">
@@ -42529,7 +42529,7 @@
         <v>3376</v>
       </c>
       <c r="E1367" t="s">
-        <v>6022</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="1368" spans="1:5" ht="128.25" customHeight="1">
@@ -42540,13 +42540,13 @@
         <v>3379</v>
       </c>
       <c r="C1368" t="s">
-        <v>6023</v>
+        <v>6022</v>
       </c>
       <c r="D1368" s="3" t="s">
         <v>3380</v>
       </c>
       <c r="E1368" t="s">
-        <v>6024</v>
+        <v>6023</v>
       </c>
     </row>
     <row r="1369" spans="1:5" ht="42.75" customHeight="1">
@@ -42563,7 +42563,7 @@
         <v>3383</v>
       </c>
       <c r="E1369" t="s">
-        <v>6025</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="1370" spans="1:5" ht="85.5" customHeight="1">
@@ -42574,13 +42574,13 @@
         <v>2186</v>
       </c>
       <c r="C1370" t="s">
-        <v>6026</v>
+        <v>6025</v>
       </c>
       <c r="D1370" s="3" t="s">
         <v>3385</v>
       </c>
       <c r="E1370" t="s">
-        <v>6027</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="1371" spans="1:5" ht="114" customHeight="1">
@@ -42597,7 +42597,7 @@
         <v>3387</v>
       </c>
       <c r="E1371" t="s">
-        <v>6028</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="1372" spans="1:5" ht="42.75" customHeight="1">
@@ -42614,7 +42614,7 @@
         <v>3390</v>
       </c>
       <c r="E1372" t="s">
-        <v>6029</v>
+        <v>6028</v>
       </c>
     </row>
     <row r="1373" spans="1:5" ht="85.5" customHeight="1">
@@ -42631,7 +42631,7 @@
         <v>3393</v>
       </c>
       <c r="E1373" t="s">
-        <v>6030</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="1374" spans="1:5" ht="57" customHeight="1">
@@ -42642,7 +42642,7 @@
         <v>2195</v>
       </c>
       <c r="C1374" t="s">
-        <v>6031</v>
+        <v>6030</v>
       </c>
       <c r="D1374" s="3" t="s">
         <v>3395</v>
@@ -42665,7 +42665,7 @@
         <v>3398</v>
       </c>
       <c r="E1375" t="s">
-        <v>6032</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="1376" spans="1:5" ht="99.75" customHeight="1">
@@ -42676,13 +42676,13 @@
         <v>3400</v>
       </c>
       <c r="C1376" t="s">
-        <v>6033</v>
+        <v>6032</v>
       </c>
       <c r="D1376" s="3" t="s">
         <v>3401</v>
       </c>
       <c r="E1376" t="s">
-        <v>6034</v>
+        <v>6033</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="128.25" customHeight="1">
@@ -42699,7 +42699,7 @@
         <v>3403</v>
       </c>
       <c r="E1377" t="s">
-        <v>6035</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="1378" spans="1:5" ht="71.25" customHeight="1">
@@ -42710,13 +42710,13 @@
         <v>3405</v>
       </c>
       <c r="C1378" t="s">
-        <v>6036</v>
+        <v>6035</v>
       </c>
       <c r="D1378" s="3" t="s">
         <v>3406</v>
       </c>
       <c r="E1378" t="s">
-        <v>6037</v>
+        <v>6036</v>
       </c>
     </row>
     <row r="1379" spans="1:5" ht="71.25" customHeight="1">
@@ -42733,7 +42733,7 @@
         <v>3409</v>
       </c>
       <c r="E1379" t="s">
-        <v>6038</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="1380" spans="1:5" ht="99.75" customHeight="1">
@@ -42744,13 +42744,13 @@
         <v>3411</v>
       </c>
       <c r="C1380" t="s">
-        <v>6039</v>
+        <v>6038</v>
       </c>
       <c r="D1380" s="3" t="s">
         <v>3412</v>
       </c>
       <c r="E1380" t="s">
-        <v>6040</v>
+        <v>6039</v>
       </c>
     </row>
     <row r="1381" spans="1:5" ht="42.75" customHeight="1">
@@ -42767,7 +42767,7 @@
         <v>3415</v>
       </c>
       <c r="E1381" t="s">
-        <v>6041</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1382" spans="1:5" ht="57" customHeight="1">
@@ -42778,13 +42778,13 @@
         <v>3417</v>
       </c>
       <c r="C1382" t="s">
-        <v>6042</v>
+        <v>6041</v>
       </c>
       <c r="D1382" s="3" t="s">
         <v>3418</v>
       </c>
       <c r="E1382" t="s">
-        <v>6043</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="1383" spans="1:5" ht="42.75" customHeight="1">
@@ -42801,7 +42801,7 @@
         <v>3421</v>
       </c>
       <c r="E1383" t="s">
-        <v>6044</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="1384" spans="1:5" ht="85.5" customHeight="1">
@@ -42818,7 +42818,7 @@
         <v>3424</v>
       </c>
       <c r="E1384" t="s">
-        <v>6045</v>
+        <v>6044</v>
       </c>
     </row>
     <row r="1385" spans="1:5" ht="42.75" customHeight="1">
@@ -42835,7 +42835,7 @@
         <v>3427</v>
       </c>
       <c r="E1385" t="s">
-        <v>6046</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="1386" spans="1:5" ht="42.75" customHeight="1">
@@ -42846,13 +42846,13 @@
         <v>2315</v>
       </c>
       <c r="C1386" t="s">
-        <v>6047</v>
+        <v>6046</v>
       </c>
       <c r="D1386" s="3" t="s">
         <v>3429</v>
       </c>
       <c r="E1386" t="s">
-        <v>6048</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="1387" spans="1:5" ht="57" customHeight="1">
@@ -42869,7 +42869,7 @@
         <v>3431</v>
       </c>
       <c r="E1387" t="s">
-        <v>6049</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="1388" spans="1:5" ht="42.75" customHeight="1">
@@ -42880,13 +42880,13 @@
         <v>3433</v>
       </c>
       <c r="C1388" t="s">
-        <v>6050</v>
+        <v>6049</v>
       </c>
       <c r="D1388" s="3" t="s">
         <v>3434</v>
       </c>
       <c r="E1388" t="s">
-        <v>6051</v>
+        <v>6050</v>
       </c>
     </row>
     <row r="1389" spans="1:5" ht="85.5" customHeight="1">
@@ -42903,7 +42903,7 @@
         <v>3437</v>
       </c>
       <c r="E1389" t="s">
-        <v>6052</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="1390" spans="1:5" ht="42.75" customHeight="1">
@@ -42914,13 +42914,13 @@
         <v>3439</v>
       </c>
       <c r="C1390" t="s">
-        <v>6053</v>
+        <v>6052</v>
       </c>
       <c r="D1390" s="6" t="s">
         <v>3440</v>
       </c>
       <c r="E1390" t="s">
-        <v>6054</v>
+        <v>6053</v>
       </c>
     </row>
     <row r="1391" spans="1:5" ht="53.25" customHeight="1">
@@ -42937,7 +42937,7 @@
         <v>3443</v>
       </c>
       <c r="E1391" t="s">
-        <v>6055</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="1392" spans="1:5" ht="28.5" customHeight="1">
@@ -42948,13 +42948,13 @@
         <v>3445</v>
       </c>
       <c r="C1392" t="s">
-        <v>6056</v>
+        <v>6055</v>
       </c>
       <c r="D1392" s="3" t="s">
         <v>3446</v>
       </c>
       <c r="E1392" t="s">
-        <v>6057</v>
+        <v>6056</v>
       </c>
     </row>
     <row r="1393" spans="1:5" ht="114" customHeight="1">
@@ -42971,7 +42971,7 @@
         <v>3448</v>
       </c>
       <c r="E1393" t="s">
-        <v>6058</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="1394" spans="1:5" ht="42.75" customHeight="1">
@@ -42982,13 +42982,13 @@
         <v>3450</v>
       </c>
       <c r="C1394" t="s">
-        <v>6059</v>
+        <v>6058</v>
       </c>
       <c r="D1394" s="3" t="s">
         <v>3451</v>
       </c>
       <c r="E1394" t="s">
-        <v>6060</v>
+        <v>6059</v>
       </c>
     </row>
     <row r="1395" spans="1:5" ht="57" customHeight="1">
@@ -43005,7 +43005,7 @@
         <v>3454</v>
       </c>
       <c r="E1395" t="s">
-        <v>6061</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1396" spans="1:5" ht="57" customHeight="1">
@@ -43016,13 +43016,13 @@
         <v>3456</v>
       </c>
       <c r="C1396" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
       <c r="D1396" s="3" t="s">
         <v>3457</v>
       </c>
       <c r="E1396" t="s">
-        <v>6063</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="1397" spans="1:5" ht="28.5" customHeight="1">
@@ -43045,13 +43045,13 @@
         <v>3461</v>
       </c>
       <c r="C1398" t="s">
-        <v>6062</v>
+        <v>6061</v>
       </c>
       <c r="D1398" s="3" t="s">
         <v>3462</v>
       </c>
       <c r="E1398" t="s">
-        <v>6064</v>
+        <v>6063</v>
       </c>
     </row>
     <row r="1399" spans="1:5" ht="156.75" customHeight="1">
@@ -43068,7 +43068,7 @@
         <v>3465</v>
       </c>
       <c r="E1399" t="s">
-        <v>6065</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="1400" spans="1:5" ht="28.5" customHeight="1">
@@ -43079,7 +43079,7 @@
         <v>3466</v>
       </c>
       <c r="C1400" t="s">
-        <v>6066</v>
+        <v>6065</v>
       </c>
       <c r="D1400" s="3"/>
     </row>
@@ -43097,7 +43097,7 @@
         <v>3469</v>
       </c>
       <c r="E1401" t="s">
-        <v>6067</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="1402" spans="1:5" ht="85.5" customHeight="1">
@@ -43108,13 +43108,13 @@
         <v>1121</v>
       </c>
       <c r="C1402" t="s">
-        <v>6068</v>
+        <v>6067</v>
       </c>
       <c r="D1402" s="3" t="s">
         <v>3471</v>
       </c>
       <c r="E1402" t="s">
-        <v>6069</v>
+        <v>6068</v>
       </c>
     </row>
     <row r="1403" spans="1:5" ht="57" customHeight="1">
@@ -43131,7 +43131,7 @@
         <v>3474</v>
       </c>
       <c r="E1403" t="s">
-        <v>6070</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="1404" spans="1:5" ht="99.75" customHeight="1">
@@ -43142,13 +43142,13 @@
         <v>3476</v>
       </c>
       <c r="C1404" t="s">
-        <v>6071</v>
+        <v>6070</v>
       </c>
       <c r="D1404" s="3" t="s">
         <v>3477</v>
       </c>
       <c r="E1404" t="s">
-        <v>6072</v>
+        <v>6071</v>
       </c>
     </row>
     <row r="1405" spans="1:5" ht="85.5" customHeight="1">
@@ -43165,7 +43165,7 @@
         <v>3480</v>
       </c>
       <c r="E1405" t="s">
-        <v>6073</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="1406" spans="1:5" ht="42.75" customHeight="1">
@@ -43176,13 +43176,13 @@
         <v>3482</v>
       </c>
       <c r="C1406" t="s">
-        <v>6074</v>
+        <v>6073</v>
       </c>
       <c r="D1406" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="E1406" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="1407" spans="1:5" ht="42.75" customHeight="1">
@@ -43199,7 +43199,7 @@
         <v>3486</v>
       </c>
       <c r="E1407" t="s">
-        <v>6075</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="1408" spans="1:5" ht="42.75" customHeight="1">
@@ -43210,13 +43210,13 @@
         <v>3488</v>
       </c>
       <c r="C1408" t="s">
-        <v>6076</v>
+        <v>6075</v>
       </c>
       <c r="D1408" s="3" t="s">
         <v>3489</v>
       </c>
       <c r="E1408" t="s">
-        <v>6077</v>
+        <v>6076</v>
       </c>
     </row>
     <row r="1409" spans="1:5" ht="42.75" customHeight="1">
@@ -43233,7 +43233,7 @@
         <v>3492</v>
       </c>
       <c r="E1409" t="s">
-        <v>6078</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="1410" spans="1:5" ht="42.75" customHeight="1">
@@ -43244,13 +43244,13 @@
         <v>3494</v>
       </c>
       <c r="C1410" t="s">
-        <v>6079</v>
+        <v>6078</v>
       </c>
       <c r="D1410" s="3" t="s">
         <v>3495</v>
       </c>
       <c r="E1410" t="s">
-        <v>6080</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="1411" spans="1:5" ht="57" customHeight="1">
@@ -43267,7 +43267,7 @@
         <v>3498</v>
       </c>
       <c r="E1411" t="s">
-        <v>6081</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1412" spans="1:5" ht="85.5" customHeight="1">
@@ -43278,13 +43278,13 @@
         <v>1316</v>
       </c>
       <c r="C1412" t="s">
-        <v>6082</v>
+        <v>6081</v>
       </c>
       <c r="D1412" s="3" t="s">
         <v>3500</v>
       </c>
       <c r="E1412" t="s">
-        <v>6083</v>
+        <v>6082</v>
       </c>
     </row>
     <row r="1413" spans="1:5" ht="42.75" customHeight="1">
@@ -43301,7 +43301,7 @@
         <v>3503</v>
       </c>
       <c r="E1413" t="s">
-        <v>6084</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="1414" spans="1:5" ht="42.75" customHeight="1">
@@ -43312,13 +43312,13 @@
         <v>3505</v>
       </c>
       <c r="C1414" t="s">
-        <v>6085</v>
+        <v>6084</v>
       </c>
       <c r="D1414" s="3" t="s">
         <v>3506</v>
       </c>
       <c r="E1414" t="s">
-        <v>6086</v>
+        <v>6085</v>
       </c>
     </row>
     <row r="1415" spans="1:5" ht="28.5" customHeight="1">
@@ -43335,7 +43335,7 @@
         <v>3509</v>
       </c>
       <c r="E1415" t="s">
-        <v>6087</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="1416" spans="1:5" ht="71.25" customHeight="1">
@@ -43346,13 +43346,13 @@
         <v>3511</v>
       </c>
       <c r="C1416" s="8" t="s">
-        <v>6088</v>
+        <v>6087</v>
       </c>
       <c r="D1416" s="7" t="s">
         <v>3512</v>
       </c>
       <c r="E1416" s="8" t="s">
-        <v>6089</v>
+        <v>6088</v>
       </c>
     </row>
     <row r="1417" spans="1:5" ht="57" customHeight="1">
@@ -43369,7 +43369,7 @@
         <v>3514</v>
       </c>
       <c r="E1417" s="8" t="s">
-        <v>6090</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="1418" spans="1:5" ht="71.25" customHeight="1">
@@ -43380,13 +43380,13 @@
         <v>3515</v>
       </c>
       <c r="C1418" t="s">
-        <v>6091</v>
+        <v>6090</v>
       </c>
       <c r="D1418" s="7" t="s">
         <v>3516</v>
       </c>
       <c r="E1418" s="8" t="s">
-        <v>6092</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="1419" spans="1:5" ht="85.5" customHeight="1">
@@ -43403,7 +43403,7 @@
         <v>3517</v>
       </c>
       <c r="E1419" s="8" t="s">
-        <v>6093</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="1420" spans="1:5" ht="85.5" customHeight="1">
@@ -43420,7 +43420,7 @@
         <v>3519</v>
       </c>
       <c r="E1420" s="8" t="s">
-        <v>6094</v>
+        <v>6093</v>
       </c>
     </row>
     <row r="1421" spans="1:5" ht="57" customHeight="1">
@@ -43437,7 +43437,7 @@
         <v>3521</v>
       </c>
       <c r="E1421" s="8" t="s">
-        <v>6095</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="1422" spans="1:5" ht="99.75" customHeight="1">
@@ -43448,13 +43448,13 @@
         <v>3522</v>
       </c>
       <c r="C1422" t="s">
-        <v>6096</v>
+        <v>6095</v>
       </c>
       <c r="D1422" s="7" t="s">
         <v>3523</v>
       </c>
       <c r="E1422" s="8" t="s">
-        <v>6097</v>
+        <v>6096</v>
       </c>
     </row>
     <row r="1423" spans="1:5" ht="57" customHeight="1">
@@ -43471,7 +43471,7 @@
         <v>3525</v>
       </c>
       <c r="E1423" s="8" t="s">
-        <v>6098</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="1424" spans="1:5" ht="28.5" customHeight="1">
@@ -43482,13 +43482,13 @@
         <v>3526</v>
       </c>
       <c r="C1424" t="s">
-        <v>6099</v>
+        <v>6098</v>
       </c>
       <c r="D1424" s="7" t="s">
         <v>3527</v>
       </c>
       <c r="E1424" s="8" t="s">
-        <v>6100</v>
+        <v>6099</v>
       </c>
     </row>
     <row r="1425" spans="1:5" ht="142.5" customHeight="1">
@@ -43505,7 +43505,7 @@
         <v>3529</v>
       </c>
       <c r="E1425" s="8" t="s">
-        <v>6101</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="1426" spans="1:5" ht="114" customHeight="1">
@@ -43516,13 +43516,13 @@
         <v>3528</v>
       </c>
       <c r="C1426" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D1426" s="3" t="s">
         <v>3531</v>
       </c>
       <c r="E1426" t="s">
-        <v>6103</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="1427" spans="1:5" ht="42.75" customHeight="1">
@@ -43539,7 +43539,7 @@
         <v>3533</v>
       </c>
       <c r="E1427" s="8" t="s">
-        <v>6104</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="1428" spans="1:5" ht="42.75" customHeight="1">
@@ -43550,13 +43550,13 @@
         <v>3534</v>
       </c>
       <c r="C1428" t="s">
-        <v>6102</v>
+        <v>6101</v>
       </c>
       <c r="D1428" s="7" t="s">
         <v>3535</v>
       </c>
       <c r="E1428" s="8" t="s">
-        <v>6105</v>
+        <v>6104</v>
       </c>
     </row>
     <row r="1429" spans="1:5" ht="57" customHeight="1">
@@ -43573,7 +43573,7 @@
         <v>3537</v>
       </c>
       <c r="E1429" s="8" t="s">
-        <v>6106</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="1430" spans="1:5" ht="71.25" customHeight="1">
@@ -43584,13 +43584,13 @@
         <v>3538</v>
       </c>
       <c r="C1430" t="s">
-        <v>6107</v>
+        <v>6106</v>
       </c>
       <c r="D1430" s="7" t="s">
         <v>3539</v>
       </c>
       <c r="E1430" s="8" t="s">
-        <v>6108</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="1431" spans="1:5" ht="42.75" customHeight="1">
@@ -43601,13 +43601,13 @@
         <v>3540</v>
       </c>
       <c r="C1431" t="s">
-        <v>6109</v>
+        <v>6108</v>
       </c>
       <c r="D1431" s="7" t="s">
         <v>3541</v>
       </c>
       <c r="E1431" s="8" t="s">
-        <v>6110</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="114" customHeight="1">
@@ -43618,13 +43618,13 @@
         <v>3542</v>
       </c>
       <c r="C1432" t="s">
-        <v>6111</v>
+        <v>6110</v>
       </c>
       <c r="D1432" s="7" t="s">
         <v>3543</v>
       </c>
       <c r="E1432" s="8" t="s">
-        <v>6112</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="1433" spans="1:5" ht="85.5" customHeight="1">
@@ -43635,13 +43635,13 @@
         <v>3544</v>
       </c>
       <c r="C1433" t="s">
-        <v>6113</v>
+        <v>6112</v>
       </c>
       <c r="D1433" s="7" t="s">
         <v>3545</v>
       </c>
       <c r="E1433" s="8" t="s">
-        <v>6114</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="1434" spans="1:5" ht="142.5" customHeight="1">
@@ -43652,13 +43652,13 @@
         <v>3546</v>
       </c>
       <c r="C1434" s="8" t="s">
-        <v>6115</v>
+        <v>6114</v>
       </c>
       <c r="D1434" s="7" t="s">
         <v>3547</v>
       </c>
       <c r="E1434" s="9" t="s">
-        <v>6116</v>
+        <v>6115</v>
       </c>
     </row>
     <row r="1435" spans="1:5" ht="80.25" customHeight="1">
@@ -43675,7 +43675,7 @@
         <v>3550</v>
       </c>
       <c r="E1435" s="9" t="s">
-        <v>6117</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="1436" spans="1:5" ht="71.25" customHeight="1">
@@ -43686,13 +43686,13 @@
         <v>3551</v>
       </c>
       <c r="C1436" t="s">
-        <v>6118</v>
+        <v>6117</v>
       </c>
       <c r="D1436" s="3" t="s">
         <v>3552</v>
       </c>
       <c r="E1436" t="s">
-        <v>6119</v>
+        <v>6118</v>
       </c>
     </row>
     <row r="1437" spans="1:5" ht="85.5" customHeight="1">
@@ -43703,13 +43703,13 @@
         <v>3551</v>
       </c>
       <c r="C1437" t="s">
-        <v>6118</v>
+        <v>6117</v>
       </c>
       <c r="D1437" s="7" t="s">
         <v>3554</v>
       </c>
       <c r="E1437" s="8" t="s">
-        <v>6120</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="1438" spans="1:5" ht="42.75" customHeight="1">
@@ -43720,13 +43720,13 @@
         <v>3555</v>
       </c>
       <c r="C1438" t="s">
-        <v>6121</v>
+        <v>6120</v>
       </c>
       <c r="D1438" s="3" t="s">
         <v>3556</v>
       </c>
       <c r="E1438" t="s">
-        <v>6122</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="1439" spans="1:5" ht="85.5" customHeight="1">
@@ -43737,13 +43737,13 @@
         <v>3557</v>
       </c>
       <c r="C1439" t="s">
-        <v>6123</v>
+        <v>6122</v>
       </c>
       <c r="D1439" s="7" t="s">
         <v>3558</v>
       </c>
       <c r="E1439" s="8" t="s">
-        <v>6124</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="1440" spans="1:5" ht="71.25" customHeight="1">
@@ -43754,13 +43754,13 @@
         <v>3559</v>
       </c>
       <c r="C1440" t="s">
-        <v>6125</v>
+        <v>6124</v>
       </c>
       <c r="D1440" s="7" t="s">
         <v>3560</v>
       </c>
       <c r="E1440" s="8" t="s">
-        <v>6126</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="1441" spans="1:5" ht="28.5" customHeight="1">
@@ -43771,13 +43771,13 @@
         <v>3562</v>
       </c>
       <c r="C1441" t="s">
-        <v>6127</v>
+        <v>6126</v>
       </c>
       <c r="D1441" s="3" t="s">
         <v>3563</v>
       </c>
       <c r="E1441" t="s">
-        <v>6128</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="1442" spans="1:5" ht="57" customHeight="1">
@@ -43788,13 +43788,13 @@
         <v>3564</v>
       </c>
       <c r="C1442" t="s">
-        <v>6129</v>
+        <v>6128</v>
       </c>
       <c r="D1442" s="7" t="s">
         <v>3565</v>
       </c>
       <c r="E1442" s="8" t="s">
-        <v>6130</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="1443" spans="1:5" ht="42.75" customHeight="1">
@@ -43805,13 +43805,13 @@
         <v>3566</v>
       </c>
       <c r="C1443" t="s">
-        <v>6131</v>
+        <v>6130</v>
       </c>
       <c r="D1443" s="3" t="s">
         <v>3567</v>
       </c>
       <c r="E1443" t="s">
-        <v>6132</v>
+        <v>6131</v>
       </c>
     </row>
     <row r="1444" spans="1:5" ht="71.25" customHeight="1">
@@ -43822,13 +43822,13 @@
         <v>3566</v>
       </c>
       <c r="C1444" t="s">
-        <v>6131</v>
+        <v>6130</v>
       </c>
       <c r="D1444" s="3" t="s">
         <v>3569</v>
       </c>
       <c r="E1444" t="s">
-        <v>6133</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="1445" spans="1:5" ht="57" customHeight="1">
@@ -43839,13 +43839,13 @@
         <v>3571</v>
       </c>
       <c r="C1445" t="s">
-        <v>6134</v>
+        <v>6133</v>
       </c>
       <c r="D1445" s="3" t="s">
         <v>3572</v>
       </c>
       <c r="E1445" t="s">
-        <v>6135</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="1446" spans="1:5" ht="99.75" customHeight="1">
@@ -43856,13 +43856,13 @@
         <v>3570</v>
       </c>
       <c r="C1446" t="s">
-        <v>6136</v>
+        <v>6135</v>
       </c>
       <c r="D1446" s="3" t="s">
         <v>3574</v>
       </c>
       <c r="E1446" t="s">
-        <v>6137</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="1447" spans="1:5" ht="28.5" customHeight="1">
@@ -43873,13 +43873,13 @@
         <v>3576</v>
       </c>
       <c r="C1447" t="s">
-        <v>6138</v>
+        <v>6137</v>
       </c>
       <c r="D1447" s="7" t="s">
         <v>3577</v>
       </c>
       <c r="E1447" s="8" t="s">
-        <v>6139</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="1448" spans="1:5" ht="99.75" customHeight="1">
@@ -43890,13 +43890,13 @@
         <v>3578</v>
       </c>
       <c r="C1448" t="s">
-        <v>6140</v>
+        <v>6139</v>
       </c>
       <c r="D1448" s="3" t="s">
         <v>3579</v>
       </c>
       <c r="E1448" t="s">
-        <v>6141</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1449" spans="1:5" ht="28.5" customHeight="1">
@@ -43907,13 +43907,13 @@
         <v>3580</v>
       </c>
       <c r="C1449" t="s">
-        <v>6142</v>
+        <v>6141</v>
       </c>
       <c r="D1449" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1449" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1450" spans="1:5" ht="28.5" customHeight="1">
@@ -43924,13 +43924,13 @@
         <v>3582</v>
       </c>
       <c r="C1450" t="s">
-        <v>6144</v>
+        <v>6143</v>
       </c>
       <c r="D1450" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1450" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1451" spans="1:5" ht="28.5" customHeight="1">
@@ -43941,13 +43941,13 @@
         <v>3583</v>
       </c>
       <c r="C1451" t="s">
-        <v>6145</v>
+        <v>6144</v>
       </c>
       <c r="D1451" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1451" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1452" spans="1:5" ht="28.5" customHeight="1">
@@ -43958,13 +43958,13 @@
         <v>3584</v>
       </c>
       <c r="C1452" t="s">
-        <v>6146</v>
+        <v>6145</v>
       </c>
       <c r="D1452" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1452" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1453" spans="1:5" ht="28.5" customHeight="1">
@@ -43975,13 +43975,13 @@
         <v>3585</v>
       </c>
       <c r="C1453" t="s">
-        <v>6147</v>
+        <v>6146</v>
       </c>
       <c r="D1453" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1453" t="s">
-        <v>6143</v>
+        <v>6142</v>
       </c>
     </row>
     <row r="1454" spans="1:5" ht="71.25" customHeight="1">
@@ -43992,13 +43992,13 @@
         <v>3587</v>
       </c>
       <c r="C1454" t="s">
-        <v>6148</v>
+        <v>6147</v>
       </c>
       <c r="D1454" s="3" t="s">
         <v>3588</v>
       </c>
       <c r="E1454" t="s">
-        <v>6149</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="1455" spans="1:5" ht="42.75" customHeight="1">
@@ -44009,13 +44009,13 @@
         <v>3589</v>
       </c>
       <c r="C1455" t="s">
-        <v>6150</v>
+        <v>6149</v>
       </c>
       <c r="D1455" s="3" t="s">
         <v>3590</v>
       </c>
       <c r="E1455" t="s">
-        <v>6151</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1456" spans="1:5" ht="71.25" customHeight="1">
@@ -44026,13 +44026,13 @@
         <v>3589</v>
       </c>
       <c r="C1456" t="s">
-        <v>6150</v>
+        <v>6149</v>
       </c>
       <c r="D1456" s="3" t="s">
         <v>3592</v>
       </c>
       <c r="E1456" t="s">
-        <v>6152</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="1457" spans="1:5" ht="71.25" customHeight="1">
@@ -44043,13 +44043,13 @@
         <v>3594</v>
       </c>
       <c r="C1457" t="s">
-        <v>6150</v>
+        <v>6149</v>
       </c>
       <c r="D1457" s="3" t="s">
         <v>3592</v>
       </c>
       <c r="E1457" t="s">
-        <v>6153</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="1458" spans="1:5" ht="57" customHeight="1">
@@ -44066,7 +44066,7 @@
         <v>3598</v>
       </c>
       <c r="E1458" s="8" t="s">
-        <v>6154</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="1459" spans="1:5" ht="28.5" customHeight="1">
@@ -44083,7 +44083,7 @@
         <v>3602</v>
       </c>
       <c r="E1459" t="s">
-        <v>6155</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="1460" spans="1:5" ht="28.5" customHeight="1">
@@ -44100,7 +44100,7 @@
         <v>3604</v>
       </c>
       <c r="E1460" s="8" t="s">
-        <v>6156</v>
+        <v>6155</v>
       </c>
     </row>
     <row r="1461" spans="1:5" ht="57" customHeight="1">
@@ -44117,7 +44117,7 @@
         <v>3598</v>
       </c>
       <c r="E1461" s="8" t="s">
-        <v>6157</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="1462" spans="1:5" ht="28.5" customHeight="1">
@@ -44128,13 +44128,13 @@
         <v>3610</v>
       </c>
       <c r="C1462" t="s">
-        <v>6158</v>
+        <v>6157</v>
       </c>
       <c r="D1462" s="3" t="s">
         <v>3611</v>
       </c>
       <c r="E1462" t="s">
-        <v>6159</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="1463" spans="1:5" ht="114" customHeight="1">
@@ -44145,13 +44145,13 @@
         <v>3612</v>
       </c>
       <c r="C1463" t="s">
-        <v>6160</v>
+        <v>6159</v>
       </c>
       <c r="D1463" s="7" t="s">
         <v>3613</v>
       </c>
       <c r="E1463" s="8" t="s">
-        <v>6161</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1464" spans="1:5" ht="42.75" customHeight="1">
@@ -44162,13 +44162,13 @@
         <v>3614</v>
       </c>
       <c r="C1464" t="s">
-        <v>6162</v>
+        <v>6161</v>
       </c>
       <c r="D1464" s="3" t="s">
         <v>3615</v>
       </c>
       <c r="E1464" t="s">
-        <v>6163</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="1465" spans="1:5" ht="42.75" customHeight="1">
@@ -44179,13 +44179,13 @@
         <v>3617</v>
       </c>
       <c r="C1465" s="8" t="s">
-        <v>6164</v>
+        <v>6163</v>
       </c>
       <c r="D1465" s="7" t="s">
         <v>3618</v>
       </c>
       <c r="E1465" s="8" t="s">
-        <v>6165</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="1466" spans="1:5" ht="71.25" customHeight="1">
@@ -44196,13 +44196,13 @@
         <v>3619</v>
       </c>
       <c r="C1466" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1466" s="3" t="s">
         <v>3620</v>
       </c>
       <c r="E1466" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="1467" spans="1:5" ht="28.5" customHeight="1">
@@ -44213,13 +44213,13 @@
         <v>3619</v>
       </c>
       <c r="C1467" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1467" s="3" t="s">
         <v>3621</v>
       </c>
       <c r="E1467" t="s">
-        <v>6168</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="1468" spans="1:5" ht="28.5" customHeight="1">
@@ -44230,13 +44230,13 @@
         <v>3619</v>
       </c>
       <c r="C1468" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1468" s="3" t="s">
         <v>3622</v>
       </c>
       <c r="E1468" t="s">
-        <v>6169</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="1469" spans="1:5" ht="28.5" customHeight="1">
@@ -44247,13 +44247,13 @@
         <v>3619</v>
       </c>
       <c r="C1469" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1469" s="3" t="s">
         <v>3623</v>
       </c>
       <c r="E1469" t="s">
-        <v>6170</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="1470" spans="1:5" ht="28.5" customHeight="1">
@@ -44264,13 +44264,13 @@
         <v>3619</v>
       </c>
       <c r="C1470" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1470" s="3" t="s">
         <v>3624</v>
       </c>
       <c r="E1470" t="s">
-        <v>6171</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="1471" spans="1:5" ht="28.5" customHeight="1">
@@ -44281,13 +44281,13 @@
         <v>3619</v>
       </c>
       <c r="C1471" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1471" s="3" t="s">
         <v>3625</v>
       </c>
       <c r="E1471" t="s">
-        <v>6172</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="1472" spans="1:5" ht="28.5" customHeight="1">
@@ -44298,13 +44298,13 @@
         <v>3626</v>
       </c>
       <c r="C1472" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1472" s="3" t="s">
         <v>3619</v>
       </c>
       <c r="E1472" t="s">
-        <v>6173</v>
+        <v>6172</v>
       </c>
     </row>
     <row r="1473" spans="1:5" ht="28.5" customHeight="1">
@@ -44315,13 +44315,13 @@
         <v>3626</v>
       </c>
       <c r="C1473" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1473" s="3" t="s">
         <v>3626</v>
       </c>
       <c r="E1473" t="s">
-        <v>6174</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="1474" spans="1:5" ht="28.5" customHeight="1">
@@ -44332,13 +44332,13 @@
         <v>3628</v>
       </c>
       <c r="C1474" t="s">
-        <v>6175</v>
+        <v>6174</v>
       </c>
       <c r="D1474" s="3" t="s">
         <v>3628</v>
       </c>
       <c r="E1474" t="s">
-        <v>6176</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="1475" spans="1:5" ht="28.5" customHeight="1">
@@ -44349,13 +44349,13 @@
         <v>3629</v>
       </c>
       <c r="C1475" t="s">
-        <v>6177</v>
+        <v>6176</v>
       </c>
       <c r="D1475" s="3" t="s">
         <v>3629</v>
       </c>
       <c r="E1475" t="s">
-        <v>6178</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="1476" spans="1:5" ht="28.5" customHeight="1">
@@ -44366,13 +44366,13 @@
         <v>3630</v>
       </c>
       <c r="C1476" t="s">
-        <v>6179</v>
+        <v>6178</v>
       </c>
       <c r="D1476" s="3" t="s">
         <v>3630</v>
       </c>
       <c r="E1476" t="s">
-        <v>6180</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="1477" spans="1:5" ht="28.5" customHeight="1">
@@ -44383,13 +44383,13 @@
         <v>3631</v>
       </c>
       <c r="C1477" t="s">
-        <v>6181</v>
+        <v>6180</v>
       </c>
       <c r="D1477" s="3" t="s">
         <v>3631</v>
       </c>
       <c r="E1477" t="s">
-        <v>6182</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="1478" spans="1:5" ht="28.5" customHeight="1">
@@ -44400,13 +44400,13 @@
         <v>3619</v>
       </c>
       <c r="C1478" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1478" s="3" t="s">
         <v>3633</v>
       </c>
       <c r="E1478" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="1479" spans="1:5" ht="28.5" customHeight="1">
@@ -44417,13 +44417,13 @@
         <v>3619</v>
       </c>
       <c r="C1479" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1479" s="3" t="s">
         <v>3633</v>
       </c>
       <c r="E1479" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="1480" spans="1:5" ht="28.5" customHeight="1">
@@ -44434,13 +44434,13 @@
         <v>3619</v>
       </c>
       <c r="C1480" t="s">
-        <v>6166</v>
+        <v>6165</v>
       </c>
       <c r="D1480" s="3" t="s">
         <v>3633</v>
       </c>
       <c r="E1480" t="s">
-        <v>6167</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="1481" spans="1:5" ht="28.5" customHeight="1">
@@ -44451,13 +44451,13 @@
         <v>3636</v>
       </c>
       <c r="C1481" t="s">
-        <v>6183</v>
+        <v>6182</v>
       </c>
       <c r="D1481" s="7" t="s">
         <v>3637</v>
       </c>
       <c r="E1481" s="8" t="s">
-        <v>6184</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="1482" spans="1:5" ht="57" customHeight="1">
@@ -44468,13 +44468,13 @@
         <v>3638</v>
       </c>
       <c r="C1482" t="s">
-        <v>6185</v>
+        <v>6184</v>
       </c>
       <c r="D1482" s="3" t="s">
         <v>3639</v>
       </c>
       <c r="E1482" t="s">
-        <v>6186</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="1483" spans="1:5" ht="57" customHeight="1">
@@ -44485,13 +44485,13 @@
         <v>3640</v>
       </c>
       <c r="C1483" t="s">
-        <v>6187</v>
+        <v>6186</v>
       </c>
       <c r="D1483" s="3" t="s">
         <v>3641</v>
       </c>
       <c r="E1483" t="s">
-        <v>6188</v>
+        <v>6187</v>
       </c>
     </row>
     <row r="1484" spans="1:5" ht="57" customHeight="1">
@@ -44508,7 +44508,7 @@
         <v>3644</v>
       </c>
       <c r="E1484" t="s">
-        <v>6189</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="1485" spans="1:5" ht="57" customHeight="1">
@@ -44519,13 +44519,13 @@
         <v>3646</v>
       </c>
       <c r="C1485" s="8" t="s">
-        <v>6190</v>
+        <v>6189</v>
       </c>
       <c r="D1485" s="7" t="s">
         <v>3647</v>
       </c>
       <c r="E1485" s="8" t="s">
-        <v>6191</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="1486" spans="1:5" ht="57" customHeight="1">
@@ -44536,13 +44536,13 @@
         <v>3649</v>
       </c>
       <c r="C1486" s="8" t="s">
-        <v>6192</v>
+        <v>6191</v>
       </c>
       <c r="D1486" s="7" t="s">
         <v>3650</v>
       </c>
       <c r="E1486" s="8" t="s">
-        <v>6193</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="1487" spans="1:5" ht="142.5" customHeight="1">
@@ -44553,13 +44553,13 @@
         <v>3652</v>
       </c>
       <c r="C1487" s="8" t="s">
-        <v>6194</v>
+        <v>6193</v>
       </c>
       <c r="D1487" s="7" t="s">
         <v>3653</v>
       </c>
       <c r="E1487" s="8" t="s">
-        <v>6195</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="1488" spans="1:5" ht="57" customHeight="1">
@@ -44570,13 +44570,13 @@
         <v>3655</v>
       </c>
       <c r="C1488" s="8" t="s">
-        <v>6196</v>
+        <v>6195</v>
       </c>
       <c r="D1488" s="7" t="s">
         <v>3656</v>
       </c>
       <c r="E1488" s="8" t="s">
-        <v>6197</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="1489" spans="1:5" ht="85.5" customHeight="1">
@@ -44587,13 +44587,13 @@
         <v>3658</v>
       </c>
       <c r="C1489" s="8" t="s">
-        <v>6198</v>
+        <v>6197</v>
       </c>
       <c r="D1489" s="7" t="s">
         <v>3659</v>
       </c>
       <c r="E1489" s="8" t="s">
-        <v>6199</v>
+        <v>6198</v>
       </c>
     </row>
     <row r="1490" spans="1:5" ht="57" customHeight="1">
@@ -44610,7 +44610,7 @@
         <v>3662</v>
       </c>
       <c r="E1490" s="8" t="s">
-        <v>6200</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="1491" spans="1:5" ht="28.5" customHeight="1">
@@ -44621,13 +44621,13 @@
         <v>3664</v>
       </c>
       <c r="C1491" s="8" t="s">
-        <v>6201</v>
+        <v>6200</v>
       </c>
       <c r="D1491" s="7" t="s">
         <v>3665</v>
       </c>
       <c r="E1491" s="8" t="s">
-        <v>6202</v>
+        <v>6201</v>
       </c>
     </row>
     <row r="1492" spans="1:5" ht="85.5" customHeight="1">
@@ -44638,13 +44638,13 @@
         <v>3664</v>
       </c>
       <c r="C1492" s="8" t="s">
-        <v>6201</v>
+        <v>6200</v>
       </c>
       <c r="D1492" s="7" t="s">
         <v>3667</v>
       </c>
       <c r="E1492" s="8" t="s">
-        <v>6203</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="1493" spans="1:5" ht="71.25" customHeight="1">
@@ -44655,13 +44655,13 @@
         <v>3669</v>
       </c>
       <c r="C1493" s="8" t="s">
-        <v>6204</v>
+        <v>6203</v>
       </c>
       <c r="D1493" s="7" t="s">
         <v>3670</v>
       </c>
       <c r="E1493" s="8" t="s">
-        <v>6205</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="1494" spans="1:5" ht="114" customHeight="1">
@@ -44672,13 +44672,13 @@
         <v>3672</v>
       </c>
       <c r="C1494" s="8" t="s">
-        <v>6206</v>
+        <v>6205</v>
       </c>
       <c r="D1494" s="7" t="s">
         <v>3673</v>
       </c>
       <c r="E1494" s="8" t="s">
-        <v>6207</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="1495" spans="1:5" ht="71.25" customHeight="1">
@@ -44689,13 +44689,13 @@
         <v>3675</v>
       </c>
       <c r="C1495" s="8" t="s">
-        <v>6208</v>
+        <v>6207</v>
       </c>
       <c r="D1495" s="7" t="s">
         <v>3676</v>
       </c>
       <c r="E1495" s="8" t="s">
-        <v>6209</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="1496" spans="1:5" ht="71.25" customHeight="1">
@@ -44706,13 +44706,13 @@
         <v>3678</v>
       </c>
       <c r="C1496" s="8" t="s">
-        <v>6210</v>
+        <v>6209</v>
       </c>
       <c r="D1496" s="7" t="s">
         <v>3679</v>
       </c>
       <c r="E1496" s="8" t="s">
-        <v>6211</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="1497" spans="1:5" ht="71.25" customHeight="1">
@@ -44723,13 +44723,13 @@
         <v>3681</v>
       </c>
       <c r="C1497" s="8" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D1497" s="7" t="s">
         <v>3682</v>
       </c>
       <c r="E1497" s="8" t="s">
-        <v>6213</v>
+        <v>6212</v>
       </c>
     </row>
     <row r="1498" spans="1:5" ht="28.5" customHeight="1">
@@ -44740,13 +44740,13 @@
         <v>3681</v>
       </c>
       <c r="C1498" s="8" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D1498" s="7" t="s">
         <v>3684</v>
       </c>
       <c r="E1498" s="8" t="s">
-        <v>6214</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="1499" spans="1:5" ht="42.75" customHeight="1">
@@ -44757,13 +44757,13 @@
         <v>3686</v>
       </c>
       <c r="C1499" s="8" t="s">
-        <v>6215</v>
+        <v>6214</v>
       </c>
       <c r="D1499" s="7" t="s">
         <v>3687</v>
       </c>
       <c r="E1499" s="8" t="s">
-        <v>6216</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="1500" spans="1:5" ht="42.75" customHeight="1">
@@ -44774,7 +44774,7 @@
         <v>3681</v>
       </c>
       <c r="C1500" s="8" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D1500" s="7">
         <v>1</v>
@@ -44791,13 +44791,13 @@
         <v>3681</v>
       </c>
       <c r="C1501" s="8" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D1501" s="7" t="s">
         <v>3690</v>
       </c>
       <c r="E1501" s="8" t="s">
-        <v>6216</v>
+        <v>6215</v>
       </c>
     </row>
     <row r="1502" spans="1:5" ht="42.75" customHeight="1">
@@ -44808,7 +44808,7 @@
         <v>3681</v>
       </c>
       <c r="C1502" s="8" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D1502" s="7">
         <v>2</v>
@@ -44825,13 +44825,13 @@
         <v>3681</v>
       </c>
       <c r="C1503" s="8" t="s">
-        <v>6212</v>
+        <v>6211</v>
       </c>
       <c r="D1503" s="7" t="s">
         <v>3690</v>
       </c>
       <c r="E1503" s="8" t="s">
-        <v>6217</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="1504" spans="1:5" ht="42.75" customHeight="1">
@@ -44842,13 +44842,13 @@
         <v>3694</v>
       </c>
       <c r="C1504" s="8" t="s">
-        <v>6218</v>
+        <v>6217</v>
       </c>
       <c r="D1504" s="7" t="s">
         <v>3695</v>
       </c>
       <c r="E1504" s="8" t="s">
-        <v>6219</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="1505" spans="1:5" ht="42.75" customHeight="1">
@@ -44859,13 +44859,13 @@
         <v>3697</v>
       </c>
       <c r="C1505" s="8" t="s">
-        <v>6220</v>
+        <v>6219</v>
       </c>
       <c r="D1505" s="7" t="s">
         <v>3698</v>
       </c>
       <c r="E1505" s="8" t="s">
-        <v>6221</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="1506" spans="1:5" ht="42.75" customHeight="1">
@@ -44876,13 +44876,13 @@
         <v>3700</v>
       </c>
       <c r="C1506" s="8" t="s">
-        <v>6222</v>
+        <v>6221</v>
       </c>
       <c r="D1506" s="7" t="s">
         <v>3701</v>
       </c>
       <c r="E1506" s="8" t="s">
-        <v>6223</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="1507" spans="1:5" ht="57" customHeight="1">
@@ -44893,13 +44893,13 @@
         <v>3703</v>
       </c>
       <c r="C1507" s="8" t="s">
-        <v>6224</v>
+        <v>6223</v>
       </c>
       <c r="D1507" s="7" t="s">
         <v>3704</v>
       </c>
       <c r="E1507" s="8" t="s">
-        <v>6225</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="1508" spans="1:5" ht="28.5" customHeight="1">
@@ -44910,13 +44910,13 @@
         <v>3706</v>
       </c>
       <c r="C1508" s="8" t="s">
-        <v>6226</v>
+        <v>6225</v>
       </c>
       <c r="D1508" s="7" t="s">
         <v>3707</v>
       </c>
       <c r="E1508" s="8" t="s">
-        <v>6227</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="1509" spans="1:5" ht="85.5" customHeight="1">
@@ -44927,13 +44927,13 @@
         <v>3709</v>
       </c>
       <c r="C1509" s="8" t="s">
-        <v>6228</v>
+        <v>6227</v>
       </c>
       <c r="D1509" s="7" t="s">
         <v>3710</v>
       </c>
       <c r="E1509" s="9" t="s">
-        <v>6229</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="1510" spans="1:5" ht="28.5" customHeight="1">
@@ -44944,13 +44944,13 @@
         <v>3712</v>
       </c>
       <c r="C1510" s="8" t="s">
-        <v>6230</v>
+        <v>6229</v>
       </c>
       <c r="D1510" s="7" t="s">
         <v>3713</v>
       </c>
       <c r="E1510" s="8" t="s">
-        <v>6231</v>
+        <v>6230</v>
       </c>
     </row>
     <row r="1511" spans="1:5" ht="28.5" customHeight="1">
@@ -44961,13 +44961,13 @@
         <v>3715</v>
       </c>
       <c r="C1511" s="8" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
       <c r="D1511" s="7" t="s">
         <v>3715</v>
       </c>
       <c r="E1511" s="8" t="s">
-        <v>6232</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="1512" spans="1:5" ht="42.75" customHeight="1">
@@ -44978,13 +44978,13 @@
         <v>3717</v>
       </c>
       <c r="C1512" s="8" t="s">
-        <v>6233</v>
+        <v>6232</v>
       </c>
       <c r="D1512" s="7" t="s">
         <v>3717</v>
       </c>
       <c r="E1512" s="8" t="s">
-        <v>6234</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="1513" spans="1:5" ht="42.75" customHeight="1">
@@ -44995,13 +44995,13 @@
         <v>3719</v>
       </c>
       <c r="C1513" s="8" t="s">
-        <v>6235</v>
+        <v>6234</v>
       </c>
       <c r="D1513" s="7" t="s">
         <v>3719</v>
       </c>
       <c r="E1513" s="8" t="s">
-        <v>6236</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="1514" spans="1:5" ht="42.75" customHeight="1">
@@ -45012,13 +45012,13 @@
         <v>3721</v>
       </c>
       <c r="C1514" s="8" t="s">
-        <v>6237</v>
+        <v>6236</v>
       </c>
       <c r="D1514" s="7" t="s">
         <v>3721</v>
       </c>
       <c r="E1514" s="8" t="s">
-        <v>6238</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="1515" spans="1:5" ht="42.75" customHeight="1">
@@ -45029,13 +45029,13 @@
         <v>3723</v>
       </c>
       <c r="C1515" s="8" t="s">
-        <v>6239</v>
+        <v>6238</v>
       </c>
       <c r="D1515" s="7" t="s">
         <v>3723</v>
       </c>
       <c r="E1515" s="8" t="s">
-        <v>6240</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="1516" spans="1:5" ht="42.75" customHeight="1">
@@ -45046,13 +45046,13 @@
         <v>3725</v>
       </c>
       <c r="C1516" s="8" t="s">
-        <v>6241</v>
+        <v>6240</v>
       </c>
       <c r="D1516" s="7" t="s">
         <v>3725</v>
       </c>
       <c r="E1516" s="8" t="s">
-        <v>6242</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="1517" spans="1:5" ht="42.75" customHeight="1">
@@ -45063,13 +45063,13 @@
         <v>3727</v>
       </c>
       <c r="C1517" s="8" t="s">
-        <v>6243</v>
+        <v>6242</v>
       </c>
       <c r="D1517" s="7" t="s">
         <v>3727</v>
       </c>
       <c r="E1517" s="8" t="s">
-        <v>6244</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="1518" spans="1:5" ht="142.5" customHeight="1">
@@ -45080,13 +45080,13 @@
         <v>3728</v>
       </c>
       <c r="C1518" s="8" t="s">
-        <v>6245</v>
+        <v>6244</v>
       </c>
       <c r="D1518" s="7" t="s">
         <v>3729</v>
       </c>
       <c r="E1518" s="9" t="s">
-        <v>6246</v>
+        <v>6245</v>
       </c>
     </row>
     <row r="1519" spans="1:5" ht="28.5" customHeight="1">
@@ -45097,7 +45097,7 @@
         <v>3731</v>
       </c>
       <c r="C1519" s="8" t="s">
-        <v>6247</v>
+        <v>6246</v>
       </c>
       <c r="D1519" s="7"/>
       <c r="E1519" s="8"/>
@@ -45110,7 +45110,7 @@
         <v>3733</v>
       </c>
       <c r="C1520" s="8" t="s">
-        <v>6248</v>
+        <v>6247</v>
       </c>
       <c r="D1520" s="7"/>
       <c r="E1520" s="8"/>
@@ -45123,7 +45123,7 @@
         <v>3735</v>
       </c>
       <c r="C1521" s="8" t="s">
-        <v>6249</v>
+        <v>6248</v>
       </c>
       <c r="D1521" s="7"/>
       <c r="E1521" s="8"/>
@@ -45136,13 +45136,13 @@
         <v>3736</v>
       </c>
       <c r="C1522" s="8" t="s">
-        <v>6250</v>
+        <v>6249</v>
       </c>
       <c r="D1522" s="7" t="s">
         <v>3737</v>
       </c>
       <c r="E1522" s="8" t="s">
-        <v>6251</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="1523" spans="1:5" ht="142.5" customHeight="1">
@@ -45153,13 +45153,13 @@
         <v>3738</v>
       </c>
       <c r="C1523" s="8" t="s">
-        <v>6252</v>
+        <v>6251</v>
       </c>
       <c r="D1523" s="7" t="s">
         <v>3739</v>
       </c>
       <c r="E1523" s="8" t="s">
-        <v>6253</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="1524" spans="1:5" ht="28.5" customHeight="1">
@@ -45170,13 +45170,13 @@
         <v>3740</v>
       </c>
       <c r="C1524" s="8" t="s">
-        <v>6254</v>
+        <v>6253</v>
       </c>
       <c r="D1524" s="7" t="s">
         <v>3740</v>
       </c>
       <c r="E1524" s="8" t="s">
-        <v>6255</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="1525" spans="1:5" ht="85.5" customHeight="1">
@@ -45187,13 +45187,13 @@
         <v>3741</v>
       </c>
       <c r="C1525" s="8" t="s">
-        <v>6256</v>
+        <v>6255</v>
       </c>
       <c r="D1525" s="7" t="s">
         <v>3742</v>
       </c>
       <c r="E1525" s="8" t="s">
-        <v>6257</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="1526" spans="1:5" ht="156.75" customHeight="1">
@@ -45204,13 +45204,13 @@
         <v>3743</v>
       </c>
       <c r="C1526" s="8" t="s">
-        <v>6258</v>
+        <v>6257</v>
       </c>
       <c r="D1526" s="7" t="s">
         <v>3744</v>
       </c>
       <c r="E1526" s="8" t="s">
-        <v>6259</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="1527" spans="1:5" ht="42.75" customHeight="1">
@@ -45221,13 +45221,13 @@
         <v>3745</v>
       </c>
       <c r="C1527" s="8" t="s">
-        <v>6260</v>
+        <v>6259</v>
       </c>
       <c r="D1527" s="7" t="s">
         <v>3746</v>
       </c>
       <c r="E1527" s="8" t="s">
-        <v>6261</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="1528" spans="1:5" ht="85.5" customHeight="1">
@@ -45238,13 +45238,13 @@
         <v>3748</v>
       </c>
       <c r="C1528" s="8" t="s">
-        <v>6262</v>
+        <v>6261</v>
       </c>
       <c r="D1528" s="7" t="s">
         <v>3749</v>
       </c>
       <c r="E1528" s="8" t="s">
-        <v>6263</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="1529" spans="1:5" ht="71.25" customHeight="1">
@@ -45255,13 +45255,13 @@
         <v>3750</v>
       </c>
       <c r="C1529" s="8" t="s">
-        <v>6264</v>
+        <v>6263</v>
       </c>
       <c r="D1529" s="7" t="s">
         <v>3751</v>
       </c>
       <c r="E1529" s="8" t="s">
-        <v>6265</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="1530" spans="1:5" ht="71.25" customHeight="1">
@@ -45272,13 +45272,13 @@
         <v>3753</v>
       </c>
       <c r="C1530" s="8" t="s">
-        <v>6266</v>
+        <v>6265</v>
       </c>
       <c r="D1530" s="7" t="s">
         <v>3754</v>
       </c>
       <c r="E1530" s="8" t="s">
-        <v>6267</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="1531" spans="1:5" ht="142.5" customHeight="1">
@@ -45289,13 +45289,13 @@
         <v>3755</v>
       </c>
       <c r="C1531" s="8" t="s">
-        <v>6268</v>
+        <v>6267</v>
       </c>
       <c r="D1531" s="7" t="s">
         <v>3756</v>
       </c>
       <c r="E1531" s="8" t="s">
-        <v>6269</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="1532" spans="1:5" ht="28.5" customHeight="1">
@@ -45306,13 +45306,13 @@
         <v>3757</v>
       </c>
       <c r="C1532" s="8" t="s">
-        <v>6270</v>
+        <v>6269</v>
       </c>
       <c r="D1532" s="7" t="s">
         <v>3758</v>
       </c>
       <c r="E1532" s="8" t="s">
-        <v>6271</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="1533" spans="1:5" ht="42.75" customHeight="1">
@@ -45323,13 +45323,13 @@
         <v>3759</v>
       </c>
       <c r="C1533" s="8" t="s">
-        <v>6272</v>
+        <v>6271</v>
       </c>
       <c r="D1533" s="7" t="s">
         <v>3760</v>
       </c>
       <c r="E1533" s="8" t="s">
-        <v>6273</v>
+        <v>6272</v>
       </c>
     </row>
     <row r="1534" spans="1:5" ht="28.5" customHeight="1">
@@ -45340,13 +45340,13 @@
         <v>3759</v>
       </c>
       <c r="C1534" s="8" t="s">
-        <v>6272</v>
+        <v>6271</v>
       </c>
       <c r="D1534" s="7" t="s">
         <v>3762</v>
       </c>
       <c r="E1534" s="8" t="s">
-        <v>6274</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="1535" spans="1:5" ht="57" customHeight="1">
@@ -45357,13 +45357,13 @@
         <v>3763</v>
       </c>
       <c r="C1535" s="8" t="s">
-        <v>6275</v>
+        <v>6274</v>
       </c>
       <c r="D1535" s="7" t="s">
         <v>3764</v>
       </c>
       <c r="E1535" s="8" t="s">
-        <v>6276</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="1536" spans="1:5" ht="28.5" customHeight="1">
@@ -45374,13 +45374,13 @@
         <v>3765</v>
       </c>
       <c r="C1536" s="8" t="s">
-        <v>6277</v>
+        <v>6276</v>
       </c>
       <c r="D1536" s="7" t="s">
         <v>3766</v>
       </c>
       <c r="E1536" s="8" t="s">
-        <v>6278</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="1537" spans="1:5" ht="99.75" customHeight="1">
@@ -45391,13 +45391,13 @@
         <v>3767</v>
       </c>
       <c r="C1537" s="8" t="s">
-        <v>6279</v>
+        <v>6278</v>
       </c>
       <c r="D1537" s="7" t="s">
         <v>3768</v>
       </c>
       <c r="E1537" s="8" t="s">
-        <v>6280</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="1538" spans="1:5" ht="57" customHeight="1">
@@ -45408,13 +45408,13 @@
         <v>3769</v>
       </c>
       <c r="C1538" s="8" t="s">
-        <v>6281</v>
+        <v>6280</v>
       </c>
       <c r="D1538" s="7" t="s">
         <v>3770</v>
       </c>
       <c r="E1538" s="8" t="s">
-        <v>6282</v>
+        <v>6281</v>
       </c>
     </row>
     <row r="1539" spans="1:5" ht="28.5" customHeight="1">
@@ -45425,7 +45425,7 @@
         <v>3771</v>
       </c>
       <c r="C1539" s="8" t="s">
-        <v>6283</v>
+        <v>6282</v>
       </c>
       <c r="D1539" s="7"/>
       <c r="E1539" s="8"/>
@@ -45438,13 +45438,13 @@
         <v>3773</v>
       </c>
       <c r="C1540" s="8" t="s">
-        <v>6284</v>
+        <v>6283</v>
       </c>
       <c r="D1540" s="7" t="s">
         <v>3774</v>
       </c>
       <c r="E1540" s="8" t="s">
-        <v>6285</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="1541" spans="1:5" ht="85.5" customHeight="1">
@@ -45455,13 +45455,13 @@
         <v>3776</v>
       </c>
       <c r="C1541" s="8" t="s">
-        <v>6286</v>
+        <v>6285</v>
       </c>
       <c r="D1541" s="7" t="s">
         <v>3777</v>
       </c>
       <c r="E1541" s="8" t="s">
-        <v>6287</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="128.25" customHeight="1">
@@ -45472,13 +45472,13 @@
         <v>3778</v>
       </c>
       <c r="C1542" s="8" t="s">
-        <v>6288</v>
+        <v>6287</v>
       </c>
       <c r="D1542" s="7" t="s">
         <v>3779</v>
       </c>
       <c r="E1542" s="8" t="s">
-        <v>6289</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="1543" spans="1:5" ht="28.5" customHeight="1">
@@ -45489,13 +45489,13 @@
         <v>3780</v>
       </c>
       <c r="C1543" s="8" t="s">
-        <v>6290</v>
+        <v>6289</v>
       </c>
       <c r="D1543" s="7" t="s">
         <v>3780</v>
       </c>
       <c r="E1543" s="8" t="s">
-        <v>6291</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="1544" spans="1:5" ht="28.5" customHeight="1">
@@ -45506,13 +45506,13 @@
         <v>3781</v>
       </c>
       <c r="C1544" s="8" t="s">
-        <v>6292</v>
+        <v>6291</v>
       </c>
       <c r="D1544" s="7" t="s">
         <v>3781</v>
       </c>
       <c r="E1544" s="8" t="s">
-        <v>6293</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="1545" spans="1:5" ht="28.5" customHeight="1">
@@ -45523,13 +45523,13 @@
         <v>3782</v>
       </c>
       <c r="C1545" s="8" t="s">
-        <v>6294</v>
+        <v>6293</v>
       </c>
       <c r="D1545" s="7" t="s">
         <v>3782</v>
       </c>
       <c r="E1545" s="8" t="s">
-        <v>6294</v>
+        <v>6293</v>
       </c>
     </row>
     <row r="1546" spans="1:5" ht="28.5" customHeight="1">
@@ -45540,13 +45540,13 @@
         <v>3783</v>
       </c>
       <c r="C1546" s="8" t="s">
-        <v>6295</v>
+        <v>6294</v>
       </c>
       <c r="D1546" s="7" t="s">
         <v>3783</v>
       </c>
       <c r="E1546" s="8" t="s">
-        <v>6295</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="1547" spans="1:5" ht="28.5" customHeight="1">
@@ -45574,13 +45574,13 @@
         <v>3786</v>
       </c>
       <c r="C1548" s="8" t="s">
-        <v>6296</v>
+        <v>6295</v>
       </c>
       <c r="D1548" s="7" t="s">
         <v>3787</v>
       </c>
       <c r="E1548" s="8" t="s">
-        <v>6297</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="1549" spans="1:5" ht="85.5" customHeight="1">
@@ -45591,13 +45591,13 @@
         <v>3789</v>
       </c>
       <c r="C1549" s="8" t="s">
-        <v>6298</v>
+        <v>6297</v>
       </c>
       <c r="D1549" s="7" t="s">
         <v>3790</v>
       </c>
       <c r="E1549" s="8" t="s">
-        <v>6299</v>
+        <v>6298</v>
       </c>
     </row>
     <row r="1550" spans="1:5" ht="114" customHeight="1">
@@ -45614,7 +45614,7 @@
         <v>3793</v>
       </c>
       <c r="E1550" s="8" t="s">
-        <v>6300</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="1551" spans="1:5" ht="156.75" customHeight="1">
@@ -45625,13 +45625,13 @@
         <v>3795</v>
       </c>
       <c r="C1551" s="8" t="s">
-        <v>6301</v>
+        <v>6300</v>
       </c>
       <c r="D1551" s="7" t="s">
         <v>3796</v>
       </c>
       <c r="E1551" s="8" t="s">
-        <v>6302</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="1552" spans="1:5" ht="142.5" customHeight="1">
@@ -45642,13 +45642,13 @@
         <v>3798</v>
       </c>
       <c r="C1552" s="8" t="s">
-        <v>6303</v>
+        <v>6302</v>
       </c>
       <c r="D1552" s="7" t="s">
         <v>3799</v>
       </c>
       <c r="E1552" s="8" t="s">
-        <v>6304</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="1553" spans="1:5" ht="28.5" customHeight="1">
@@ -45659,13 +45659,13 @@
         <v>3801</v>
       </c>
       <c r="C1553" s="8" t="s">
-        <v>6305</v>
+        <v>6304</v>
       </c>
       <c r="D1553" s="7" t="s">
         <v>3802</v>
       </c>
       <c r="E1553" s="8" t="s">
-        <v>6306</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="1554" spans="1:5" ht="71.25" customHeight="1">
@@ -45676,13 +45676,13 @@
         <v>3804</v>
       </c>
       <c r="C1554" s="8" t="s">
-        <v>6307</v>
+        <v>6306</v>
       </c>
       <c r="D1554" s="7" t="s">
         <v>3805</v>
       </c>
       <c r="E1554" s="8" t="s">
-        <v>6308</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="1555" spans="1:5" ht="42.75" customHeight="1">
@@ -45693,13 +45693,13 @@
         <v>3807</v>
       </c>
       <c r="C1555" s="8" t="s">
-        <v>6309</v>
+        <v>6308</v>
       </c>
       <c r="D1555" s="7" t="s">
         <v>3808</v>
       </c>
       <c r="E1555" s="8" t="s">
-        <v>6310</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="1556" spans="1:5" ht="313.5" customHeight="1">
@@ -45710,13 +45710,13 @@
         <v>3810</v>
       </c>
       <c r="C1556" s="8" t="s">
-        <v>6311</v>
+        <v>6310</v>
       </c>
       <c r="D1556" s="7" t="s">
         <v>3811</v>
       </c>
       <c r="E1556" s="9" t="s">
-        <v>6312</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="1557" spans="1:5" ht="128.25" customHeight="1">
@@ -45727,13 +45727,13 @@
         <v>3813</v>
       </c>
       <c r="C1557" s="8" t="s">
-        <v>6313</v>
+        <v>6312</v>
       </c>
       <c r="D1557" s="7" t="s">
         <v>3814</v>
       </c>
       <c r="E1557" s="8" t="s">
-        <v>6314</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="1558" spans="1:5" ht="99.75" customHeight="1">
@@ -45744,13 +45744,13 @@
         <v>3816</v>
       </c>
       <c r="C1558" s="8" t="s">
-        <v>6315</v>
+        <v>6314</v>
       </c>
       <c r="D1558" s="7" t="s">
         <v>3817</v>
       </c>
       <c r="E1558" s="8" t="s">
-        <v>6316</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="1559" spans="1:5" ht="28.5" customHeight="1">
@@ -45761,13 +45761,13 @@
         <v>3819</v>
       </c>
       <c r="C1559" s="8" t="s">
-        <v>6317</v>
+        <v>6316</v>
       </c>
       <c r="D1559" s="7" t="s">
         <v>3820</v>
       </c>
       <c r="E1559" s="8" t="s">
-        <v>6318</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="1560" spans="1:5" ht="228" customHeight="1">
@@ -45778,13 +45778,13 @@
         <v>3822</v>
       </c>
       <c r="C1560" s="8" t="s">
-        <v>6319</v>
+        <v>6318</v>
       </c>
       <c r="D1560" s="7" t="s">
         <v>3823</v>
       </c>
       <c r="E1560" s="9" t="s">
-        <v>6320</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="1561" spans="1:5" ht="228" customHeight="1">
@@ -45795,13 +45795,13 @@
         <v>3825</v>
       </c>
       <c r="C1561" s="8" t="s">
-        <v>6321</v>
+        <v>6320</v>
       </c>
       <c r="D1561" s="7" t="s">
         <v>3826</v>
       </c>
       <c r="E1561" s="9" t="s">
-        <v>6322</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="1562" spans="1:5" ht="228" customHeight="1">
@@ -45812,13 +45812,13 @@
         <v>3828</v>
       </c>
       <c r="C1562" s="8" t="s">
-        <v>6323</v>
+        <v>6322</v>
       </c>
       <c r="D1562" s="7" t="s">
         <v>3829</v>
       </c>
       <c r="E1562" s="9" t="s">
-        <v>6324</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="1563" spans="1:5" ht="99.75" customHeight="1">
@@ -45829,13 +45829,13 @@
         <v>3831</v>
       </c>
       <c r="C1563" s="8" t="s">
-        <v>6325</v>
+        <v>6324</v>
       </c>
       <c r="D1563" s="7" t="s">
         <v>3832</v>
       </c>
       <c r="E1563" s="8" t="s">
-        <v>6326</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="1564" spans="1:5" ht="99.75" customHeight="1">
@@ -45846,13 +45846,13 @@
         <v>3834</v>
       </c>
       <c r="C1564" s="8" t="s">
-        <v>6327</v>
+        <v>6326</v>
       </c>
       <c r="D1564" s="7" t="s">
         <v>3835</v>
       </c>
       <c r="E1564" s="8" t="s">
-        <v>6328</v>
+        <v>6327</v>
       </c>
     </row>
     <row r="1565" spans="1:5" ht="28.5" customHeight="1">
@@ -45863,13 +45863,13 @@
         <v>3834</v>
       </c>
       <c r="C1565" s="8" t="s">
-        <v>6327</v>
+        <v>6326</v>
       </c>
       <c r="D1565" s="7" t="s">
         <v>3837</v>
       </c>
       <c r="E1565" s="8" t="s">
-        <v>6329</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="1566" spans="1:5" ht="28.5" customHeight="1">
@@ -45880,13 +45880,13 @@
         <v>3834</v>
       </c>
       <c r="C1566" s="8" t="s">
-        <v>6330</v>
+        <v>6329</v>
       </c>
       <c r="D1566" s="7" t="s">
         <v>3837</v>
       </c>
       <c r="E1566" s="8" t="s">
-        <v>6329</v>
+        <v>6328</v>
       </c>
     </row>
     <row r="1567" spans="1:5" ht="114" customHeight="1">
@@ -45897,13 +45897,13 @@
         <v>3840</v>
       </c>
       <c r="C1567" s="8" t="s">
-        <v>6331</v>
+        <v>6330</v>
       </c>
       <c r="D1567" s="7" t="s">
         <v>3841</v>
       </c>
       <c r="E1567" s="8" t="s">
-        <v>6332</v>
+        <v>6331</v>
       </c>
     </row>
     <row r="1568" spans="1:5" ht="28.5" customHeight="1">
@@ -45914,13 +45914,13 @@
         <v>3840</v>
       </c>
       <c r="C1568" s="8" t="s">
-        <v>6331</v>
+        <v>6330</v>
       </c>
       <c r="D1568" s="7" t="s">
         <v>3843</v>
       </c>
       <c r="E1568" s="8" t="s">
-        <v>6333</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="1569" spans="1:5" ht="28.5" customHeight="1">
@@ -45931,13 +45931,13 @@
         <v>3840</v>
       </c>
       <c r="C1569" s="8" t="s">
-        <v>6331</v>
+        <v>6330</v>
       </c>
       <c r="D1569" s="7" t="s">
         <v>3843</v>
       </c>
       <c r="E1569" s="8" t="s">
-        <v>6333</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="1570" spans="1:5" ht="142.5" customHeight="1">
@@ -45948,13 +45948,13 @@
         <v>3846</v>
       </c>
       <c r="C1570" s="8" t="s">
-        <v>6334</v>
+        <v>6333</v>
       </c>
       <c r="D1570" s="7" t="s">
         <v>3847</v>
       </c>
       <c r="E1570" s="8" t="s">
-        <v>6335</v>
+        <v>6334</v>
       </c>
     </row>
     <row r="1571" spans="1:5" ht="28.5" customHeight="1">
@@ -45965,13 +45965,13 @@
         <v>3846</v>
       </c>
       <c r="C1571" s="8" t="s">
-        <v>6334</v>
+        <v>6333</v>
       </c>
       <c r="D1571" s="7" t="s">
         <v>3849</v>
       </c>
       <c r="E1571" s="8" t="s">
-        <v>6336</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="1572" spans="1:5" ht="28.5" customHeight="1">
@@ -45982,13 +45982,13 @@
         <v>3846</v>
       </c>
       <c r="C1572" s="8" t="s">
-        <v>6334</v>
+        <v>6333</v>
       </c>
       <c r="D1572" s="7" t="s">
         <v>3849</v>
       </c>
       <c r="E1572" s="8" t="s">
-        <v>6336</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="1573" spans="1:5" ht="42.75" customHeight="1">
@@ -45999,13 +45999,13 @@
         <v>3852</v>
       </c>
       <c r="C1573" s="8" t="s">
-        <v>6337</v>
+        <v>6336</v>
       </c>
       <c r="D1573" s="7" t="s">
         <v>3853</v>
       </c>
       <c r="E1573" s="8" t="s">
-        <v>6338</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="1574" spans="1:5" ht="28.5" customHeight="1">
@@ -46016,13 +46016,13 @@
         <v>3855</v>
       </c>
       <c r="C1574" s="8" t="s">
-        <v>6339</v>
+        <v>6338</v>
       </c>
       <c r="D1574" s="7" t="s">
         <v>3856</v>
       </c>
       <c r="E1574" s="8" t="s">
-        <v>6340</v>
+        <v>6339</v>
       </c>
     </row>
     <row r="1575" spans="1:5" ht="42.75" customHeight="1">
@@ -46033,13 +46033,13 @@
         <v>3858</v>
       </c>
       <c r="C1575" s="8" t="s">
-        <v>6341</v>
+        <v>6340</v>
       </c>
       <c r="D1575" s="7" t="s">
         <v>3859</v>
       </c>
       <c r="E1575" s="8" t="s">
-        <v>6342</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="1576" spans="1:5" ht="28.5" customHeight="1">
@@ -46050,13 +46050,13 @@
         <v>3861</v>
       </c>
       <c r="C1576" s="8" t="s">
-        <v>6343</v>
+        <v>6342</v>
       </c>
       <c r="D1576" s="7" t="s">
         <v>3862</v>
       </c>
       <c r="E1576" s="8" t="s">
-        <v>6344</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="1577" spans="1:5" ht="42.75" customHeight="1">
@@ -46067,13 +46067,13 @@
         <v>3864</v>
       </c>
       <c r="C1577" s="8" t="s">
-        <v>6345</v>
+        <v>6344</v>
       </c>
       <c r="D1577" s="7" t="s">
         <v>3865</v>
       </c>
       <c r="E1577" s="8" t="s">
-        <v>6346</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="1578" spans="1:5" ht="57" customHeight="1">
@@ -46084,13 +46084,13 @@
         <v>3867</v>
       </c>
       <c r="C1578" s="8" t="s">
-        <v>6347</v>
+        <v>6346</v>
       </c>
       <c r="D1578" s="7" t="s">
         <v>3868</v>
       </c>
       <c r="E1578" s="8" t="s">
-        <v>6348</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="1579" spans="1:5" ht="57" customHeight="1">
@@ -46101,13 +46101,13 @@
         <v>3870</v>
       </c>
       <c r="C1579" s="8" t="s">
-        <v>6349</v>
+        <v>6348</v>
       </c>
       <c r="D1579" s="7" t="s">
         <v>3871</v>
       </c>
       <c r="E1579" s="8" t="s">
-        <v>6350</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="1580" spans="1:5" ht="71.25" customHeight="1">
@@ -46118,13 +46118,13 @@
         <v>3873</v>
       </c>
       <c r="C1580" s="8" t="s">
-        <v>6351</v>
+        <v>6350</v>
       </c>
       <c r="D1580" s="7" t="s">
         <v>3874</v>
       </c>
       <c r="E1580" s="8" t="s">
-        <v>6352</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="1581" spans="1:5" ht="57" customHeight="1">
@@ -46135,13 +46135,13 @@
         <v>3876</v>
       </c>
       <c r="C1581" s="8" t="s">
-        <v>6353</v>
+        <v>6352</v>
       </c>
       <c r="D1581" s="7" t="s">
         <v>3877</v>
       </c>
       <c r="E1581" s="8" t="s">
-        <v>6354</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="1582" spans="1:5" ht="28.5" customHeight="1">
@@ -46152,13 +46152,13 @@
         <v>3879</v>
       </c>
       <c r="C1582" s="8" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
       <c r="D1582" s="7" t="s">
         <v>3879</v>
       </c>
       <c r="E1582" s="8" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="1583" spans="1:5" ht="28.5" customHeight="1">
@@ -46169,13 +46169,13 @@
         <v>3879</v>
       </c>
       <c r="C1583" s="8" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
       <c r="D1583" s="7" t="s">
         <v>3879</v>
       </c>
       <c r="E1583" s="8" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="1584" spans="1:5" ht="29.25" customHeight="1">
@@ -46186,13 +46186,13 @@
         <v>3879</v>
       </c>
       <c r="C1584" s="8" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
       <c r="D1584" s="7" t="s">
         <v>3879</v>
       </c>
       <c r="E1584" s="8" t="s">
-        <v>6355</v>
+        <v>6354</v>
       </c>
     </row>
     <row r="1585" spans="1:5" ht="28.5" customHeight="1">
@@ -46203,13 +46203,13 @@
         <v>3883</v>
       </c>
       <c r="C1585" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
       <c r="D1585" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1585" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="1586" spans="1:5" ht="28.5" customHeight="1">
@@ -46220,13 +46220,13 @@
         <v>3883</v>
       </c>
       <c r="C1586" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
       <c r="D1586" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1586" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="1587" spans="1:5" ht="29.25" customHeight="1">
@@ -46237,13 +46237,13 @@
         <v>3883</v>
       </c>
       <c r="C1587" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
       <c r="D1587" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1587" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="1588" spans="1:5" ht="29.25" customHeight="1">
@@ -46254,13 +46254,13 @@
         <v>3883</v>
       </c>
       <c r="C1588" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
       <c r="D1588" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1588" s="8" t="s">
-        <v>6356</v>
+        <v>6355</v>
       </c>
     </row>
     <row r="1589" spans="1:5" ht="28.5" customHeight="1">
@@ -46271,13 +46271,13 @@
         <v>3888</v>
       </c>
       <c r="C1589" s="8" t="s">
-        <v>6357</v>
+        <v>6356</v>
       </c>
       <c r="D1589" s="7" t="s">
         <v>3888</v>
       </c>
       <c r="E1589" s="8" t="s">
-        <v>6358</v>
+        <v>6357</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/english/J技能列表_Skills_Heros_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/J技能列表_Skills_Heros_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95501EF9-5BBA-4FDF-9C3F-6488B64F7FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00DB2E4-73DF-46E4-8B44-7DE6209D606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16418,9 +16418,6 @@
     <t>Colapso das Sombras</t>
   </si>
   <si>
-    <t>Detone uma explosão tóxica em um inimigo em um raio de 2.000 côvados. Causa [[mag_damage:[&amp;100+150*[%def_val%]+1,8*[%stat:s_魔法攻击%]&amp;] Dano Mágico]] [[explicar:(100 + 150 x Nível de Habilidade + 1,8 x Ataque Mágico )]] e aumenta o dano recebido do alvo em [&amp;20*[%def_val%]&amp;]% [[explain:(20 x Skill Level)]] por 8 segundos.</t>
-  </si>
-  <si>
     <t>Pancada Sombria</t>
   </si>
   <si>
@@ -17574,9 +17571,6 @@
   </si>
   <si>
     <t>Bruxa da Montanha de Neve</t>
-  </si>
-  <si>
-    <t>Imune ao Congelamento e aumenta seu Ataque Arcano em [&amp;[%this_level%]*25&amp;].</t>
   </si>
   <si>
     <t>Sabedoria da Bruxa</t>
@@ -19384,6 +19378,12 @@
   </si>
   <si>
     <t>Salte 800 cúbitos na direção alvo. Cause [&amp;[%stat:s_攻击%]*1.25+50*[%def_val%]&amp;] [[explain:(Ataque Físico*1.25+50*Nível da Habilidade)]] de dano a todos os inimigos ao longo do caminho.</t>
+  </si>
+  <si>
+    <t>Aprimora o ataque mágico em &lt;color=lightblue&gt;[&amp;[%this_level%]*10&amp;] pontos&lt;/color&gt; [[explain:(10 vezes o nível do personagem)]] durante as batalhas e confere imunidade ao efeito de congelamento.</t>
+  </si>
+  <si>
+    <t>Detone uma explosão tóxica em um inimigo dentro de 2000 cúbitos. Cause [[mag_damage:[&amp;100+150*[%def_val%]+1.8*[%stat:s_魔法攻击%]&amp;] dano mágico]] [[explain:(100 + 150 x Nível da Habilidade + 1.8 x Ataque Mágico)]] e aumente o Dano Recebido do alvo em [&amp;20*[%def_val%]&amp;]% [[explain:(20 x Nível da Habilidade)]] por 8 segundos.</t>
   </si>
 </sst>
 </file>
@@ -19792,8 +19792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1589"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1139" workbookViewId="0">
-      <selection activeCell="E1140" sqref="E1140"/>
+    <sheetView tabSelected="1" topLeftCell="E958" workbookViewId="0">
+      <selection activeCell="E958" sqref="E958"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -19818,7 +19818,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6358</v>
+        <v>6356</v>
       </c>
       <c r="F1" s="2"/>
     </row>
@@ -35765,7 +35765,7 @@
         <v>2266</v>
       </c>
       <c r="E958" t="s">
-        <v>5371</v>
+        <v>6359</v>
       </c>
     </row>
     <row r="959" spans="1:5" ht="114" customHeight="1">
@@ -35776,13 +35776,13 @@
         <v>2268</v>
       </c>
       <c r="C959" t="s">
-        <v>5372</v>
+        <v>5371</v>
       </c>
       <c r="D959" s="3" t="s">
         <v>2269</v>
       </c>
       <c r="E959" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
     </row>
     <row r="960" spans="1:5" ht="85.5" customHeight="1">
@@ -35793,13 +35793,13 @@
         <v>2271</v>
       </c>
       <c r="C960" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="D960" s="3" t="s">
         <v>2272</v>
       </c>
       <c r="E960" t="s">
-        <v>5375</v>
+        <v>5374</v>
       </c>
     </row>
     <row r="961" spans="1:5" ht="42.75" customHeight="1">
@@ -35810,13 +35810,13 @@
         <v>2274</v>
       </c>
       <c r="C961" t="s">
-        <v>5376</v>
+        <v>5375</v>
       </c>
       <c r="D961" s="3" t="s">
         <v>2275</v>
       </c>
       <c r="E961" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="962" spans="1:5" ht="28.5" customHeight="1">
@@ -35844,13 +35844,13 @@
         <v>2278</v>
       </c>
       <c r="C963" t="s">
-        <v>5378</v>
+        <v>5377</v>
       </c>
       <c r="D963" s="3" t="s">
         <v>2279</v>
       </c>
       <c r="E963" t="s">
-        <v>5379</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="964" spans="1:5" ht="71.25" customHeight="1">
@@ -35861,13 +35861,13 @@
         <v>2281</v>
       </c>
       <c r="C964" t="s">
-        <v>5380</v>
+        <v>5379</v>
       </c>
       <c r="D964" s="3" t="s">
         <v>2283</v>
       </c>
       <c r="E964" t="s">
-        <v>5381</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="965" spans="1:5" ht="71.25" customHeight="1">
@@ -35878,13 +35878,13 @@
         <v>2285</v>
       </c>
       <c r="C965" t="s">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="D965" s="3" t="s">
         <v>2287</v>
       </c>
       <c r="E965" t="s">
-        <v>5383</v>
+        <v>5382</v>
       </c>
     </row>
     <row r="966" spans="1:5" ht="42.75" customHeight="1">
@@ -35895,13 +35895,13 @@
         <v>2289</v>
       </c>
       <c r="C966" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="D966" s="3" t="s">
         <v>2291</v>
       </c>
       <c r="E966" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
     </row>
     <row r="967" spans="1:5" ht="71.25" customHeight="1">
@@ -35912,13 +35912,13 @@
         <v>2293</v>
       </c>
       <c r="C967" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="D967" s="3" t="s">
         <v>2295</v>
       </c>
       <c r="E967" t="s">
-        <v>5387</v>
+        <v>5386</v>
       </c>
     </row>
     <row r="968" spans="1:5" ht="128.25" customHeight="1">
@@ -35929,13 +35929,13 @@
         <v>2297</v>
       </c>
       <c r="C968" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="D968" s="3" t="s">
         <v>2298</v>
       </c>
       <c r="E968" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
     </row>
     <row r="969" spans="1:5" ht="99.75" customHeight="1">
@@ -35946,13 +35946,13 @@
         <v>2300</v>
       </c>
       <c r="C969" t="s">
-        <v>5390</v>
+        <v>5389</v>
       </c>
       <c r="D969" s="3" t="s">
         <v>2301</v>
       </c>
       <c r="E969" t="s">
-        <v>5391</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="970" spans="1:5" ht="85.5" customHeight="1">
@@ -35963,13 +35963,13 @@
         <v>2303</v>
       </c>
       <c r="C970" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="D970" s="3" t="s">
         <v>2304</v>
       </c>
       <c r="E970" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
     </row>
     <row r="971" spans="1:5" ht="242.25" customHeight="1">
@@ -35980,13 +35980,13 @@
         <v>2306</v>
       </c>
       <c r="C971" t="s">
-        <v>5394</v>
+        <v>5393</v>
       </c>
       <c r="D971" s="3" t="s">
         <v>2307</v>
       </c>
       <c r="E971" t="s">
-        <v>5395</v>
+        <v>5394</v>
       </c>
     </row>
     <row r="972" spans="1:5" ht="28.5" customHeight="1">
@@ -36014,7 +36014,7 @@
         <v>2310</v>
       </c>
       <c r="C973" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
       <c r="D973" s="3"/>
     </row>
@@ -36026,13 +36026,13 @@
         <v>2312</v>
       </c>
       <c r="C974" t="s">
-        <v>5397</v>
+        <v>5396</v>
       </c>
       <c r="D974" s="3" t="s">
         <v>2313</v>
       </c>
       <c r="E974" t="s">
-        <v>5398</v>
+        <v>5397</v>
       </c>
     </row>
     <row r="975" spans="1:5" ht="42.75" customHeight="1">
@@ -36043,13 +36043,13 @@
         <v>2315</v>
       </c>
       <c r="C975" t="s">
-        <v>5399</v>
+        <v>5398</v>
       </c>
       <c r="D975" s="3" t="s">
         <v>2316</v>
       </c>
       <c r="E975" t="s">
-        <v>5400</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="976" spans="1:5" ht="71.25" customHeight="1">
@@ -36060,13 +36060,13 @@
         <v>2318</v>
       </c>
       <c r="C976" t="s">
-        <v>5401</v>
+        <v>5400</v>
       </c>
       <c r="D976" s="3" t="s">
         <v>2319</v>
       </c>
       <c r="E976" t="s">
-        <v>5402</v>
+        <v>5401</v>
       </c>
     </row>
     <row r="977" spans="1:5" ht="42.75" customHeight="1">
@@ -36083,7 +36083,7 @@
         <v>2321</v>
       </c>
       <c r="E977" t="s">
-        <v>5403</v>
+        <v>5402</v>
       </c>
     </row>
     <row r="978" spans="1:5" ht="28.5" customHeight="1">
@@ -36094,13 +36094,13 @@
         <v>2323</v>
       </c>
       <c r="C978" t="s">
-        <v>5404</v>
+        <v>5403</v>
       </c>
       <c r="D978" s="3" t="s">
         <v>2324</v>
       </c>
       <c r="E978" t="s">
-        <v>5405</v>
+        <v>5404</v>
       </c>
     </row>
     <row r="979" spans="1:5" ht="128.25" customHeight="1">
@@ -36111,13 +36111,13 @@
         <v>1005</v>
       </c>
       <c r="C979" t="s">
-        <v>5406</v>
+        <v>5405</v>
       </c>
       <c r="D979" s="3" t="s">
         <v>2326</v>
       </c>
       <c r="E979" t="s">
-        <v>5407</v>
+        <v>5406</v>
       </c>
     </row>
     <row r="980" spans="1:5" ht="85.5" customHeight="1">
@@ -36128,13 +36128,13 @@
         <v>2328</v>
       </c>
       <c r="C980" t="s">
-        <v>5408</v>
+        <v>5407</v>
       </c>
       <c r="D980" s="3" t="s">
         <v>2329</v>
       </c>
       <c r="E980" t="s">
-        <v>5409</v>
+        <v>5408</v>
       </c>
     </row>
     <row r="981" spans="1:5" ht="71.25" customHeight="1">
@@ -36145,13 +36145,13 @@
         <v>2331</v>
       </c>
       <c r="C981" t="s">
-        <v>5410</v>
+        <v>5409</v>
       </c>
       <c r="D981" s="3" t="s">
         <v>2332</v>
       </c>
       <c r="E981" t="s">
-        <v>5411</v>
+        <v>5410</v>
       </c>
     </row>
     <row r="982" spans="1:5" ht="57" customHeight="1">
@@ -36162,13 +36162,13 @@
         <v>2334</v>
       </c>
       <c r="C982" t="s">
-        <v>5412</v>
+        <v>5411</v>
       </c>
       <c r="D982" s="3" t="s">
         <v>2335</v>
       </c>
       <c r="E982" t="s">
-        <v>5413</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="983" spans="1:5" ht="85.5" customHeight="1">
@@ -36179,13 +36179,13 @@
         <v>2337</v>
       </c>
       <c r="C983" t="s">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="D983" s="3" t="s">
         <v>2338</v>
       </c>
       <c r="E983" t="s">
-        <v>5415</v>
+        <v>5414</v>
       </c>
     </row>
     <row r="984" spans="1:5" ht="114" customHeight="1">
@@ -36196,13 +36196,13 @@
         <v>2340</v>
       </c>
       <c r="C984" t="s">
-        <v>5416</v>
+        <v>5415</v>
       </c>
       <c r="D984" s="3" t="s">
         <v>2341</v>
       </c>
       <c r="E984" t="s">
-        <v>5417</v>
+        <v>5416</v>
       </c>
     </row>
     <row r="985" spans="1:5" ht="28.5" customHeight="1">
@@ -36213,13 +36213,13 @@
         <v>2343</v>
       </c>
       <c r="C985" t="s">
-        <v>5418</v>
+        <v>5417</v>
       </c>
       <c r="D985" s="3" t="s">
         <v>2344</v>
       </c>
       <c r="E985" t="s">
-        <v>5419</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="986" spans="1:5" ht="57" customHeight="1">
@@ -36230,13 +36230,13 @@
         <v>2346</v>
       </c>
       <c r="C986" t="s">
-        <v>5420</v>
+        <v>5419</v>
       </c>
       <c r="D986" s="3" t="s">
         <v>2347</v>
       </c>
       <c r="E986" t="s">
-        <v>5421</v>
+        <v>5420</v>
       </c>
     </row>
     <row r="987" spans="1:5" ht="42.75" customHeight="1">
@@ -36247,13 +36247,13 @@
         <v>2349</v>
       </c>
       <c r="C987" t="s">
-        <v>5422</v>
+        <v>5421</v>
       </c>
       <c r="D987" s="3" t="s">
         <v>2350</v>
       </c>
       <c r="E987" t="s">
-        <v>5423</v>
+        <v>5422</v>
       </c>
     </row>
     <row r="988" spans="1:5" ht="99.75" customHeight="1">
@@ -36264,13 +36264,13 @@
         <v>2352</v>
       </c>
       <c r="C988" t="s">
-        <v>5424</v>
+        <v>5423</v>
       </c>
       <c r="D988" s="3" t="s">
         <v>2353</v>
       </c>
       <c r="E988" t="s">
-        <v>5425</v>
+        <v>5424</v>
       </c>
     </row>
     <row r="989" spans="1:5" ht="28.5" customHeight="1">
@@ -36281,13 +36281,13 @@
         <v>2355</v>
       </c>
       <c r="C989" t="s">
-        <v>5426</v>
+        <v>5425</v>
       </c>
       <c r="D989" s="3" t="s">
         <v>2356</v>
       </c>
       <c r="E989" t="s">
-        <v>5427</v>
+        <v>5426</v>
       </c>
     </row>
     <row r="990" spans="1:5" ht="28.5" customHeight="1">
@@ -36298,13 +36298,13 @@
         <v>2358</v>
       </c>
       <c r="C990" t="s">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="D990" s="3" t="s">
         <v>2359</v>
       </c>
       <c r="E990" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="991" spans="1:5" ht="28.5" customHeight="1">
@@ -36315,13 +36315,13 @@
         <v>2361</v>
       </c>
       <c r="C991" t="s">
-        <v>5430</v>
+        <v>5429</v>
       </c>
       <c r="D991" s="3" t="s">
         <v>2362</v>
       </c>
       <c r="E991" t="s">
-        <v>5431</v>
+        <v>5430</v>
       </c>
     </row>
     <row r="992" spans="1:5" ht="128.25" customHeight="1">
@@ -36332,13 +36332,13 @@
         <v>2364</v>
       </c>
       <c r="C992" t="s">
-        <v>5432</v>
+        <v>5431</v>
       </c>
       <c r="D992" s="3" t="s">
         <v>2365</v>
       </c>
       <c r="E992" t="s">
-        <v>5433</v>
+        <v>5432</v>
       </c>
     </row>
     <row r="993" spans="1:5" ht="128.25" customHeight="1">
@@ -36349,13 +36349,13 @@
         <v>2367</v>
       </c>
       <c r="C993" t="s">
-        <v>5434</v>
+        <v>5433</v>
       </c>
       <c r="D993" s="3" t="s">
         <v>2368</v>
       </c>
       <c r="E993" t="s">
-        <v>5435</v>
+        <v>5434</v>
       </c>
     </row>
     <row r="994" spans="1:5" ht="128.25" customHeight="1">
@@ -36366,13 +36366,13 @@
         <v>2370</v>
       </c>
       <c r="C994" t="s">
-        <v>5436</v>
+        <v>5435</v>
       </c>
       <c r="D994" s="3" t="s">
         <v>2371</v>
       </c>
       <c r="E994" t="s">
-        <v>5437</v>
+        <v>5436</v>
       </c>
     </row>
     <row r="995" spans="1:5" ht="57" customHeight="1">
@@ -36383,13 +36383,13 @@
         <v>2373</v>
       </c>
       <c r="C995" t="s">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="D995" s="3" t="s">
         <v>2374</v>
       </c>
       <c r="E995" t="s">
-        <v>5439</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="996" spans="1:5" ht="28.5" customHeight="1">
@@ -36400,13 +36400,13 @@
         <v>2376</v>
       </c>
       <c r="C996" t="s">
-        <v>5440</v>
+        <v>5439</v>
       </c>
       <c r="D996" s="3" t="s">
         <v>2377</v>
       </c>
       <c r="E996" t="s">
-        <v>5441</v>
+        <v>5440</v>
       </c>
     </row>
     <row r="997" spans="1:5" ht="57" customHeight="1">
@@ -36417,13 +36417,13 @@
         <v>2379</v>
       </c>
       <c r="C997" t="s">
-        <v>5442</v>
+        <v>5441</v>
       </c>
       <c r="D997" s="3" t="s">
         <v>2380</v>
       </c>
       <c r="E997" t="s">
-        <v>5443</v>
+        <v>5442</v>
       </c>
     </row>
     <row r="998" spans="1:5" ht="71.25" customHeight="1">
@@ -36434,13 +36434,13 @@
         <v>2382</v>
       </c>
       <c r="C998" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="D998" s="3" t="s">
         <v>2384</v>
       </c>
       <c r="E998" t="s">
-        <v>5445</v>
+        <v>5444</v>
       </c>
     </row>
     <row r="999" spans="1:5" ht="57" customHeight="1">
@@ -36451,13 +36451,13 @@
         <v>2373</v>
       </c>
       <c r="C999" t="s">
-        <v>5438</v>
+        <v>5437</v>
       </c>
       <c r="D999" s="3" t="s">
         <v>2374</v>
       </c>
       <c r="E999" t="s">
-        <v>5439</v>
+        <v>5438</v>
       </c>
     </row>
     <row r="1000" spans="1:5" ht="57" customHeight="1">
@@ -36468,13 +36468,13 @@
         <v>2387</v>
       </c>
       <c r="C1000" t="s">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="D1000" s="3" t="s">
         <v>2388</v>
       </c>
       <c r="E1000" t="s">
-        <v>5447</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="1001" spans="1:5" ht="28.5" customHeight="1">
@@ -36485,13 +36485,13 @@
         <v>2358</v>
       </c>
       <c r="C1001" t="s">
-        <v>5428</v>
+        <v>5427</v>
       </c>
       <c r="D1001" s="3" t="s">
         <v>2359</v>
       </c>
       <c r="E1001" t="s">
-        <v>5429</v>
+        <v>5428</v>
       </c>
     </row>
     <row r="1002" spans="1:5" ht="28.5" customHeight="1">
@@ -36508,7 +36508,7 @@
         <v>2391</v>
       </c>
       <c r="E1002" t="s">
-        <v>5448</v>
+        <v>5447</v>
       </c>
     </row>
     <row r="1003" spans="1:5" ht="71.25" customHeight="1">
@@ -36519,13 +36519,13 @@
         <v>2392</v>
       </c>
       <c r="C1003" t="s">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="D1003" s="3" t="s">
         <v>2393</v>
       </c>
       <c r="E1003" t="s">
-        <v>5450</v>
+        <v>5449</v>
       </c>
     </row>
     <row r="1004" spans="1:5" ht="28.5" customHeight="1">
@@ -36536,7 +36536,7 @@
         <v>2395</v>
       </c>
       <c r="C1004" t="s">
-        <v>5451</v>
+        <v>5450</v>
       </c>
       <c r="D1004" s="3"/>
     </row>
@@ -36548,7 +36548,7 @@
         <v>2397</v>
       </c>
       <c r="C1005" t="s">
-        <v>5452</v>
+        <v>5451</v>
       </c>
       <c r="D1005" s="3"/>
     </row>
@@ -36572,7 +36572,7 @@
         <v>1134</v>
       </c>
       <c r="C1007" t="s">
-        <v>5453</v>
+        <v>5452</v>
       </c>
     </row>
     <row r="1008" spans="1:5" ht="57" customHeight="1">
@@ -36583,13 +36583,13 @@
         <v>2400</v>
       </c>
       <c r="C1008" t="s">
-        <v>5454</v>
+        <v>5453</v>
       </c>
       <c r="D1008" s="3" t="s">
         <v>2401</v>
       </c>
       <c r="E1008" t="s">
-        <v>5455</v>
+        <v>5454</v>
       </c>
     </row>
     <row r="1009" spans="1:5" ht="28.5" customHeight="1">
@@ -36600,7 +36600,7 @@
         <v>2402</v>
       </c>
       <c r="C1009" t="s">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="D1009" s="3"/>
     </row>
@@ -36612,7 +36612,7 @@
         <v>2402</v>
       </c>
       <c r="C1010" t="s">
-        <v>5456</v>
+        <v>5455</v>
       </c>
       <c r="D1010" s="3"/>
     </row>
@@ -36624,7 +36624,7 @@
         <v>2404</v>
       </c>
       <c r="C1011" t="s">
-        <v>5457</v>
+        <v>5456</v>
       </c>
       <c r="D1011" s="3"/>
     </row>
@@ -36636,7 +36636,7 @@
         <v>2405</v>
       </c>
       <c r="C1012" t="s">
-        <v>5458</v>
+        <v>5457</v>
       </c>
       <c r="D1012" s="3"/>
     </row>
@@ -36648,7 +36648,7 @@
         <v>2406</v>
       </c>
       <c r="C1013" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="D1013" s="3"/>
     </row>
@@ -36660,7 +36660,7 @@
         <v>2406</v>
       </c>
       <c r="C1014" t="s">
-        <v>5459</v>
+        <v>5458</v>
       </c>
       <c r="D1014" s="3"/>
     </row>
@@ -36672,13 +36672,13 @@
         <v>2409</v>
       </c>
       <c r="C1015" t="s">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="D1015" s="3" t="s">
         <v>2410</v>
       </c>
       <c r="E1015" t="s">
-        <v>5461</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="1016" spans="1:5" ht="71.25" customHeight="1">
@@ -36689,13 +36689,13 @@
         <v>2412</v>
       </c>
       <c r="C1016" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="D1016" s="3" t="s">
         <v>2413</v>
       </c>
       <c r="E1016" t="s">
-        <v>5463</v>
+        <v>5462</v>
       </c>
     </row>
     <row r="1017" spans="1:5" ht="71.25" customHeight="1">
@@ -36706,13 +36706,13 @@
         <v>2409</v>
       </c>
       <c r="C1017" t="s">
-        <v>5460</v>
+        <v>5459</v>
       </c>
       <c r="D1017" s="3" t="s">
         <v>2415</v>
       </c>
       <c r="E1017" t="s">
-        <v>5464</v>
+        <v>5463</v>
       </c>
     </row>
     <row r="1018" spans="1:5" ht="28.5" customHeight="1">
@@ -36723,13 +36723,13 @@
         <v>2412</v>
       </c>
       <c r="C1018" t="s">
-        <v>5462</v>
+        <v>5461</v>
       </c>
       <c r="D1018" s="3" t="s">
         <v>2417</v>
       </c>
       <c r="E1018" t="s">
-        <v>5465</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="1019" spans="1:5" ht="114" customHeight="1">
@@ -36740,13 +36740,13 @@
         <v>2419</v>
       </c>
       <c r="C1019" t="s">
-        <v>5466</v>
+        <v>5465</v>
       </c>
       <c r="D1019" s="3" t="s">
         <v>2420</v>
       </c>
       <c r="E1019" t="s">
-        <v>5467</v>
+        <v>5466</v>
       </c>
     </row>
     <row r="1020" spans="1:5" ht="85.5" customHeight="1">
@@ -36757,13 +36757,13 @@
         <v>2419</v>
       </c>
       <c r="C1020" t="s">
-        <v>5466</v>
+        <v>5465</v>
       </c>
       <c r="D1020" s="3" t="s">
         <v>2422</v>
       </c>
       <c r="E1020" t="s">
-        <v>5468</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="1021" spans="1:5" ht="85.5" customHeight="1">
@@ -36774,13 +36774,13 @@
         <v>2424</v>
       </c>
       <c r="C1021" t="s">
-        <v>5469</v>
+        <v>5468</v>
       </c>
       <c r="D1021" s="3" t="s">
         <v>2425</v>
       </c>
       <c r="E1021" t="s">
-        <v>5470</v>
+        <v>5469</v>
       </c>
     </row>
     <row r="1022" spans="1:5" ht="42.75" customHeight="1">
@@ -36797,7 +36797,7 @@
         <v>2427</v>
       </c>
       <c r="E1022" t="s">
-        <v>5471</v>
+        <v>5470</v>
       </c>
     </row>
     <row r="1023" spans="1:5" ht="85.5" customHeight="1">
@@ -36808,13 +36808,13 @@
         <v>2429</v>
       </c>
       <c r="C1023" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
       <c r="D1023" s="3" t="s">
         <v>2430</v>
       </c>
       <c r="E1023" t="s">
-        <v>5473</v>
+        <v>5472</v>
       </c>
     </row>
     <row r="1024" spans="1:5" ht="71.25" customHeight="1">
@@ -36825,13 +36825,13 @@
         <v>2429</v>
       </c>
       <c r="C1024" t="s">
-        <v>5472</v>
+        <v>5471</v>
       </c>
       <c r="D1024" s="3" t="s">
         <v>2432</v>
       </c>
       <c r="E1024" t="s">
-        <v>5474</v>
+        <v>5473</v>
       </c>
     </row>
     <row r="1025" spans="1:5" ht="57" customHeight="1">
@@ -36842,13 +36842,13 @@
         <v>2434</v>
       </c>
       <c r="C1025" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="D1025" s="3" t="s">
         <v>2435</v>
       </c>
       <c r="E1025" t="s">
-        <v>5476</v>
+        <v>5475</v>
       </c>
     </row>
     <row r="1026" spans="1:5" ht="42.75" customHeight="1">
@@ -36859,13 +36859,13 @@
         <v>2434</v>
       </c>
       <c r="C1026" t="s">
-        <v>5475</v>
+        <v>5474</v>
       </c>
       <c r="D1026" s="3" t="s">
         <v>2437</v>
       </c>
       <c r="E1026" t="s">
-        <v>5477</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="1027" spans="1:5" ht="128.25" customHeight="1">
@@ -36876,13 +36876,13 @@
         <v>2439</v>
       </c>
       <c r="C1027" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="D1027" s="3" t="s">
         <v>2440</v>
       </c>
       <c r="E1027" t="s">
-        <v>5479</v>
+        <v>5478</v>
       </c>
     </row>
     <row r="1028" spans="1:5" ht="114" customHeight="1">
@@ -36893,13 +36893,13 @@
         <v>2439</v>
       </c>
       <c r="C1028" t="s">
-        <v>5478</v>
+        <v>5477</v>
       </c>
       <c r="D1028" s="3" t="s">
         <v>2442</v>
       </c>
       <c r="E1028" t="s">
-        <v>5480</v>
+        <v>5479</v>
       </c>
     </row>
     <row r="1029" spans="1:5" ht="85.5" customHeight="1">
@@ -36910,13 +36910,13 @@
         <v>2444</v>
       </c>
       <c r="C1029" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="D1029" s="3" t="s">
         <v>2445</v>
       </c>
       <c r="E1029" t="s">
-        <v>5482</v>
+        <v>5481</v>
       </c>
     </row>
     <row r="1030" spans="1:5" ht="42.75" customHeight="1">
@@ -36927,13 +36927,13 @@
         <v>2444</v>
       </c>
       <c r="C1030" t="s">
-        <v>5481</v>
+        <v>5480</v>
       </c>
       <c r="D1030" s="3" t="s">
         <v>2447</v>
       </c>
       <c r="E1030" t="s">
-        <v>5483</v>
+        <v>5482</v>
       </c>
     </row>
     <row r="1031" spans="1:5" ht="171" customHeight="1">
@@ -36944,13 +36944,13 @@
         <v>2449</v>
       </c>
       <c r="C1031" t="s">
-        <v>5484</v>
+        <v>5483</v>
       </c>
       <c r="D1031" s="3" t="s">
         <v>2450</v>
       </c>
       <c r="E1031" t="s">
-        <v>5485</v>
+        <v>5484</v>
       </c>
     </row>
     <row r="1032" spans="1:5" ht="42.75" customHeight="1">
@@ -36961,13 +36961,13 @@
         <v>2452</v>
       </c>
       <c r="C1032" t="s">
-        <v>5486</v>
+        <v>5485</v>
       </c>
       <c r="D1032" s="3" t="s">
         <v>2453</v>
       </c>
       <c r="E1032" t="s">
-        <v>5487</v>
+        <v>5486</v>
       </c>
     </row>
     <row r="1033" spans="1:5" ht="42.75" customHeight="1">
@@ -36978,13 +36978,13 @@
         <v>2455</v>
       </c>
       <c r="C1033" t="s">
-        <v>5488</v>
+        <v>5487</v>
       </c>
       <c r="D1033" s="3" t="s">
         <v>2456</v>
       </c>
       <c r="E1033" t="s">
-        <v>5489</v>
+        <v>5488</v>
       </c>
     </row>
     <row r="1034" spans="1:5" ht="42.75" customHeight="1">
@@ -36995,13 +36995,13 @@
         <v>2458</v>
       </c>
       <c r="C1034" t="s">
-        <v>5490</v>
+        <v>5489</v>
       </c>
       <c r="D1034" s="3" t="s">
         <v>2459</v>
       </c>
       <c r="E1034" t="s">
-        <v>5491</v>
+        <v>5490</v>
       </c>
     </row>
     <row r="1035" spans="1:5" ht="42.75" customHeight="1">
@@ -37012,7 +37012,7 @@
         <v>2461</v>
       </c>
       <c r="C1035" t="s">
-        <v>5492</v>
+        <v>5491</v>
       </c>
       <c r="D1035" s="3"/>
     </row>
@@ -37024,7 +37024,7 @@
         <v>2297</v>
       </c>
       <c r="C1036" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="D1036" s="3"/>
     </row>
@@ -37036,7 +37036,7 @@
         <v>2297</v>
       </c>
       <c r="C1037" t="s">
-        <v>5388</v>
+        <v>5387</v>
       </c>
       <c r="D1037" s="3"/>
     </row>
@@ -37054,7 +37054,7 @@
         <v>2465</v>
       </c>
       <c r="E1038" t="s">
-        <v>5493</v>
+        <v>5492</v>
       </c>
     </row>
     <row r="1039" spans="1:5" ht="28.5" customHeight="1">
@@ -37082,13 +37082,13 @@
         <v>2468</v>
       </c>
       <c r="C1040" t="s">
-        <v>5494</v>
+        <v>5493</v>
       </c>
       <c r="D1040" s="3" t="s">
         <v>2469</v>
       </c>
       <c r="E1040" t="s">
-        <v>5495</v>
+        <v>5494</v>
       </c>
     </row>
     <row r="1041" spans="1:5" ht="128.25" customHeight="1">
@@ -37099,13 +37099,13 @@
         <v>2471</v>
       </c>
       <c r="C1041" t="s">
-        <v>5496</v>
+        <v>5495</v>
       </c>
       <c r="D1041" s="3" t="s">
         <v>2472</v>
       </c>
       <c r="E1041" t="s">
-        <v>5497</v>
+        <v>5496</v>
       </c>
     </row>
     <row r="1042" spans="1:5" ht="28.5" customHeight="1">
@@ -37116,13 +37116,13 @@
         <v>2474</v>
       </c>
       <c r="C1042" t="s">
-        <v>5498</v>
+        <v>5497</v>
       </c>
       <c r="D1042" s="3" t="s">
         <v>2475</v>
       </c>
       <c r="E1042" t="s">
-        <v>5499</v>
+        <v>5498</v>
       </c>
     </row>
     <row r="1043" spans="1:5" ht="28.5" customHeight="1">
@@ -37133,7 +37133,7 @@
         <v>2477</v>
       </c>
       <c r="C1043" t="s">
-        <v>5500</v>
+        <v>5499</v>
       </c>
       <c r="D1043" s="3"/>
     </row>
@@ -37145,7 +37145,7 @@
         <v>2479</v>
       </c>
       <c r="C1044" t="s">
-        <v>5501</v>
+        <v>5500</v>
       </c>
       <c r="D1044" s="3"/>
     </row>
@@ -37157,7 +37157,7 @@
         <v>2481</v>
       </c>
       <c r="C1045" t="s">
-        <v>5502</v>
+        <v>5501</v>
       </c>
       <c r="D1045" s="3"/>
     </row>
@@ -37169,13 +37169,13 @@
         <v>2483</v>
       </c>
       <c r="C1046" t="s">
-        <v>5503</v>
+        <v>5502</v>
       </c>
       <c r="D1046" s="3" t="s">
         <v>2484</v>
       </c>
       <c r="E1046" t="s">
-        <v>5504</v>
+        <v>5503</v>
       </c>
     </row>
     <row r="1047" spans="1:5" ht="42.75" customHeight="1">
@@ -37186,13 +37186,13 @@
         <v>2483</v>
       </c>
       <c r="C1047" t="s">
-        <v>5503</v>
+        <v>5502</v>
       </c>
       <c r="D1047" s="3" t="s">
         <v>2486</v>
       </c>
       <c r="E1047" t="s">
-        <v>5505</v>
+        <v>5504</v>
       </c>
     </row>
     <row r="1048" spans="1:5" ht="42.75" customHeight="1">
@@ -37203,13 +37203,13 @@
         <v>2488</v>
       </c>
       <c r="C1048" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="D1048" s="3" t="s">
         <v>2489</v>
       </c>
       <c r="E1048" t="s">
-        <v>5507</v>
+        <v>5506</v>
       </c>
     </row>
     <row r="1049" spans="1:5" ht="57" customHeight="1">
@@ -37220,13 +37220,13 @@
         <v>2488</v>
       </c>
       <c r="C1049" t="s">
-        <v>5506</v>
+        <v>5505</v>
       </c>
       <c r="D1049" s="3" t="s">
         <v>2491</v>
       </c>
       <c r="E1049" t="s">
-        <v>5508</v>
+        <v>5507</v>
       </c>
     </row>
     <row r="1050" spans="1:5" ht="28.5" customHeight="1">
@@ -37237,13 +37237,13 @@
         <v>2493</v>
       </c>
       <c r="C1050" t="s">
-        <v>5509</v>
+        <v>5508</v>
       </c>
       <c r="D1050" s="3" t="s">
         <v>2494</v>
       </c>
       <c r="E1050" t="s">
-        <v>5510</v>
+        <v>5509</v>
       </c>
     </row>
     <row r="1051" spans="1:5" ht="185.25" customHeight="1">
@@ -37254,13 +37254,13 @@
         <v>2496</v>
       </c>
       <c r="C1051" t="s">
-        <v>5511</v>
+        <v>5510</v>
       </c>
       <c r="D1051" s="3" t="s">
         <v>2497</v>
       </c>
       <c r="E1051" t="s">
-        <v>5512</v>
+        <v>5511</v>
       </c>
     </row>
     <row r="1052" spans="1:5" ht="42.75" customHeight="1">
@@ -37271,13 +37271,13 @@
         <v>2499</v>
       </c>
       <c r="C1052" t="s">
-        <v>5513</v>
+        <v>5512</v>
       </c>
       <c r="D1052" s="3" t="s">
         <v>2500</v>
       </c>
       <c r="E1052" t="s">
-        <v>5514</v>
+        <v>5513</v>
       </c>
     </row>
     <row r="1053" spans="1:5" ht="71.25" customHeight="1">
@@ -37288,13 +37288,13 @@
         <v>2502</v>
       </c>
       <c r="C1053" t="s">
-        <v>5515</v>
+        <v>5514</v>
       </c>
       <c r="D1053" s="3" t="s">
         <v>2503</v>
       </c>
       <c r="E1053" t="s">
-        <v>5516</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="1054" spans="1:5" ht="42.75" customHeight="1">
@@ -37305,13 +37305,13 @@
         <v>2505</v>
       </c>
       <c r="C1054" t="s">
-        <v>5517</v>
+        <v>5516</v>
       </c>
       <c r="D1054" s="3" t="s">
         <v>2506</v>
       </c>
       <c r="E1054" t="s">
-        <v>5518</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="1055" spans="1:5" ht="142.5" customHeight="1">
@@ -37322,13 +37322,13 @@
         <v>2508</v>
       </c>
       <c r="C1055" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="D1055" s="3" t="s">
         <v>2509</v>
       </c>
       <c r="E1055" t="s">
-        <v>5520</v>
+        <v>5519</v>
       </c>
     </row>
     <row r="1056" spans="1:5" ht="28.5" customHeight="1">
@@ -37339,13 +37339,13 @@
         <v>2511</v>
       </c>
       <c r="C1056" t="s">
-        <v>5519</v>
+        <v>5518</v>
       </c>
       <c r="D1056" s="3" t="s">
         <v>2512</v>
       </c>
       <c r="E1056" t="s">
-        <v>5521</v>
+        <v>5520</v>
       </c>
     </row>
     <row r="1057" spans="1:5" ht="99.75" customHeight="1">
@@ -37356,13 +37356,13 @@
         <v>2514</v>
       </c>
       <c r="C1057" t="s">
-        <v>5522</v>
+        <v>5521</v>
       </c>
       <c r="D1057" s="3" t="s">
         <v>2515</v>
       </c>
       <c r="E1057" t="s">
-        <v>5523</v>
+        <v>5522</v>
       </c>
     </row>
     <row r="1058" spans="1:5" ht="57" customHeight="1">
@@ -37373,13 +37373,13 @@
         <v>2517</v>
       </c>
       <c r="C1058" t="s">
-        <v>5524</v>
+        <v>5523</v>
       </c>
       <c r="D1058" s="3" t="s">
         <v>2518</v>
       </c>
       <c r="E1058" t="s">
-        <v>5525</v>
+        <v>5524</v>
       </c>
     </row>
     <row r="1059" spans="1:5" ht="28.5" customHeight="1">
@@ -37390,13 +37390,13 @@
         <v>2520</v>
       </c>
       <c r="C1059" t="s">
-        <v>5526</v>
+        <v>5525</v>
       </c>
       <c r="D1059" s="3" t="s">
         <v>2521</v>
       </c>
       <c r="E1059" t="s">
-        <v>5527</v>
+        <v>5526</v>
       </c>
     </row>
     <row r="1060" spans="1:5" ht="114" customHeight="1">
@@ -37407,13 +37407,13 @@
         <v>2523</v>
       </c>
       <c r="C1060" t="s">
-        <v>5528</v>
+        <v>5527</v>
       </c>
       <c r="D1060" s="3" t="s">
         <v>2524</v>
       </c>
       <c r="E1060" t="s">
-        <v>5529</v>
+        <v>5528</v>
       </c>
     </row>
     <row r="1061" spans="1:5" ht="71.25" customHeight="1">
@@ -37424,13 +37424,13 @@
         <v>2526</v>
       </c>
       <c r="C1061" t="s">
-        <v>5530</v>
+        <v>5529</v>
       </c>
       <c r="D1061" s="3" t="s">
         <v>2527</v>
       </c>
       <c r="E1061" t="s">
-        <v>5531</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="1062" spans="1:5" ht="28.5" customHeight="1">
@@ -37441,13 +37441,13 @@
         <v>2529</v>
       </c>
       <c r="C1062" t="s">
-        <v>5532</v>
+        <v>5531</v>
       </c>
       <c r="D1062" s="3" t="s">
         <v>2530</v>
       </c>
       <c r="E1062" t="s">
-        <v>5533</v>
+        <v>5532</v>
       </c>
     </row>
     <row r="1063" spans="1:5" ht="57" customHeight="1">
@@ -37458,13 +37458,13 @@
         <v>2532</v>
       </c>
       <c r="C1063" t="s">
-        <v>5534</v>
+        <v>5533</v>
       </c>
       <c r="D1063" s="3" t="s">
         <v>2533</v>
       </c>
       <c r="E1063" t="s">
-        <v>5535</v>
+        <v>5534</v>
       </c>
     </row>
     <row r="1064" spans="1:5" ht="128.25" customHeight="1">
@@ -37475,13 +37475,13 @@
         <v>2535</v>
       </c>
       <c r="C1064" t="s">
-        <v>5536</v>
+        <v>5535</v>
       </c>
       <c r="D1064" s="3" t="s">
         <v>2536</v>
       </c>
       <c r="E1064" t="s">
-        <v>5537</v>
+        <v>5536</v>
       </c>
     </row>
     <row r="1065" spans="1:5" ht="57" customHeight="1">
@@ -37492,13 +37492,13 @@
         <v>2538</v>
       </c>
       <c r="C1065" t="s">
-        <v>5538</v>
+        <v>5537</v>
       </c>
       <c r="D1065" s="3" t="s">
         <v>2539</v>
       </c>
       <c r="E1065" t="s">
-        <v>5539</v>
+        <v>5538</v>
       </c>
     </row>
     <row r="1066" spans="1:5" ht="114" customHeight="1">
@@ -37509,13 +37509,13 @@
         <v>2541</v>
       </c>
       <c r="C1066" t="s">
-        <v>5540</v>
+        <v>5539</v>
       </c>
       <c r="D1066" s="3" t="s">
         <v>2542</v>
       </c>
       <c r="E1066" t="s">
-        <v>5541</v>
+        <v>5540</v>
       </c>
     </row>
     <row r="1067" spans="1:5" ht="42.75" customHeight="1">
@@ -37526,13 +37526,13 @@
         <v>2544</v>
       </c>
       <c r="C1067" t="s">
-        <v>5542</v>
+        <v>5541</v>
       </c>
       <c r="D1067" s="3" t="s">
         <v>2545</v>
       </c>
       <c r="E1067" t="s">
-        <v>5543</v>
+        <v>5542</v>
       </c>
     </row>
     <row r="1068" spans="1:5" ht="57" customHeight="1">
@@ -37543,13 +37543,13 @@
         <v>2547</v>
       </c>
       <c r="C1068" t="s">
-        <v>5544</v>
+        <v>5543</v>
       </c>
       <c r="D1068" s="3" t="s">
         <v>2548</v>
       </c>
       <c r="E1068" t="s">
-        <v>5545</v>
+        <v>5544</v>
       </c>
     </row>
     <row r="1069" spans="1:5" ht="42.75" customHeight="1">
@@ -37560,13 +37560,13 @@
         <v>2550</v>
       </c>
       <c r="C1069" t="s">
-        <v>5546</v>
+        <v>5545</v>
       </c>
       <c r="D1069" s="3" t="s">
         <v>2551</v>
       </c>
       <c r="E1069" t="s">
-        <v>5547</v>
+        <v>5546</v>
       </c>
     </row>
     <row r="1070" spans="1:5" ht="57" customHeight="1">
@@ -37577,13 +37577,13 @@
         <v>2553</v>
       </c>
       <c r="C1070" t="s">
-        <v>5548</v>
+        <v>5547</v>
       </c>
       <c r="D1070" s="3" t="s">
         <v>2554</v>
       </c>
       <c r="E1070" t="s">
-        <v>5549</v>
+        <v>5548</v>
       </c>
     </row>
     <row r="1071" spans="1:5" ht="85.5" customHeight="1">
@@ -37600,7 +37600,7 @@
         <v>2112</v>
       </c>
       <c r="E1071" t="s">
-        <v>5550</v>
+        <v>5549</v>
       </c>
     </row>
     <row r="1072" spans="1:5" ht="42.75" customHeight="1">
@@ -37611,13 +37611,13 @@
         <v>2557</v>
       </c>
       <c r="C1072" t="s">
-        <v>5551</v>
+        <v>5550</v>
       </c>
       <c r="D1072" s="3" t="s">
         <v>2558</v>
       </c>
       <c r="E1072" t="s">
-        <v>5552</v>
+        <v>5551</v>
       </c>
     </row>
     <row r="1073" spans="1:5" ht="114" customHeight="1">
@@ -37628,13 +37628,13 @@
         <v>2560</v>
       </c>
       <c r="C1073" t="s">
-        <v>5553</v>
+        <v>5552</v>
       </c>
       <c r="D1073" s="3" t="s">
         <v>2561</v>
       </c>
       <c r="E1073" t="s">
-        <v>5554</v>
+        <v>5553</v>
       </c>
     </row>
     <row r="1074" spans="1:5" ht="128.25" customHeight="1">
@@ -37645,13 +37645,13 @@
         <v>2563</v>
       </c>
       <c r="C1074" t="s">
-        <v>5555</v>
+        <v>5554</v>
       </c>
       <c r="D1074" s="3" t="s">
         <v>2564</v>
       </c>
       <c r="E1074" t="s">
-        <v>5556</v>
+        <v>5555</v>
       </c>
     </row>
     <row r="1075" spans="1:5" ht="57" customHeight="1">
@@ -37662,13 +37662,13 @@
         <v>2566</v>
       </c>
       <c r="C1075" t="s">
-        <v>5557</v>
+        <v>5556</v>
       </c>
       <c r="D1075" s="3" t="s">
         <v>2567</v>
       </c>
       <c r="E1075" t="s">
-        <v>5558</v>
+        <v>5557</v>
       </c>
     </row>
     <row r="1076" spans="1:5" ht="28.5" customHeight="1">
@@ -37679,13 +37679,13 @@
         <v>2569</v>
       </c>
       <c r="C1076" t="s">
-        <v>5559</v>
+        <v>5558</v>
       </c>
       <c r="D1076" s="3" t="s">
         <v>2310</v>
       </c>
       <c r="E1076" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="1077" spans="1:5" ht="28.5" customHeight="1">
@@ -37696,13 +37696,13 @@
         <v>2571</v>
       </c>
       <c r="C1077" t="s">
-        <v>5560</v>
+        <v>5559</v>
       </c>
       <c r="D1077" s="3" t="s">
         <v>2310</v>
       </c>
       <c r="E1077" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="1078" spans="1:5" ht="28.5" customHeight="1">
@@ -37713,13 +37713,13 @@
         <v>2573</v>
       </c>
       <c r="C1078" t="s">
-        <v>5561</v>
+        <v>5560</v>
       </c>
       <c r="D1078" s="3" t="s">
         <v>2310</v>
       </c>
       <c r="E1078" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="1079" spans="1:5" ht="28.5" customHeight="1">
@@ -37730,13 +37730,13 @@
         <v>2575</v>
       </c>
       <c r="C1079" t="s">
-        <v>5562</v>
+        <v>5561</v>
       </c>
       <c r="D1079" s="3" t="s">
         <v>2310</v>
       </c>
       <c r="E1079" t="s">
-        <v>5396</v>
+        <v>5395</v>
       </c>
     </row>
     <row r="1080" spans="1:5" ht="228" customHeight="1">
@@ -37747,13 +37747,13 @@
         <v>2577</v>
       </c>
       <c r="C1080" t="s">
-        <v>5563</v>
+        <v>5562</v>
       </c>
       <c r="D1080" s="3" t="s">
         <v>2578</v>
       </c>
       <c r="E1080" t="s">
-        <v>5564</v>
+        <v>5563</v>
       </c>
     </row>
     <row r="1081" spans="1:5" ht="42.75" customHeight="1">
@@ -37770,7 +37770,7 @@
         <v>2582</v>
       </c>
       <c r="E1081" t="s">
-        <v>5565</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="1082" spans="1:5" ht="28.5" customHeight="1">
@@ -37787,7 +37787,7 @@
         <v>2584</v>
       </c>
       <c r="E1082" t="s">
-        <v>5566</v>
+        <v>5565</v>
       </c>
     </row>
     <row r="1083" spans="1:5" ht="71.25" customHeight="1">
@@ -37798,13 +37798,13 @@
         <v>2586</v>
       </c>
       <c r="C1083" t="s">
-        <v>5567</v>
+        <v>5566</v>
       </c>
       <c r="D1083" s="3" t="s">
         <v>2587</v>
       </c>
       <c r="E1083" t="s">
-        <v>5568</v>
+        <v>5567</v>
       </c>
     </row>
     <row r="1084" spans="1:5" ht="71.25" customHeight="1">
@@ -37815,13 +37815,13 @@
         <v>2586</v>
       </c>
       <c r="C1084" t="s">
-        <v>5567</v>
+        <v>5566</v>
       </c>
       <c r="D1084" s="3" t="s">
         <v>2589</v>
       </c>
       <c r="E1084" t="s">
-        <v>5569</v>
+        <v>5568</v>
       </c>
     </row>
     <row r="1085" spans="1:5" ht="28.5" customHeight="1">
@@ -37832,13 +37832,13 @@
         <v>2591</v>
       </c>
       <c r="C1085" t="s">
-        <v>5570</v>
+        <v>5569</v>
       </c>
       <c r="D1085" s="3" t="s">
         <v>2592</v>
       </c>
       <c r="E1085" t="s">
-        <v>5571</v>
+        <v>5570</v>
       </c>
     </row>
     <row r="1086" spans="1:5" ht="99.75" customHeight="1">
@@ -37849,13 +37849,13 @@
         <v>2171</v>
       </c>
       <c r="C1086" t="s">
-        <v>5572</v>
+        <v>5571</v>
       </c>
       <c r="D1086" s="3" t="s">
         <v>2594</v>
       </c>
       <c r="E1086" t="s">
-        <v>5573</v>
+        <v>5572</v>
       </c>
     </row>
     <row r="1087" spans="1:5" ht="42.75" customHeight="1">
@@ -37866,13 +37866,13 @@
         <v>2596</v>
       </c>
       <c r="C1087" t="s">
-        <v>5574</v>
+        <v>5573</v>
       </c>
       <c r="D1087" s="3" t="s">
         <v>2597</v>
       </c>
       <c r="E1087" t="s">
-        <v>5575</v>
+        <v>5574</v>
       </c>
     </row>
     <row r="1088" spans="1:5" ht="114" customHeight="1">
@@ -37883,13 +37883,13 @@
         <v>2599</v>
       </c>
       <c r="C1088" t="s">
-        <v>5576</v>
+        <v>5575</v>
       </c>
       <c r="D1088" s="3" t="s">
         <v>2600</v>
       </c>
       <c r="E1088" t="s">
-        <v>5577</v>
+        <v>5576</v>
       </c>
     </row>
     <row r="1089" spans="1:5" ht="42.75" customHeight="1">
@@ -37900,13 +37900,13 @@
         <v>2602</v>
       </c>
       <c r="C1089" t="s">
-        <v>5578</v>
+        <v>5577</v>
       </c>
       <c r="D1089" s="3" t="s">
         <v>2603</v>
       </c>
       <c r="E1089" t="s">
-        <v>5579</v>
+        <v>5578</v>
       </c>
     </row>
     <row r="1090" spans="1:5" ht="28.5" customHeight="1">
@@ -37917,13 +37917,13 @@
         <v>2605</v>
       </c>
       <c r="C1090" t="s">
-        <v>5580</v>
+        <v>5579</v>
       </c>
       <c r="D1090" s="3" t="s">
         <v>2606</v>
       </c>
       <c r="E1090" t="s">
-        <v>5581</v>
+        <v>5580</v>
       </c>
     </row>
     <row r="1091" spans="1:5" ht="85.5" customHeight="1">
@@ -37934,13 +37934,13 @@
         <v>2400</v>
       </c>
       <c r="C1091" t="s">
-        <v>5582</v>
+        <v>5581</v>
       </c>
       <c r="D1091" s="3" t="s">
         <v>2608</v>
       </c>
       <c r="E1091" t="s">
-        <v>5583</v>
+        <v>5582</v>
       </c>
     </row>
     <row r="1092" spans="1:5" ht="85.5" customHeight="1">
@@ -37951,13 +37951,13 @@
         <v>2610</v>
       </c>
       <c r="C1092" t="s">
-        <v>5584</v>
+        <v>5583</v>
       </c>
       <c r="D1092" s="3" t="s">
         <v>2611</v>
       </c>
       <c r="E1092" t="s">
-        <v>5585</v>
+        <v>5584</v>
       </c>
     </row>
     <row r="1093" spans="1:5" ht="57" customHeight="1">
@@ -37968,13 +37968,13 @@
         <v>2613</v>
       </c>
       <c r="C1093" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1093" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="E1093" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="1094" spans="1:5" ht="42.75" customHeight="1">
@@ -37985,13 +37985,13 @@
         <v>2613</v>
       </c>
       <c r="C1094" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1094" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="E1094" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="1095" spans="1:5" ht="57" customHeight="1">
@@ -38002,13 +38002,13 @@
         <v>2613</v>
       </c>
       <c r="C1095" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1095" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="E1095" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="1096" spans="1:5" ht="57" customHeight="1">
@@ -38019,13 +38019,13 @@
         <v>2613</v>
       </c>
       <c r="C1096" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1096" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="E1096" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="1097" spans="1:5" ht="57" customHeight="1">
@@ -38036,13 +38036,13 @@
         <v>2613</v>
       </c>
       <c r="C1097" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1097" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="E1097" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="1098" spans="1:5" ht="42.75" customHeight="1">
@@ -38053,13 +38053,13 @@
         <v>2620</v>
       </c>
       <c r="C1098" t="s">
-        <v>5588</v>
+        <v>5587</v>
       </c>
       <c r="D1098" s="3" t="s">
         <v>2621</v>
       </c>
       <c r="E1098" t="s">
-        <v>5589</v>
+        <v>5588</v>
       </c>
     </row>
     <row r="1099" spans="1:5" ht="57" customHeight="1">
@@ -38070,13 +38070,13 @@
         <v>2613</v>
       </c>
       <c r="C1099" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1099" s="3" t="s">
         <v>2614</v>
       </c>
       <c r="E1099" t="s">
-        <v>5587</v>
+        <v>5586</v>
       </c>
     </row>
     <row r="1100" spans="1:5" ht="71.25" customHeight="1">
@@ -38087,13 +38087,13 @@
         <v>2624</v>
       </c>
       <c r="C1100" t="s">
-        <v>5590</v>
+        <v>5589</v>
       </c>
       <c r="D1100" s="3" t="s">
         <v>2625</v>
       </c>
       <c r="E1100" t="s">
-        <v>5591</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="1101" spans="1:5" ht="42.75" customHeight="1">
@@ -38104,13 +38104,13 @@
         <v>2627</v>
       </c>
       <c r="C1101" t="s">
-        <v>5592</v>
+        <v>5591</v>
       </c>
       <c r="D1101" s="3" t="s">
         <v>2628</v>
       </c>
       <c r="E1101" t="s">
-        <v>5593</v>
+        <v>5592</v>
       </c>
     </row>
     <row r="1102" spans="1:5" ht="57" customHeight="1">
@@ -38121,13 +38121,13 @@
         <v>2630</v>
       </c>
       <c r="C1102" t="s">
-        <v>5594</v>
+        <v>5593</v>
       </c>
       <c r="D1102" s="3" t="s">
         <v>2631</v>
       </c>
       <c r="E1102" t="s">
-        <v>5595</v>
+        <v>5594</v>
       </c>
     </row>
     <row r="1103" spans="1:5" ht="142.5" customHeight="1">
@@ -38138,13 +38138,13 @@
         <v>2633</v>
       </c>
       <c r="C1103" t="s">
-        <v>5596</v>
+        <v>5595</v>
       </c>
       <c r="D1103" s="3" t="s">
         <v>2634</v>
       </c>
       <c r="E1103" t="s">
-        <v>5597</v>
+        <v>5596</v>
       </c>
     </row>
     <row r="1104" spans="1:5" ht="42.75" customHeight="1">
@@ -38155,13 +38155,13 @@
         <v>2636</v>
       </c>
       <c r="C1104" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="D1104" s="3" t="s">
         <v>2637</v>
       </c>
       <c r="E1104" t="s">
-        <v>5599</v>
+        <v>5598</v>
       </c>
     </row>
     <row r="1105" spans="1:5" ht="42.75" customHeight="1">
@@ -38172,13 +38172,13 @@
         <v>2636</v>
       </c>
       <c r="C1105" t="s">
-        <v>5598</v>
+        <v>5597</v>
       </c>
       <c r="D1105" s="3" t="s">
         <v>2639</v>
       </c>
       <c r="E1105" t="s">
-        <v>5600</v>
+        <v>5599</v>
       </c>
     </row>
     <row r="1106" spans="1:5" ht="57" customHeight="1">
@@ -38189,13 +38189,13 @@
         <v>2641</v>
       </c>
       <c r="C1106" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="D1106" s="3" t="s">
         <v>2642</v>
       </c>
       <c r="E1106" t="s">
-        <v>5602</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="1107" spans="1:5" ht="57" customHeight="1">
@@ -38206,13 +38206,13 @@
         <v>2641</v>
       </c>
       <c r="C1107" t="s">
-        <v>5601</v>
+        <v>5600</v>
       </c>
       <c r="D1107" s="3" t="s">
         <v>2644</v>
       </c>
       <c r="E1107" t="s">
-        <v>5603</v>
+        <v>5602</v>
       </c>
     </row>
     <row r="1108" spans="1:5" ht="14.25" customHeight="1">
@@ -38223,7 +38223,7 @@
         <v>2645</v>
       </c>
       <c r="C1108" t="s">
-        <v>5604</v>
+        <v>5603</v>
       </c>
       <c r="D1108" s="3"/>
     </row>
@@ -38235,7 +38235,7 @@
         <v>2646</v>
       </c>
       <c r="C1109" t="s">
-        <v>5605</v>
+        <v>5604</v>
       </c>
       <c r="D1109" s="3"/>
     </row>
@@ -38247,13 +38247,13 @@
         <v>2648</v>
       </c>
       <c r="C1110" t="s">
-        <v>5606</v>
+        <v>5605</v>
       </c>
       <c r="D1110" s="3" t="s">
         <v>2649</v>
       </c>
       <c r="E1110" t="s">
-        <v>5607</v>
+        <v>5606</v>
       </c>
     </row>
     <row r="1111" spans="1:5" ht="28.5" customHeight="1">
@@ -38264,7 +38264,7 @@
         <v>2651</v>
       </c>
       <c r="C1111" t="s">
-        <v>5608</v>
+        <v>5607</v>
       </c>
       <c r="D1111" s="3"/>
     </row>
@@ -38276,7 +38276,7 @@
         <v>2653</v>
       </c>
       <c r="C1112" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="D1112" s="3"/>
     </row>
@@ -38288,7 +38288,7 @@
         <v>2653</v>
       </c>
       <c r="C1113" t="s">
-        <v>5609</v>
+        <v>5608</v>
       </c>
       <c r="D1113" s="3"/>
     </row>
@@ -38300,7 +38300,7 @@
         <v>2656</v>
       </c>
       <c r="C1114" t="s">
-        <v>5610</v>
+        <v>5609</v>
       </c>
       <c r="D1114" s="3"/>
     </row>
@@ -38312,7 +38312,7 @@
         <v>2613</v>
       </c>
       <c r="C1115" t="s">
-        <v>5586</v>
+        <v>5585</v>
       </c>
       <c r="D1115" s="3"/>
     </row>
@@ -38324,7 +38324,7 @@
         <v>2659</v>
       </c>
       <c r="C1116" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="D1116" s="3"/>
     </row>
@@ -38336,7 +38336,7 @@
         <v>2659</v>
       </c>
       <c r="C1117" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="D1117" s="3"/>
     </row>
@@ -38348,7 +38348,7 @@
         <v>2659</v>
       </c>
       <c r="C1118" t="s">
-        <v>5611</v>
+        <v>5610</v>
       </c>
       <c r="D1118" s="3"/>
     </row>
@@ -38360,13 +38360,13 @@
         <v>2663</v>
       </c>
       <c r="C1119" t="s">
-        <v>5612</v>
+        <v>5611</v>
       </c>
       <c r="D1119" s="3" t="s">
         <v>2664</v>
       </c>
       <c r="E1119" t="s">
-        <v>5613</v>
+        <v>5612</v>
       </c>
     </row>
     <row r="1120" spans="1:5" ht="142.5" customHeight="1">
@@ -38377,13 +38377,13 @@
         <v>2666</v>
       </c>
       <c r="C1120" t="s">
-        <v>5614</v>
+        <v>5613</v>
       </c>
       <c r="D1120" s="3" t="s">
         <v>2667</v>
       </c>
       <c r="E1120" t="s">
-        <v>5615</v>
+        <v>5614</v>
       </c>
     </row>
     <row r="1121" spans="1:5" ht="99.75" customHeight="1">
@@ -38394,13 +38394,13 @@
         <v>2669</v>
       </c>
       <c r="C1121" t="s">
-        <v>5616</v>
+        <v>5615</v>
       </c>
       <c r="D1121" s="3" t="s">
         <v>2670</v>
       </c>
       <c r="E1121" t="s">
-        <v>5617</v>
+        <v>5616</v>
       </c>
     </row>
     <row r="1122" spans="1:5" ht="71.25" customHeight="1">
@@ -38411,13 +38411,13 @@
         <v>2672</v>
       </c>
       <c r="C1122" t="s">
-        <v>5618</v>
+        <v>5617</v>
       </c>
       <c r="D1122" s="3" t="s">
         <v>2673</v>
       </c>
       <c r="E1122" t="s">
-        <v>5619</v>
+        <v>5618</v>
       </c>
     </row>
     <row r="1123" spans="1:5" ht="71.25" customHeight="1">
@@ -38428,13 +38428,13 @@
         <v>2675</v>
       </c>
       <c r="C1123" t="s">
-        <v>5620</v>
+        <v>5619</v>
       </c>
       <c r="D1123" s="3" t="s">
         <v>2676</v>
       </c>
       <c r="E1123" t="s">
-        <v>5621</v>
+        <v>5620</v>
       </c>
     </row>
     <row r="1124" spans="1:5" ht="28.5" customHeight="1">
@@ -38445,13 +38445,13 @@
         <v>2678</v>
       </c>
       <c r="C1124" t="s">
-        <v>5622</v>
+        <v>5621</v>
       </c>
       <c r="D1124" s="3" t="s">
         <v>2679</v>
       </c>
       <c r="E1124" t="s">
-        <v>5623</v>
+        <v>5622</v>
       </c>
     </row>
     <row r="1125" spans="1:5" ht="71.25" customHeight="1">
@@ -38462,13 +38462,13 @@
         <v>2681</v>
       </c>
       <c r="C1125" t="s">
-        <v>5624</v>
+        <v>5623</v>
       </c>
       <c r="D1125" s="3" t="s">
         <v>2682</v>
       </c>
       <c r="E1125" t="s">
-        <v>5625</v>
+        <v>5624</v>
       </c>
     </row>
     <row r="1126" spans="1:5" ht="185.25" customHeight="1">
@@ -38479,13 +38479,13 @@
         <v>2684</v>
       </c>
       <c r="C1126" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="D1126" s="3" t="s">
         <v>2685</v>
       </c>
       <c r="E1126" t="s">
-        <v>5627</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="1127" spans="1:5" ht="114" customHeight="1">
@@ -38496,13 +38496,13 @@
         <v>2687</v>
       </c>
       <c r="C1127" t="s">
-        <v>5628</v>
+        <v>5627</v>
       </c>
       <c r="D1127" s="3" t="s">
         <v>2688</v>
       </c>
       <c r="E1127" t="s">
-        <v>5629</v>
+        <v>5628</v>
       </c>
     </row>
     <row r="1128" spans="1:5" ht="71.25" customHeight="1">
@@ -38513,13 +38513,13 @@
         <v>2690</v>
       </c>
       <c r="C1128" t="s">
-        <v>5630</v>
+        <v>5629</v>
       </c>
       <c r="D1128" s="3" t="s">
         <v>2691</v>
       </c>
       <c r="E1128" t="s">
-        <v>5631</v>
+        <v>5630</v>
       </c>
     </row>
     <row r="1129" spans="1:5" ht="42.75" customHeight="1">
@@ -38530,13 +38530,13 @@
         <v>2693</v>
       </c>
       <c r="C1129" t="s">
-        <v>5632</v>
+        <v>5631</v>
       </c>
       <c r="D1129" s="3" t="s">
         <v>2694</v>
       </c>
       <c r="E1129" t="s">
-        <v>5633</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="1130" spans="1:5" ht="57" customHeight="1">
@@ -38547,13 +38547,13 @@
         <v>2696</v>
       </c>
       <c r="C1130" t="s">
-        <v>5634</v>
+        <v>5633</v>
       </c>
       <c r="D1130" s="3" t="s">
         <v>2697</v>
       </c>
       <c r="E1130" t="s">
-        <v>5635</v>
+        <v>5634</v>
       </c>
     </row>
     <row r="1131" spans="1:5" ht="57" customHeight="1">
@@ -38564,13 +38564,13 @@
         <v>2699</v>
       </c>
       <c r="C1131" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="D1131" s="3" t="s">
         <v>2700</v>
       </c>
       <c r="E1131" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="1132" spans="1:5" ht="57" customHeight="1">
@@ -38581,13 +38581,13 @@
         <v>2699</v>
       </c>
       <c r="C1132" t="s">
-        <v>5636</v>
+        <v>5635</v>
       </c>
       <c r="D1132" s="3" t="s">
         <v>2700</v>
       </c>
       <c r="E1132" t="s">
-        <v>5637</v>
+        <v>5636</v>
       </c>
     </row>
     <row r="1133" spans="1:5" ht="213.75" customHeight="1">
@@ -38604,7 +38604,7 @@
         <v>2703</v>
       </c>
       <c r="E1133" t="s">
-        <v>5638</v>
+        <v>5637</v>
       </c>
     </row>
     <row r="1134" spans="1:5" ht="42.75" customHeight="1">
@@ -38615,13 +38615,13 @@
         <v>2705</v>
       </c>
       <c r="C1134" t="s">
-        <v>5639</v>
+        <v>5638</v>
       </c>
       <c r="D1134" s="3" t="s">
         <v>2706</v>
       </c>
       <c r="E1134" t="s">
-        <v>5640</v>
+        <v>5639</v>
       </c>
     </row>
     <row r="1135" spans="1:5" ht="42.75" customHeight="1">
@@ -38632,13 +38632,13 @@
         <v>2708</v>
       </c>
       <c r="C1135" t="s">
-        <v>5641</v>
+        <v>5640</v>
       </c>
       <c r="D1135" s="3" t="s">
         <v>2709</v>
       </c>
       <c r="E1135" t="s">
-        <v>5642</v>
+        <v>5641</v>
       </c>
     </row>
     <row r="1136" spans="1:5" ht="28.5" customHeight="1">
@@ -38649,7 +38649,7 @@
         <v>2711</v>
       </c>
       <c r="C1136" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="D1136" s="3"/>
     </row>
@@ -38661,7 +38661,7 @@
         <v>2711</v>
       </c>
       <c r="C1137" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="D1137" s="3"/>
     </row>
@@ -38673,7 +38673,7 @@
         <v>2711</v>
       </c>
       <c r="C1138" t="s">
-        <v>5626</v>
+        <v>5625</v>
       </c>
       <c r="D1138" s="3"/>
     </row>
@@ -38685,13 +38685,13 @@
         <v>2715</v>
       </c>
       <c r="C1139" t="s">
-        <v>5643</v>
+        <v>5642</v>
       </c>
       <c r="D1139" s="3" t="s">
         <v>2716</v>
       </c>
       <c r="E1139" t="s">
-        <v>6359</v>
+        <v>6357</v>
       </c>
     </row>
     <row r="1140" spans="1:5" ht="57" customHeight="1">
@@ -38702,13 +38702,13 @@
         <v>2718</v>
       </c>
       <c r="C1140" t="s">
-        <v>5644</v>
+        <v>5643</v>
       </c>
       <c r="D1140" s="3" t="s">
         <v>2719</v>
       </c>
       <c r="E1140" t="s">
-        <v>5645</v>
+        <v>5644</v>
       </c>
     </row>
     <row r="1141" spans="1:5" ht="71.25" customHeight="1">
@@ -38719,13 +38719,13 @@
         <v>2721</v>
       </c>
       <c r="C1141" t="s">
-        <v>5646</v>
+        <v>5645</v>
       </c>
       <c r="D1141" s="3" t="s">
         <v>2722</v>
       </c>
       <c r="E1141" t="s">
-        <v>5647</v>
+        <v>5646</v>
       </c>
     </row>
     <row r="1142" spans="1:5" ht="42.75" customHeight="1">
@@ -38736,13 +38736,13 @@
         <v>2724</v>
       </c>
       <c r="C1142" t="s">
-        <v>5648</v>
+        <v>5647</v>
       </c>
       <c r="D1142" s="3" t="s">
         <v>2725</v>
       </c>
       <c r="E1142" t="s">
-        <v>5649</v>
+        <v>5648</v>
       </c>
     </row>
     <row r="1143" spans="1:5" ht="71.25" customHeight="1">
@@ -38753,13 +38753,13 @@
         <v>2727</v>
       </c>
       <c r="C1143" t="s">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="D1143" s="3" t="s">
         <v>2728</v>
       </c>
       <c r="E1143" t="s">
-        <v>5651</v>
+        <v>5650</v>
       </c>
     </row>
     <row r="1144" spans="1:5" ht="85.5" customHeight="1">
@@ -38770,13 +38770,13 @@
         <v>2730</v>
       </c>
       <c r="C1144" t="s">
-        <v>5652</v>
+        <v>5651</v>
       </c>
       <c r="D1144" s="3" t="s">
         <v>2731</v>
       </c>
       <c r="E1144" t="s">
-        <v>5653</v>
+        <v>5652</v>
       </c>
     </row>
     <row r="1145" spans="1:5" ht="99.75" customHeight="1">
@@ -38793,7 +38793,7 @@
         <v>2733</v>
       </c>
       <c r="E1145" t="s">
-        <v>5654</v>
+        <v>5653</v>
       </c>
     </row>
     <row r="1146" spans="1:5" ht="99.75" customHeight="1">
@@ -38810,7 +38810,7 @@
         <v>2735</v>
       </c>
       <c r="E1146" t="s">
-        <v>5655</v>
+        <v>5654</v>
       </c>
     </row>
     <row r="1147" spans="1:5" ht="128.25" customHeight="1">
@@ -38821,13 +38821,13 @@
         <v>2737</v>
       </c>
       <c r="C1147" t="s">
-        <v>5656</v>
+        <v>5655</v>
       </c>
       <c r="D1147" s="3" t="s">
         <v>2738</v>
       </c>
       <c r="E1147" t="s">
-        <v>5657</v>
+        <v>5656</v>
       </c>
     </row>
     <row r="1148" spans="1:5" ht="42.75" customHeight="1">
@@ -38838,13 +38838,13 @@
         <v>2740</v>
       </c>
       <c r="C1148" t="s">
-        <v>5658</v>
+        <v>5657</v>
       </c>
       <c r="D1148" s="3" t="s">
         <v>2741</v>
       </c>
       <c r="E1148" t="s">
-        <v>5659</v>
+        <v>5658</v>
       </c>
     </row>
     <row r="1149" spans="1:5" ht="42.75" customHeight="1">
@@ -38855,13 +38855,13 @@
         <v>2743</v>
       </c>
       <c r="C1149" t="s">
-        <v>5660</v>
+        <v>5659</v>
       </c>
       <c r="D1149" s="3" t="s">
         <v>2744</v>
       </c>
       <c r="E1149" t="s">
-        <v>5661</v>
+        <v>5660</v>
       </c>
     </row>
     <row r="1150" spans="1:5" ht="85.5" customHeight="1">
@@ -38872,13 +38872,13 @@
         <v>2746</v>
       </c>
       <c r="C1150" t="s">
-        <v>5662</v>
+        <v>5661</v>
       </c>
       <c r="D1150" s="3" t="s">
         <v>2747</v>
       </c>
       <c r="E1150" t="s">
-        <v>5663</v>
+        <v>5662</v>
       </c>
     </row>
     <row r="1151" spans="1:5" ht="114" customHeight="1">
@@ -38889,13 +38889,13 @@
         <v>2749</v>
       </c>
       <c r="C1151" t="s">
-        <v>5664</v>
+        <v>5663</v>
       </c>
       <c r="D1151" s="6" t="s">
         <v>2750</v>
       </c>
       <c r="E1151" t="s">
-        <v>5665</v>
+        <v>5664</v>
       </c>
     </row>
     <row r="1152" spans="1:5" ht="99.75" customHeight="1">
@@ -38912,7 +38912,7 @@
         <v>2752</v>
       </c>
       <c r="E1152" t="s">
-        <v>5666</v>
+        <v>5665</v>
       </c>
     </row>
     <row r="1153" spans="1:5" ht="42.75" customHeight="1">
@@ -38923,13 +38923,13 @@
         <v>2754</v>
       </c>
       <c r="C1153" t="s">
-        <v>5667</v>
+        <v>5666</v>
       </c>
       <c r="D1153" s="3" t="s">
         <v>2755</v>
       </c>
       <c r="E1153" t="s">
-        <v>5668</v>
+        <v>5667</v>
       </c>
     </row>
     <row r="1154" spans="1:5" ht="42.75" customHeight="1">
@@ -38940,13 +38940,13 @@
         <v>2757</v>
       </c>
       <c r="C1154" t="s">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="D1154" s="3" t="s">
         <v>2758</v>
       </c>
       <c r="E1154" t="s">
-        <v>5670</v>
+        <v>5669</v>
       </c>
     </row>
     <row r="1155" spans="1:5" ht="57" customHeight="1">
@@ -38957,13 +38957,13 @@
         <v>2760</v>
       </c>
       <c r="C1155" t="s">
-        <v>5671</v>
+        <v>5670</v>
       </c>
       <c r="D1155" s="3" t="s">
         <v>2761</v>
       </c>
       <c r="E1155" t="s">
-        <v>5672</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="1156" spans="1:5" ht="85.5" customHeight="1">
@@ -38974,13 +38974,13 @@
         <v>2763</v>
       </c>
       <c r="C1156" t="s">
-        <v>5673</v>
+        <v>5672</v>
       </c>
       <c r="D1156" s="3" t="s">
         <v>2764</v>
       </c>
       <c r="E1156" t="s">
-        <v>5674</v>
+        <v>5673</v>
       </c>
     </row>
     <row r="1157" spans="1:5" ht="57" customHeight="1">
@@ -38991,13 +38991,13 @@
         <v>2766</v>
       </c>
       <c r="C1157" t="s">
-        <v>5675</v>
+        <v>5674</v>
       </c>
       <c r="D1157" s="3" t="s">
         <v>2767</v>
       </c>
       <c r="E1157" t="s">
-        <v>5676</v>
+        <v>5675</v>
       </c>
     </row>
     <row r="1158" spans="1:5" ht="42.75" customHeight="1">
@@ -39008,13 +39008,13 @@
         <v>2769</v>
       </c>
       <c r="C1158" t="s">
-        <v>5677</v>
+        <v>5676</v>
       </c>
       <c r="D1158" s="3" t="s">
         <v>2770</v>
       </c>
       <c r="E1158" t="s">
-        <v>5678</v>
+        <v>5677</v>
       </c>
     </row>
     <row r="1159" spans="1:5" ht="85.5" customHeight="1">
@@ -39025,13 +39025,13 @@
         <v>2772</v>
       </c>
       <c r="C1159" t="s">
-        <v>5679</v>
+        <v>5678</v>
       </c>
       <c r="D1159" s="3" t="s">
         <v>2773</v>
       </c>
       <c r="E1159" t="s">
-        <v>5680</v>
+        <v>5679</v>
       </c>
     </row>
     <row r="1160" spans="1:5" ht="57" customHeight="1">
@@ -39042,13 +39042,13 @@
         <v>2775</v>
       </c>
       <c r="C1160" t="s">
-        <v>5681</v>
+        <v>5680</v>
       </c>
       <c r="D1160" s="3" t="s">
         <v>2776</v>
       </c>
       <c r="E1160" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
     </row>
     <row r="1161" spans="1:5" ht="99.75" customHeight="1">
@@ -39059,13 +39059,13 @@
         <v>2778</v>
       </c>
       <c r="C1161" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="D1161" s="3" t="s">
         <v>2779</v>
       </c>
       <c r="E1161" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
     </row>
     <row r="1162" spans="1:5" ht="42.75" customHeight="1">
@@ -39076,13 +39076,13 @@
         <v>2781</v>
       </c>
       <c r="C1162" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="D1162" s="7" t="s">
         <v>2782</v>
       </c>
       <c r="E1162" s="8" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
     </row>
     <row r="1163" spans="1:5" ht="114" customHeight="1">
@@ -39093,13 +39093,13 @@
         <v>2784</v>
       </c>
       <c r="C1163" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="D1163" s="3" t="s">
         <v>2785</v>
       </c>
       <c r="E1163" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
     </row>
     <row r="1164" spans="1:5" ht="85.5" customHeight="1">
@@ -39110,13 +39110,13 @@
         <v>2787</v>
       </c>
       <c r="C1164" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
       <c r="D1164" s="3" t="s">
         <v>2788</v>
       </c>
       <c r="E1164" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
     </row>
     <row r="1165" spans="1:5" ht="42.75" customHeight="1">
@@ -39127,13 +39127,13 @@
         <v>2790</v>
       </c>
       <c r="C1165" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="D1165" s="3" t="s">
         <v>2791</v>
       </c>
       <c r="E1165" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
     </row>
     <row r="1166" spans="1:5" ht="85.5" customHeight="1">
@@ -39144,13 +39144,13 @@
         <v>2793</v>
       </c>
       <c r="C1166" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
       <c r="D1166" s="3" t="s">
         <v>2794</v>
       </c>
       <c r="E1166" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
     </row>
     <row r="1167" spans="1:5" ht="42.75" customHeight="1">
@@ -39161,13 +39161,13 @@
         <v>2796</v>
       </c>
       <c r="C1167" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="D1167" s="3" t="s">
         <v>2797</v>
       </c>
       <c r="E1167" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
     </row>
     <row r="1168" spans="1:5" ht="199.5" customHeight="1">
@@ -39178,13 +39178,13 @@
         <v>1132</v>
       </c>
       <c r="C1168" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="D1168" s="3" t="s">
         <v>2799</v>
       </c>
       <c r="E1168" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
     </row>
     <row r="1169" spans="1:5" ht="42.75" customHeight="1">
@@ -39195,13 +39195,13 @@
         <v>2801</v>
       </c>
       <c r="C1169" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="D1169" s="3" t="s">
         <v>2802</v>
       </c>
       <c r="E1169" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
     </row>
     <row r="1170" spans="1:5" ht="42.75" customHeight="1">
@@ -39212,13 +39212,13 @@
         <v>2804</v>
       </c>
       <c r="C1170" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="D1170" s="3" t="s">
         <v>2805</v>
       </c>
       <c r="E1170" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
     </row>
     <row r="1171" spans="1:5" ht="85.5" customHeight="1">
@@ -39229,13 +39229,13 @@
         <v>2807</v>
       </c>
       <c r="C1171" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
       <c r="D1171" s="3" t="s">
         <v>2808</v>
       </c>
       <c r="E1171" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
     </row>
     <row r="1172" spans="1:5" ht="85.5" customHeight="1">
@@ -39252,7 +39252,7 @@
         <v>2810</v>
       </c>
       <c r="E1172" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="1173" spans="1:5" ht="85.5" customHeight="1">
@@ -39269,7 +39269,7 @@
         <v>2810</v>
       </c>
       <c r="E1173" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
     </row>
     <row r="1174" spans="1:5" ht="185.25" customHeight="1">
@@ -39286,7 +39286,7 @@
         <v>2813</v>
       </c>
       <c r="E1174" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
     </row>
     <row r="1175" spans="1:5" ht="57" customHeight="1">
@@ -39297,13 +39297,13 @@
         <v>2815</v>
       </c>
       <c r="C1175" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
       <c r="D1175" s="3" t="s">
         <v>2816</v>
       </c>
       <c r="E1175" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
     </row>
     <row r="1176" spans="1:5" ht="71.25" customHeight="1">
@@ -39314,13 +39314,13 @@
         <v>2818</v>
       </c>
       <c r="C1176" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
       <c r="D1176" s="3" t="s">
         <v>2819</v>
       </c>
       <c r="E1176" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
     </row>
     <row r="1177" spans="1:5" ht="57" customHeight="1">
@@ -39331,13 +39331,13 @@
         <v>2821</v>
       </c>
       <c r="C1177" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="D1177" s="3" t="s">
         <v>2822</v>
       </c>
       <c r="E1177" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
     </row>
     <row r="1178" spans="1:5" ht="85.5" customHeight="1">
@@ -39348,13 +39348,13 @@
         <v>2051</v>
       </c>
       <c r="C1178" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="D1178" s="3" t="s">
         <v>2824</v>
       </c>
       <c r="E1178" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
     </row>
     <row r="1179" spans="1:5" ht="85.5" customHeight="1">
@@ -39371,7 +39371,7 @@
         <v>2826</v>
       </c>
       <c r="E1179" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
     </row>
     <row r="1180" spans="1:5" ht="42.75" customHeight="1">
@@ -39382,13 +39382,13 @@
         <v>2828</v>
       </c>
       <c r="C1180" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="D1180" s="3" t="s">
         <v>2829</v>
       </c>
       <c r="E1180" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
     </row>
     <row r="1181" spans="1:5" ht="57" customHeight="1">
@@ -39399,13 +39399,13 @@
         <v>2831</v>
       </c>
       <c r="C1181" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
       <c r="D1181" s="3" t="s">
         <v>2832</v>
       </c>
       <c r="E1181" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
     </row>
     <row r="1182" spans="1:5" ht="42.75" customHeight="1">
@@ -39416,13 +39416,13 @@
         <v>2834</v>
       </c>
       <c r="C1182" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="D1182" s="3" t="s">
         <v>2835</v>
       </c>
       <c r="E1182" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
     </row>
     <row r="1183" spans="1:5" ht="85.5" customHeight="1">
@@ -39433,13 +39433,13 @@
         <v>2837</v>
       </c>
       <c r="C1183" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
       <c r="D1183" s="3" t="s">
         <v>2838</v>
       </c>
       <c r="E1183" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
     </row>
     <row r="1184" spans="1:5" ht="42.75" customHeight="1">
@@ -39450,13 +39450,13 @@
         <v>2840</v>
       </c>
       <c r="C1184" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="D1184" s="3" t="s">
         <v>2841</v>
       </c>
       <c r="E1184" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
     </row>
     <row r="1185" spans="1:5" ht="199.5" customHeight="1">
@@ -39473,7 +39473,7 @@
         <v>2843</v>
       </c>
       <c r="E1185" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="1186" spans="1:5" ht="42.75" customHeight="1">
@@ -39484,7 +39484,7 @@
         <v>506</v>
       </c>
       <c r="C1186" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="D1186" s="3"/>
     </row>
@@ -39496,13 +39496,13 @@
         <v>2846</v>
       </c>
       <c r="C1187" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="D1187" s="3" t="s">
         <v>2847</v>
       </c>
       <c r="E1187" t="s">
-        <v>5729</v>
+        <v>5728</v>
       </c>
     </row>
     <row r="1188" spans="1:5" ht="42.75" customHeight="1">
@@ -39513,13 +39513,13 @@
         <v>2849</v>
       </c>
       <c r="C1188" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="D1188" s="3" t="s">
         <v>2850</v>
       </c>
       <c r="E1188" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
     </row>
     <row r="1189" spans="1:5" ht="71.25" customHeight="1">
@@ -39530,13 +39530,13 @@
         <v>2852</v>
       </c>
       <c r="C1189" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
       <c r="D1189" s="3" t="s">
         <v>2853</v>
       </c>
       <c r="E1189" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
     </row>
     <row r="1190" spans="1:5" ht="42.75" customHeight="1">
@@ -39547,13 +39547,13 @@
         <v>2236</v>
       </c>
       <c r="C1190" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="D1190" s="3" t="s">
         <v>2855</v>
       </c>
       <c r="E1190" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
     </row>
     <row r="1191" spans="1:5" ht="99.75" customHeight="1">
@@ -39570,7 +39570,7 @@
         <v>2857</v>
       </c>
       <c r="E1191" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
     </row>
     <row r="1192" spans="1:5" ht="42.75" customHeight="1">
@@ -39581,13 +39581,13 @@
         <v>2859</v>
       </c>
       <c r="C1192" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="D1192" s="3" t="s">
         <v>2860</v>
       </c>
       <c r="E1192" t="s">
-        <v>5738</v>
+        <v>5737</v>
       </c>
     </row>
     <row r="1193" spans="1:5" ht="42.75" customHeight="1">
@@ -39598,13 +39598,13 @@
         <v>2862</v>
       </c>
       <c r="C1193" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="D1193" s="3" t="s">
         <v>2863</v>
       </c>
       <c r="E1193" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
     </row>
     <row r="1194" spans="1:5" ht="28.5" customHeight="1">
@@ -39615,7 +39615,7 @@
         <v>2864</v>
       </c>
       <c r="C1194" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="D1194" s="3"/>
     </row>
@@ -39627,13 +39627,13 @@
         <v>2865</v>
       </c>
       <c r="C1195" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="D1195" s="3" t="s">
         <v>2866</v>
       </c>
       <c r="E1195" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
     </row>
     <row r="1196" spans="1:5" ht="28.5" customHeight="1">
@@ -39644,13 +39644,13 @@
         <v>2867</v>
       </c>
       <c r="C1196" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="D1196" s="3" t="s">
         <v>2868</v>
       </c>
       <c r="E1196" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
     </row>
     <row r="1197" spans="1:5" ht="57" customHeight="1">
@@ -39661,13 +39661,13 @@
         <v>2870</v>
       </c>
       <c r="C1197" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
       <c r="D1197" s="3" t="s">
         <v>2871</v>
       </c>
       <c r="E1197" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
     </row>
     <row r="1198" spans="1:5" ht="99.75" customHeight="1">
@@ -39678,13 +39678,13 @@
         <v>2230</v>
       </c>
       <c r="C1198" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="D1198" s="3" t="s">
         <v>2873</v>
       </c>
       <c r="E1198" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
     </row>
     <row r="1199" spans="1:5" ht="114" customHeight="1">
@@ -39695,13 +39695,13 @@
         <v>595</v>
       </c>
       <c r="C1199" t="s">
-        <v>5750</v>
+        <v>5749</v>
       </c>
       <c r="D1199" s="3" t="s">
         <v>2875</v>
       </c>
       <c r="E1199" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
     </row>
     <row r="1200" spans="1:5" ht="42.75" customHeight="1">
@@ -39712,13 +39712,13 @@
         <v>2877</v>
       </c>
       <c r="C1200" t="s">
-        <v>5752</v>
+        <v>5751</v>
       </c>
       <c r="D1200" s="3" t="s">
         <v>2878</v>
       </c>
       <c r="E1200" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
     </row>
     <row r="1201" spans="1:5" ht="85.5" customHeight="1">
@@ -39729,13 +39729,13 @@
         <v>2880</v>
       </c>
       <c r="C1201" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="D1201" s="3" t="s">
         <v>2881</v>
       </c>
       <c r="E1201" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
     </row>
     <row r="1202" spans="1:5" ht="57" customHeight="1">
@@ -39746,13 +39746,13 @@
         <v>2883</v>
       </c>
       <c r="C1202" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="D1202" s="3" t="s">
         <v>2884</v>
       </c>
       <c r="E1202" t="s">
-        <v>5757</v>
+        <v>6358</v>
       </c>
     </row>
     <row r="1203" spans="1:5" ht="28.5" customHeight="1">
@@ -39763,13 +39763,13 @@
         <v>2886</v>
       </c>
       <c r="C1203" t="s">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="D1203" s="6" t="s">
         <v>2887</v>
       </c>
       <c r="E1203" t="s">
-        <v>5759</v>
+        <v>5757</v>
       </c>
     </row>
     <row r="1204" spans="1:5" ht="85.5" customHeight="1">
@@ -39780,13 +39780,13 @@
         <v>2392</v>
       </c>
       <c r="C1204" t="s">
-        <v>5449</v>
+        <v>5448</v>
       </c>
       <c r="D1204" s="3" t="s">
         <v>2889</v>
       </c>
       <c r="E1204" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
     </row>
     <row r="1205" spans="1:5" ht="156.75" customHeight="1">
@@ -39803,7 +39803,7 @@
         <v>2891</v>
       </c>
       <c r="E1205" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
     </row>
     <row r="1206" spans="1:5" ht="57" customHeight="1">
@@ -39814,13 +39814,13 @@
         <v>2893</v>
       </c>
       <c r="C1206" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="D1206" s="3" t="s">
         <v>2894</v>
       </c>
       <c r="E1206" t="s">
-        <v>5763</v>
+        <v>5761</v>
       </c>
     </row>
     <row r="1207" spans="1:5" ht="57" customHeight="1">
@@ -39831,13 +39831,13 @@
         <v>2896</v>
       </c>
       <c r="C1207" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="D1207" s="3" t="s">
         <v>2897</v>
       </c>
       <c r="E1207" t="s">
-        <v>5764</v>
+        <v>5762</v>
       </c>
     </row>
     <row r="1208" spans="1:5" ht="71.25" customHeight="1">
@@ -39848,13 +39848,13 @@
         <v>2899</v>
       </c>
       <c r="C1208" t="s">
-        <v>5765</v>
+        <v>5763</v>
       </c>
       <c r="D1208" s="3" t="s">
         <v>2900</v>
       </c>
       <c r="E1208" t="s">
-        <v>5766</v>
+        <v>5764</v>
       </c>
     </row>
     <row r="1209" spans="1:5" ht="71.25" customHeight="1">
@@ -39865,13 +39865,13 @@
         <v>2902</v>
       </c>
       <c r="C1209" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="D1209" s="3" t="s">
         <v>2903</v>
       </c>
       <c r="E1209" t="s">
-        <v>5768</v>
+        <v>5766</v>
       </c>
     </row>
     <row r="1210" spans="1:5" ht="99.75" customHeight="1">
@@ -39882,13 +39882,13 @@
         <v>2905</v>
       </c>
       <c r="C1210" t="s">
-        <v>5769</v>
+        <v>5767</v>
       </c>
       <c r="D1210" s="3" t="s">
         <v>2906</v>
       </c>
       <c r="E1210" t="s">
-        <v>5770</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="1211" spans="1:5" ht="71.25" customHeight="1">
@@ -39899,13 +39899,13 @@
         <v>2908</v>
       </c>
       <c r="C1211" t="s">
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="D1211" s="3" t="s">
         <v>2909</v>
       </c>
       <c r="E1211" t="s">
-        <v>5772</v>
+        <v>5770</v>
       </c>
     </row>
     <row r="1212" spans="1:5" ht="99.75" customHeight="1">
@@ -39916,13 +39916,13 @@
         <v>2911</v>
       </c>
       <c r="C1212" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="D1212" s="3" t="s">
         <v>2912</v>
       </c>
       <c r="E1212" t="s">
-        <v>5774</v>
+        <v>5772</v>
       </c>
     </row>
     <row r="1213" spans="1:5" ht="42.75" customHeight="1">
@@ -39933,13 +39933,13 @@
         <v>2914</v>
       </c>
       <c r="C1213" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="D1213" s="3" t="s">
         <v>2915</v>
       </c>
       <c r="E1213" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
     </row>
     <row r="1214" spans="1:5" ht="114" customHeight="1">
@@ -39950,13 +39950,13 @@
         <v>2917</v>
       </c>
       <c r="C1214" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="D1214" s="3" t="s">
         <v>2918</v>
       </c>
       <c r="E1214" t="s">
-        <v>5778</v>
+        <v>5776</v>
       </c>
     </row>
     <row r="1215" spans="1:5" ht="99.75" customHeight="1">
@@ -39967,13 +39967,13 @@
         <v>2337</v>
       </c>
       <c r="C1215" t="s">
-        <v>5414</v>
+        <v>5413</v>
       </c>
       <c r="D1215" s="3" t="s">
         <v>2920</v>
       </c>
       <c r="E1215" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
     </row>
     <row r="1216" spans="1:5" ht="57" customHeight="1">
@@ -39984,13 +39984,13 @@
         <v>2922</v>
       </c>
       <c r="C1216" t="s">
-        <v>5780</v>
+        <v>5778</v>
       </c>
       <c r="D1216" s="3" t="s">
         <v>2923</v>
       </c>
       <c r="E1216" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
     </row>
     <row r="1217" spans="1:5" ht="42.75" customHeight="1">
@@ -40001,13 +40001,13 @@
         <v>2925</v>
       </c>
       <c r="C1217" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="D1217" s="3" t="s">
         <v>2926</v>
       </c>
       <c r="E1217" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
     </row>
     <row r="1218" spans="1:5" ht="42.75" customHeight="1">
@@ -40018,13 +40018,13 @@
         <v>2928</v>
       </c>
       <c r="C1218" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="D1218" s="3" t="s">
         <v>2929</v>
       </c>
       <c r="E1218" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
     </row>
     <row r="1219" spans="1:5" ht="69.75" customHeight="1">
@@ -40035,13 +40035,13 @@
         <v>2931</v>
       </c>
       <c r="C1219" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="D1219" s="3" t="s">
         <v>2932</v>
       </c>
       <c r="E1219" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
     </row>
     <row r="1220" spans="1:5" ht="42.75" customHeight="1">
@@ -40052,13 +40052,13 @@
         <v>2934</v>
       </c>
       <c r="C1220" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="D1220" s="3" t="s">
         <v>2935</v>
       </c>
       <c r="E1220" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
     </row>
     <row r="1221" spans="1:5" ht="313.5" customHeight="1">
@@ -40075,7 +40075,7 @@
         <v>2937</v>
       </c>
       <c r="E1221" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
     </row>
     <row r="1222" spans="1:5" ht="42.75" customHeight="1">
@@ -40086,13 +40086,13 @@
         <v>2939</v>
       </c>
       <c r="C1222" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="D1222" s="3" t="s">
         <v>2940</v>
       </c>
       <c r="E1222" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
     </row>
     <row r="1223" spans="1:5" ht="42.75" customHeight="1">
@@ -40103,13 +40103,13 @@
         <v>2942</v>
       </c>
       <c r="C1223" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="D1223" s="3" t="s">
         <v>2943</v>
       </c>
       <c r="E1223" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
     </row>
     <row r="1224" spans="1:5" ht="128.25" customHeight="1">
@@ -40120,13 +40120,13 @@
         <v>2945</v>
       </c>
       <c r="C1224" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="D1224" s="3" t="s">
         <v>2946</v>
       </c>
       <c r="E1224" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
     </row>
     <row r="1225" spans="1:5" ht="42.75" customHeight="1">
@@ -40137,13 +40137,13 @@
         <v>2948</v>
       </c>
       <c r="C1225" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="D1225" s="3" t="s">
         <v>2949</v>
       </c>
       <c r="E1225" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
     </row>
     <row r="1226" spans="1:5" ht="99.75" customHeight="1">
@@ -40154,13 +40154,13 @@
         <v>2951</v>
       </c>
       <c r="C1226" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="D1226" s="3" t="s">
         <v>2952</v>
       </c>
       <c r="E1226" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
     </row>
     <row r="1227" spans="1:5" ht="57" customHeight="1">
@@ -40171,13 +40171,13 @@
         <v>2954</v>
       </c>
       <c r="C1227" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="D1227" s="3" t="s">
         <v>2955</v>
       </c>
       <c r="E1227" t="s">
-        <v>5802</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="1228" spans="1:5" ht="85.5" customHeight="1">
@@ -40188,13 +40188,13 @@
         <v>2957</v>
       </c>
       <c r="C1228" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="D1228" s="3" t="s">
         <v>2958</v>
       </c>
       <c r="E1228" t="s">
-        <v>5804</v>
+        <v>5802</v>
       </c>
     </row>
     <row r="1229" spans="1:5" ht="57" customHeight="1">
@@ -40205,13 +40205,13 @@
         <v>2960</v>
       </c>
       <c r="C1229" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="D1229" s="3" t="s">
         <v>2961</v>
       </c>
       <c r="E1229" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
     </row>
     <row r="1230" spans="1:5" ht="71.25" customHeight="1">
@@ -40222,13 +40222,13 @@
         <v>2963</v>
       </c>
       <c r="C1230" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="D1230" s="3" t="s">
         <v>2964</v>
       </c>
       <c r="E1230" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
     </row>
     <row r="1231" spans="1:5" ht="128.25" customHeight="1">
@@ -40239,13 +40239,13 @@
         <v>2966</v>
       </c>
       <c r="C1231" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="D1231" s="3" t="s">
         <v>2967</v>
       </c>
       <c r="E1231" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
     </row>
     <row r="1232" spans="1:5" ht="28.5" customHeight="1">
@@ -40256,7 +40256,7 @@
         <v>2969</v>
       </c>
       <c r="C1232" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="D1232" s="3"/>
     </row>
@@ -40268,13 +40268,13 @@
         <v>2971</v>
       </c>
       <c r="C1233" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="D1233" s="3" t="s">
         <v>2972</v>
       </c>
       <c r="E1233" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
     </row>
     <row r="1234" spans="1:5" ht="199.5" customHeight="1">
@@ -40285,13 +40285,13 @@
         <v>2974</v>
       </c>
       <c r="C1234" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="D1234" s="3" t="s">
         <v>2975</v>
       </c>
       <c r="E1234" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
     </row>
     <row r="1235" spans="1:5" ht="57" customHeight="1">
@@ -40302,13 +40302,13 @@
         <v>2977</v>
       </c>
       <c r="C1235" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="D1235" s="3" t="s">
         <v>2978</v>
       </c>
       <c r="E1235" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="1236" spans="1:5" ht="57" customHeight="1">
@@ -40319,13 +40319,13 @@
         <v>2980</v>
       </c>
       <c r="C1236" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="D1236" s="3" t="s">
         <v>2981</v>
       </c>
       <c r="E1236" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="1237" spans="1:5" ht="57" customHeight="1">
@@ -40336,13 +40336,13 @@
         <v>2983</v>
       </c>
       <c r="C1237" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="D1237" s="3" t="s">
         <v>2984</v>
       </c>
       <c r="E1237" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
     </row>
     <row r="1238" spans="1:5" ht="142.5" customHeight="1">
@@ -40353,13 +40353,13 @@
         <v>539</v>
       </c>
       <c r="C1238" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="D1238" s="3" t="s">
         <v>2986</v>
       </c>
       <c r="E1238" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="1239" spans="1:5" ht="42.75" customHeight="1">
@@ -40370,13 +40370,13 @@
         <v>2988</v>
       </c>
       <c r="C1239" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="D1239" s="3" t="s">
         <v>2989</v>
       </c>
       <c r="E1239" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
     </row>
     <row r="1240" spans="1:5" ht="42.75" customHeight="1">
@@ -40387,13 +40387,13 @@
         <v>2991</v>
       </c>
       <c r="C1240" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="D1240" s="3" t="s">
         <v>2992</v>
       </c>
       <c r="E1240" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
     </row>
     <row r="1241" spans="1:5" ht="28.5" customHeight="1">
@@ -40411,13 +40411,13 @@
         <v>2995</v>
       </c>
       <c r="C1242" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="D1242" s="3" t="s">
         <v>2996</v>
       </c>
       <c r="E1242" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
     </row>
     <row r="1243" spans="1:5" ht="28.5" customHeight="1">
@@ -40435,13 +40435,13 @@
         <v>2998</v>
       </c>
       <c r="C1244" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="D1244" s="3" t="s">
         <v>2999</v>
       </c>
       <c r="E1244" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
     </row>
     <row r="1245" spans="1:5" ht="71.25" customHeight="1">
@@ -40452,13 +40452,13 @@
         <v>3000</v>
       </c>
       <c r="C1245" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="D1245" s="3" t="s">
         <v>3001</v>
       </c>
       <c r="E1245" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
     </row>
     <row r="1246" spans="1:5" ht="57" customHeight="1">
@@ -40469,13 +40469,13 @@
         <v>3003</v>
       </c>
       <c r="C1246" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="D1246" s="3" t="s">
         <v>3004</v>
       </c>
       <c r="E1246" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
     </row>
     <row r="1247" spans="1:5" ht="171" customHeight="1">
@@ -40492,7 +40492,7 @@
         <v>3006</v>
       </c>
       <c r="E1247" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
     </row>
     <row r="1248" spans="1:5" ht="85.5" customHeight="1">
@@ -40503,13 +40503,13 @@
         <v>3008</v>
       </c>
       <c r="C1248" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="D1248" s="3" t="s">
         <v>3009</v>
       </c>
       <c r="E1248" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
     </row>
     <row r="1249" spans="1:5" ht="71.25" customHeight="1">
@@ -40520,13 +40520,13 @@
         <v>3011</v>
       </c>
       <c r="C1249" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="D1249" s="3" t="s">
         <v>3012</v>
       </c>
       <c r="E1249" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="1250" spans="1:5" ht="171" customHeight="1">
@@ -40537,13 +40537,13 @@
         <v>3014</v>
       </c>
       <c r="C1250" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="D1250" s="3" t="s">
         <v>3015</v>
       </c>
       <c r="E1250" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="1251" spans="1:5" ht="85.5" customHeight="1">
@@ -40554,13 +40554,13 @@
         <v>2171</v>
       </c>
       <c r="C1251" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="D1251" s="3" t="s">
         <v>3017</v>
       </c>
       <c r="E1251" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
     </row>
     <row r="1252" spans="1:5" ht="142.5" customHeight="1">
@@ -40577,7 +40577,7 @@
         <v>3019</v>
       </c>
       <c r="E1252" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
     </row>
     <row r="1253" spans="1:5" ht="42.75" customHeight="1">
@@ -40588,13 +40588,13 @@
         <v>3021</v>
       </c>
       <c r="C1253" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="D1253" s="3" t="s">
         <v>3022</v>
       </c>
       <c r="E1253" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
     </row>
     <row r="1254" spans="1:5" ht="42.75" customHeight="1">
@@ -40605,13 +40605,13 @@
         <v>3024</v>
       </c>
       <c r="C1254" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="D1254" s="3" t="s">
         <v>3025</v>
       </c>
       <c r="E1254" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
     </row>
     <row r="1255" spans="1:5" ht="42.75" customHeight="1">
@@ -40622,13 +40622,13 @@
         <v>3027</v>
       </c>
       <c r="C1255" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="D1255" s="3" t="s">
         <v>3028</v>
       </c>
       <c r="E1255" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
     </row>
     <row r="1256" spans="1:5" ht="85.5" customHeight="1">
@@ -40639,13 +40639,13 @@
         <v>3030</v>
       </c>
       <c r="C1256" t="s">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="D1256" s="3" t="s">
         <v>3031</v>
       </c>
       <c r="E1256" t="s">
-        <v>5852</v>
+        <v>5850</v>
       </c>
     </row>
     <row r="1257" spans="1:5" ht="57" customHeight="1">
@@ -40656,13 +40656,13 @@
         <v>3033</v>
       </c>
       <c r="C1257" t="s">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="D1257" s="3" t="s">
         <v>3034</v>
       </c>
       <c r="E1257" t="s">
-        <v>5854</v>
+        <v>5852</v>
       </c>
     </row>
     <row r="1258" spans="1:5" ht="99.75" customHeight="1">
@@ -40679,7 +40679,7 @@
         <v>3036</v>
       </c>
       <c r="E1258" t="s">
-        <v>5855</v>
+        <v>5853</v>
       </c>
     </row>
     <row r="1259" spans="1:5" ht="42.75" customHeight="1">
@@ -40690,13 +40690,13 @@
         <v>3038</v>
       </c>
       <c r="C1259" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="D1259" s="3" t="s">
         <v>3039</v>
       </c>
       <c r="E1259" t="s">
-        <v>5857</v>
+        <v>5855</v>
       </c>
     </row>
     <row r="1260" spans="1:5" ht="42.75" customHeight="1">
@@ -40707,13 +40707,13 @@
         <v>3041</v>
       </c>
       <c r="C1260" t="s">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="D1260" s="3" t="s">
         <v>3042</v>
       </c>
       <c r="E1260" t="s">
-        <v>5859</v>
+        <v>5857</v>
       </c>
     </row>
     <row r="1261" spans="1:5" ht="99.75" customHeight="1">
@@ -40724,13 +40724,13 @@
         <v>3044</v>
       </c>
       <c r="C1261" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="D1261" s="7" t="s">
         <v>3045</v>
       </c>
       <c r="E1261" s="8" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
     </row>
     <row r="1262" spans="1:5" ht="71.25" customHeight="1">
@@ -40741,13 +40741,13 @@
         <v>3047</v>
       </c>
       <c r="C1262" t="s">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="D1262" s="7" t="s">
         <v>3048</v>
       </c>
       <c r="E1262" s="8" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
     </row>
     <row r="1263" spans="1:5" ht="57" customHeight="1">
@@ -40758,13 +40758,13 @@
         <v>3050</v>
       </c>
       <c r="C1263" t="s">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="D1263" s="3" t="s">
         <v>3051</v>
       </c>
       <c r="E1263" t="s">
-        <v>5865</v>
+        <v>5863</v>
       </c>
     </row>
     <row r="1264" spans="1:5" ht="57" customHeight="1">
@@ -40775,13 +40775,13 @@
         <v>3053</v>
       </c>
       <c r="C1264" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="D1264" s="3" t="s">
         <v>3054</v>
       </c>
       <c r="E1264" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
     </row>
     <row r="1265" spans="1:5" ht="99.75" customHeight="1">
@@ -40792,13 +40792,13 @@
         <v>2015</v>
       </c>
       <c r="C1265" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="D1265" s="3" t="s">
         <v>3056</v>
       </c>
       <c r="E1265" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
     </row>
     <row r="1266" spans="1:5" ht="85.5" customHeight="1">
@@ -40809,13 +40809,13 @@
         <v>3058</v>
       </c>
       <c r="C1266" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="D1266" s="3" t="s">
         <v>3059</v>
       </c>
       <c r="E1266" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
     </row>
     <row r="1267" spans="1:5" ht="85.5" customHeight="1">
@@ -40826,13 +40826,13 @@
         <v>2092</v>
       </c>
       <c r="C1267" t="s">
-        <v>5872</v>
+        <v>5870</v>
       </c>
       <c r="D1267" s="3" t="s">
         <v>3061</v>
       </c>
       <c r="E1267" t="s">
-        <v>5873</v>
+        <v>5871</v>
       </c>
     </row>
     <row r="1268" spans="1:5" ht="85.5" customHeight="1">
@@ -40849,7 +40849,7 @@
         <v>3063</v>
       </c>
       <c r="E1268" t="s">
-        <v>5874</v>
+        <v>5872</v>
       </c>
     </row>
     <row r="1269" spans="1:5" ht="85.5" customHeight="1">
@@ -40860,13 +40860,13 @@
         <v>3065</v>
       </c>
       <c r="C1269" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="D1269" s="3" t="s">
         <v>3066</v>
       </c>
       <c r="E1269" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
     </row>
     <row r="1270" spans="1:5" ht="128.25" customHeight="1">
@@ -40877,13 +40877,13 @@
         <v>3068</v>
       </c>
       <c r="C1270" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="D1270" s="3" t="s">
         <v>3069</v>
       </c>
       <c r="E1270" t="s">
-        <v>5878</v>
+        <v>5876</v>
       </c>
     </row>
     <row r="1271" spans="1:5" ht="71.25" customHeight="1">
@@ -40894,13 +40894,13 @@
         <v>3071</v>
       </c>
       <c r="C1271" t="s">
-        <v>5879</v>
+        <v>5877</v>
       </c>
       <c r="D1271" s="3" t="s">
         <v>3072</v>
       </c>
       <c r="E1271" t="s">
-        <v>5413</v>
+        <v>5412</v>
       </c>
     </row>
     <row r="1272" spans="1:5" ht="71.25" customHeight="1">
@@ -40911,13 +40911,13 @@
         <v>3074</v>
       </c>
       <c r="C1272" t="s">
-        <v>5880</v>
+        <v>5878</v>
       </c>
       <c r="D1272" s="7" t="s">
         <v>3075</v>
       </c>
       <c r="E1272" s="8" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="1273" spans="1:5" ht="71.25" customHeight="1">
@@ -40928,13 +40928,13 @@
         <v>3074</v>
       </c>
       <c r="C1273" t="s">
-        <v>5882</v>
+        <v>5880</v>
       </c>
       <c r="D1273" s="7" t="s">
         <v>3075</v>
       </c>
       <c r="E1273" s="8" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
     </row>
     <row r="1274" spans="1:5" ht="99.75" customHeight="1">
@@ -40945,13 +40945,13 @@
         <v>3078</v>
       </c>
       <c r="C1274" t="s">
-        <v>5883</v>
+        <v>5881</v>
       </c>
       <c r="D1274" s="7" t="s">
         <v>3079</v>
       </c>
       <c r="E1274" s="8" t="s">
-        <v>5884</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="1275" spans="1:5" ht="213.75" customHeight="1">
@@ -40968,7 +40968,7 @@
         <v>3081</v>
       </c>
       <c r="E1275" t="s">
-        <v>5885</v>
+        <v>5883</v>
       </c>
     </row>
     <row r="1276" spans="1:5" ht="42.75" customHeight="1">
@@ -40979,13 +40979,13 @@
         <v>3083</v>
       </c>
       <c r="C1276" t="s">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="D1276" s="3" t="s">
         <v>3084</v>
       </c>
       <c r="E1276" t="s">
-        <v>5887</v>
+        <v>5885</v>
       </c>
     </row>
     <row r="1277" spans="1:5" ht="42.75" customHeight="1">
@@ -40996,13 +40996,13 @@
         <v>3086</v>
       </c>
       <c r="C1277" t="s">
-        <v>5888</v>
+        <v>5886</v>
       </c>
       <c r="D1277" s="3" t="s">
         <v>3087</v>
       </c>
       <c r="E1277" t="s">
-        <v>5889</v>
+        <v>5887</v>
       </c>
     </row>
     <row r="1278" spans="1:5" ht="128.25" customHeight="1">
@@ -41013,13 +41013,13 @@
         <v>3089</v>
       </c>
       <c r="C1278" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="D1278" s="3" t="s">
         <v>3090</v>
       </c>
       <c r="E1278" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
     </row>
     <row r="1279" spans="1:5" ht="28.5" customHeight="1">
@@ -41030,7 +41030,7 @@
         <v>3089</v>
       </c>
       <c r="C1279" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="D1279" s="3">
         <v>0</v>
@@ -41044,13 +41044,13 @@
         <v>3093</v>
       </c>
       <c r="C1280" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="D1280" s="3" t="s">
         <v>3094</v>
       </c>
       <c r="E1280" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
     </row>
     <row r="1281" spans="1:5" ht="42.75" customHeight="1">
@@ -41061,13 +41061,13 @@
         <v>3096</v>
       </c>
       <c r="C1281" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="D1281" s="3" t="s">
         <v>3097</v>
       </c>
       <c r="E1281" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
     </row>
     <row r="1282" spans="1:5" ht="71.25" customHeight="1">
@@ -41078,13 +41078,13 @@
         <v>3099</v>
       </c>
       <c r="C1282" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="D1282" s="3" t="s">
         <v>3100</v>
       </c>
       <c r="E1282" t="s">
-        <v>5897</v>
+        <v>5895</v>
       </c>
     </row>
     <row r="1283" spans="1:5" ht="142.5" customHeight="1">
@@ -41095,13 +41095,13 @@
         <v>3102</v>
       </c>
       <c r="C1283" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="D1283" s="3" t="s">
         <v>3103</v>
       </c>
       <c r="E1283" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
     </row>
     <row r="1284" spans="1:5" ht="57" customHeight="1">
@@ -41112,13 +41112,13 @@
         <v>3105</v>
       </c>
       <c r="C1284" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="D1284" s="3" t="s">
         <v>3106</v>
       </c>
       <c r="E1284" t="s">
-        <v>5901</v>
+        <v>5899</v>
       </c>
     </row>
     <row r="1285" spans="1:5" ht="156.75" customHeight="1">
@@ -41129,13 +41129,13 @@
         <v>1922</v>
       </c>
       <c r="C1285" t="s">
-        <v>5902</v>
+        <v>5900</v>
       </c>
       <c r="D1285" s="3" t="s">
         <v>3108</v>
       </c>
       <c r="E1285" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
     </row>
     <row r="1286" spans="1:5" ht="99.75" customHeight="1">
@@ -41146,13 +41146,13 @@
         <v>1918</v>
       </c>
       <c r="C1286" t="s">
-        <v>5904</v>
+        <v>5902</v>
       </c>
       <c r="D1286" s="3" t="s">
         <v>3110</v>
       </c>
       <c r="E1286" t="s">
-        <v>5905</v>
+        <v>5903</v>
       </c>
     </row>
     <row r="1287" spans="1:5" ht="99.75" customHeight="1">
@@ -41163,13 +41163,13 @@
         <v>3112</v>
       </c>
       <c r="C1287" t="s">
-        <v>5906</v>
+        <v>5904</v>
       </c>
       <c r="D1287" s="3" t="s">
         <v>3113</v>
       </c>
       <c r="E1287" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
     </row>
     <row r="1288" spans="1:5" ht="85.5" customHeight="1">
@@ -41180,13 +41180,13 @@
         <v>3115</v>
       </c>
       <c r="C1288" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
       <c r="D1288" s="3" t="s">
         <v>3116</v>
       </c>
       <c r="E1288" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
     </row>
     <row r="1289" spans="1:5" ht="71.25" customHeight="1">
@@ -41197,13 +41197,13 @@
         <v>2387</v>
       </c>
       <c r="C1289" t="s">
-        <v>5446</v>
+        <v>5445</v>
       </c>
       <c r="D1289" s="3" t="s">
         <v>3118</v>
       </c>
       <c r="E1289" t="s">
-        <v>5910</v>
+        <v>5908</v>
       </c>
     </row>
     <row r="1290" spans="1:5" ht="53.25" customHeight="1">
@@ -41214,13 +41214,13 @@
         <v>3120</v>
       </c>
       <c r="C1290" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="D1290" s="3" t="s">
         <v>3121</v>
       </c>
       <c r="E1290" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
     </row>
     <row r="1291" spans="1:5" ht="42.75" customHeight="1">
@@ -41231,13 +41231,13 @@
         <v>3123</v>
       </c>
       <c r="C1291" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="D1291" s="3" t="s">
         <v>3124</v>
       </c>
       <c r="E1291" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
     </row>
     <row r="1292" spans="1:5" ht="85.5" customHeight="1">
@@ -41248,13 +41248,13 @@
         <v>537</v>
       </c>
       <c r="C1292" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="D1292" s="3" t="s">
         <v>3126</v>
       </c>
       <c r="E1292" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
     </row>
     <row r="1293" spans="1:5" ht="42.75" customHeight="1">
@@ -41265,13 +41265,13 @@
         <v>3128</v>
       </c>
       <c r="C1293" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="D1293" s="3" t="s">
         <v>3129</v>
       </c>
       <c r="E1293" t="s">
-        <v>5918</v>
+        <v>5916</v>
       </c>
     </row>
     <row r="1294" spans="1:5" ht="57" customHeight="1">
@@ -41282,13 +41282,13 @@
         <v>3131</v>
       </c>
       <c r="C1294" t="s">
-        <v>5919</v>
+        <v>5917</v>
       </c>
       <c r="D1294" s="3" t="s">
         <v>3132</v>
       </c>
       <c r="E1294" t="s">
-        <v>5920</v>
+        <v>5918</v>
       </c>
     </row>
     <row r="1295" spans="1:5" ht="128.25" customHeight="1">
@@ -41299,13 +41299,13 @@
         <v>3134</v>
       </c>
       <c r="C1295" t="s">
-        <v>5921</v>
+        <v>5919</v>
       </c>
       <c r="D1295" s="3" t="s">
         <v>3135</v>
       </c>
       <c r="E1295" t="s">
-        <v>5922</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="1296" spans="1:5" ht="85.5" customHeight="1">
@@ -41316,13 +41316,13 @@
         <v>3137</v>
       </c>
       <c r="C1296" t="s">
-        <v>5923</v>
+        <v>5921</v>
       </c>
       <c r="D1296" s="3" t="s">
         <v>3138</v>
       </c>
       <c r="E1296" t="s">
-        <v>5924</v>
+        <v>5922</v>
       </c>
     </row>
     <row r="1297" spans="1:5" ht="128.25" customHeight="1">
@@ -41333,13 +41333,13 @@
         <v>3140</v>
       </c>
       <c r="C1297" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1297" s="3" t="s">
         <v>3141</v>
       </c>
       <c r="E1297" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
     </row>
     <row r="1298" spans="1:5" ht="71.25" customHeight="1">
@@ -41350,13 +41350,13 @@
         <v>3143</v>
       </c>
       <c r="C1298" t="s">
-        <v>5927</v>
+        <v>5925</v>
       </c>
       <c r="D1298" s="3" t="s">
         <v>3144</v>
       </c>
       <c r="E1298" t="s">
-        <v>5928</v>
+        <v>5926</v>
       </c>
     </row>
     <row r="1299" spans="1:5" ht="85.5" customHeight="1">
@@ -41367,13 +41367,13 @@
         <v>3146</v>
       </c>
       <c r="C1299" t="s">
-        <v>5929</v>
+        <v>5927</v>
       </c>
       <c r="D1299" s="3" t="s">
         <v>3147</v>
       </c>
       <c r="E1299" t="s">
-        <v>5930</v>
+        <v>5928</v>
       </c>
     </row>
     <row r="1300" spans="1:5" ht="28.5" customHeight="1">
@@ -41384,13 +41384,13 @@
         <v>3149</v>
       </c>
       <c r="C1300" t="s">
-        <v>5931</v>
+        <v>5929</v>
       </c>
       <c r="D1300" s="3" t="s">
         <v>3150</v>
       </c>
       <c r="E1300" t="s">
-        <v>5932</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="1301" spans="1:5" ht="57" customHeight="1">
@@ -41401,13 +41401,13 @@
         <v>2379</v>
       </c>
       <c r="C1301" t="s">
-        <v>5933</v>
+        <v>5931</v>
       </c>
       <c r="D1301" s="3" t="s">
         <v>2380</v>
       </c>
       <c r="E1301" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
     </row>
     <row r="1302" spans="1:5" ht="85.5" customHeight="1">
@@ -41418,13 +41418,13 @@
         <v>3153</v>
       </c>
       <c r="C1302" t="s">
-        <v>5442</v>
+        <v>5441</v>
       </c>
       <c r="D1302" s="3" t="s">
         <v>3154</v>
       </c>
       <c r="E1302" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
     </row>
     <row r="1303" spans="1:5" ht="42.75" customHeight="1">
@@ -41441,7 +41441,7 @@
         <v>3158</v>
       </c>
       <c r="E1303" t="s">
-        <v>5936</v>
+        <v>5934</v>
       </c>
     </row>
     <row r="1304" spans="1:5" ht="42.75" customHeight="1">
@@ -41452,13 +41452,13 @@
         <v>3156</v>
       </c>
       <c r="C1304" t="s">
-        <v>5444</v>
+        <v>5443</v>
       </c>
       <c r="D1304" s="3" t="s">
         <v>3160</v>
       </c>
       <c r="E1304" t="s">
-        <v>5937</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="1305" spans="1:5" ht="171" customHeight="1">
@@ -41475,7 +41475,7 @@
         <v>3164</v>
       </c>
       <c r="E1305" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
     </row>
     <row r="1306" spans="1:5" ht="71.25" customHeight="1">
@@ -41486,13 +41486,13 @@
         <v>3166</v>
       </c>
       <c r="C1306" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="D1306" s="3" t="s">
         <v>3168</v>
       </c>
       <c r="E1306" t="s">
-        <v>5940</v>
+        <v>5938</v>
       </c>
     </row>
     <row r="1307" spans="1:5" ht="57" customHeight="1">
@@ -41509,7 +41509,7 @@
         <v>3172</v>
       </c>
       <c r="E1307" t="s">
-        <v>5941</v>
+        <v>5939</v>
       </c>
     </row>
     <row r="1308" spans="1:5" ht="42.75" customHeight="1">
@@ -41520,13 +41520,13 @@
         <v>3174</v>
       </c>
       <c r="C1308" t="s">
-        <v>5939</v>
+        <v>5937</v>
       </c>
       <c r="D1308" s="3" t="s">
         <v>3176</v>
       </c>
       <c r="E1308" t="s">
-        <v>5942</v>
+        <v>5940</v>
       </c>
     </row>
     <row r="1309" spans="1:5" ht="128.25" customHeight="1">
@@ -41543,7 +41543,7 @@
         <v>3178</v>
       </c>
       <c r="E1309" t="s">
-        <v>5943</v>
+        <v>5941</v>
       </c>
     </row>
     <row r="1310" spans="1:5" ht="42.75" customHeight="1">
@@ -41554,13 +41554,13 @@
         <v>3180</v>
       </c>
       <c r="C1310" t="s">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="D1310" s="3" t="s">
         <v>3182</v>
       </c>
       <c r="E1310" t="s">
-        <v>5945</v>
+        <v>5943</v>
       </c>
     </row>
     <row r="1311" spans="1:5" ht="42.75" customHeight="1">
@@ -41577,7 +41577,7 @@
         <v>3186</v>
       </c>
       <c r="E1311" t="s">
-        <v>5946</v>
+        <v>5944</v>
       </c>
     </row>
     <row r="1312" spans="1:5" ht="99.75" customHeight="1">
@@ -41588,13 +41588,13 @@
         <v>3188</v>
       </c>
       <c r="C1312" t="s">
-        <v>5947</v>
+        <v>5945</v>
       </c>
       <c r="D1312" s="3" t="s">
         <v>3190</v>
       </c>
       <c r="E1312" t="s">
-        <v>5948</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="1313" spans="1:5" ht="71.25" customHeight="1">
@@ -41611,7 +41611,7 @@
         <v>3194</v>
       </c>
       <c r="E1313" t="s">
-        <v>5949</v>
+        <v>5947</v>
       </c>
     </row>
     <row r="1314" spans="1:5" ht="71.25" customHeight="1">
@@ -41622,13 +41622,13 @@
         <v>3196</v>
       </c>
       <c r="C1314" t="s">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="D1314" s="3" t="s">
         <v>3198</v>
       </c>
       <c r="E1314" t="s">
-        <v>5951</v>
+        <v>5949</v>
       </c>
     </row>
     <row r="1315" spans="1:5" ht="42.75" customHeight="1">
@@ -41645,7 +41645,7 @@
         <v>3202</v>
       </c>
       <c r="E1315" t="s">
-        <v>5952</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="1316" spans="1:5" ht="128.25" customHeight="1">
@@ -41656,13 +41656,13 @@
         <v>2143</v>
       </c>
       <c r="C1316" t="s">
-        <v>5953</v>
+        <v>5951</v>
       </c>
       <c r="D1316" s="3" t="s">
         <v>3204</v>
       </c>
       <c r="E1316" t="s">
-        <v>5954</v>
+        <v>5952</v>
       </c>
     </row>
     <row r="1317" spans="1:5" ht="57" customHeight="1">
@@ -41679,7 +41679,7 @@
         <v>3208</v>
       </c>
       <c r="E1317" t="s">
-        <v>5955</v>
+        <v>5953</v>
       </c>
     </row>
     <row r="1318" spans="1:5" ht="171" customHeight="1">
@@ -41696,7 +41696,7 @@
         <v>3210</v>
       </c>
       <c r="E1318" t="s">
-        <v>5956</v>
+        <v>5954</v>
       </c>
     </row>
     <row r="1319" spans="1:5" ht="71.25" customHeight="1">
@@ -41713,7 +41713,7 @@
         <v>3012</v>
       </c>
       <c r="E1319" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
     </row>
     <row r="1320" spans="1:5" ht="142.5" customHeight="1">
@@ -41724,13 +41724,13 @@
         <v>3213</v>
       </c>
       <c r="C1320" t="s">
-        <v>5957</v>
+        <v>5955</v>
       </c>
       <c r="D1320" s="3" t="s">
         <v>3215</v>
       </c>
       <c r="E1320" t="s">
-        <v>5958</v>
+        <v>5956</v>
       </c>
     </row>
     <row r="1321" spans="1:5" ht="99.75" customHeight="1">
@@ -41747,7 +41747,7 @@
         <v>3219</v>
       </c>
       <c r="E1321" t="s">
-        <v>5959</v>
+        <v>5957</v>
       </c>
     </row>
     <row r="1322" spans="1:5" ht="57" customHeight="1">
@@ -41758,13 +41758,13 @@
         <v>3221</v>
       </c>
       <c r="C1322" t="s">
-        <v>5960</v>
+        <v>5958</v>
       </c>
       <c r="D1322" s="3" t="s">
         <v>3223</v>
       </c>
       <c r="E1322" t="s">
-        <v>5961</v>
+        <v>5959</v>
       </c>
     </row>
     <row r="1323" spans="1:5" ht="99.75" customHeight="1">
@@ -41781,7 +41781,7 @@
         <v>3227</v>
       </c>
       <c r="E1323" t="s">
-        <v>5962</v>
+        <v>5960</v>
       </c>
     </row>
     <row r="1324" spans="1:5" ht="99.75" customHeight="1">
@@ -41792,13 +41792,13 @@
         <v>3229</v>
       </c>
       <c r="C1324" t="s">
-        <v>5963</v>
+        <v>5961</v>
       </c>
       <c r="D1324" s="3" t="s">
         <v>3231</v>
       </c>
       <c r="E1324" t="s">
-        <v>5964</v>
+        <v>5962</v>
       </c>
     </row>
     <row r="1325" spans="1:5" ht="213.75" customHeight="1">
@@ -41815,7 +41815,7 @@
         <v>3233</v>
       </c>
       <c r="E1325" t="s">
-        <v>5965</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="1326" spans="1:5" ht="42.75" customHeight="1">
@@ -41826,13 +41826,13 @@
         <v>3235</v>
       </c>
       <c r="C1326" t="s">
-        <v>5966</v>
+        <v>5964</v>
       </c>
       <c r="D1326" s="3" t="s">
         <v>3237</v>
       </c>
       <c r="E1326" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
     </row>
     <row r="1327" spans="1:5" ht="42.75" customHeight="1">
@@ -41849,7 +41849,7 @@
         <v>3241</v>
       </c>
       <c r="E1327" t="s">
-        <v>5968</v>
+        <v>5966</v>
       </c>
     </row>
     <row r="1328" spans="1:5" ht="42.75" customHeight="1">
@@ -41860,13 +41860,13 @@
         <v>3188</v>
       </c>
       <c r="C1328" t="s">
-        <v>5969</v>
+        <v>5967</v>
       </c>
       <c r="D1328" s="3" t="s">
         <v>3243</v>
       </c>
       <c r="E1328" t="s">
-        <v>5948</v>
+        <v>5946</v>
       </c>
     </row>
     <row r="1329" spans="1:5" ht="114" customHeight="1">
@@ -41883,7 +41883,7 @@
         <v>3247</v>
       </c>
       <c r="E1329" t="s">
-        <v>5970</v>
+        <v>5968</v>
       </c>
     </row>
     <row r="1330" spans="1:5" ht="85.5" customHeight="1">
@@ -41894,13 +41894,13 @@
         <v>3249</v>
       </c>
       <c r="C1330" t="s">
-        <v>5971</v>
+        <v>5969</v>
       </c>
       <c r="D1330" s="3" t="s">
         <v>3251</v>
       </c>
       <c r="E1330" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="1331" spans="1:5" ht="99.75" customHeight="1">
@@ -41917,7 +41917,7 @@
         <v>3253</v>
       </c>
       <c r="E1331" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
     </row>
     <row r="1332" spans="1:5" ht="42.75" customHeight="1">
@@ -41928,13 +41928,13 @@
         <v>3255</v>
       </c>
       <c r="C1332" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="D1332" s="3" t="s">
         <v>3257</v>
       </c>
       <c r="E1332" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
     </row>
     <row r="1333" spans="1:5" ht="85.5" customHeight="1">
@@ -41951,7 +41951,7 @@
         <v>3259</v>
       </c>
       <c r="E1333" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
     </row>
     <row r="1334" spans="1:5" ht="85.5" customHeight="1">
@@ -41962,13 +41962,13 @@
         <v>3261</v>
       </c>
       <c r="C1334" t="s">
-        <v>5977</v>
+        <v>5975</v>
       </c>
       <c r="D1334" s="3" t="s">
         <v>3263</v>
       </c>
       <c r="E1334" t="s">
-        <v>5978</v>
+        <v>5976</v>
       </c>
     </row>
     <row r="1335" spans="1:5" ht="128.25" customHeight="1">
@@ -41985,7 +41985,7 @@
         <v>3265</v>
       </c>
       <c r="E1335" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
     </row>
     <row r="1336" spans="1:5" ht="99.75" customHeight="1">
@@ -42002,7 +42002,7 @@
         <v>3267</v>
       </c>
       <c r="E1336" t="s">
-        <v>5980</v>
+        <v>5978</v>
       </c>
     </row>
     <row r="1337" spans="1:5" ht="57" customHeight="1">
@@ -42019,7 +42019,7 @@
         <v>3271</v>
       </c>
       <c r="E1337" t="s">
-        <v>5981</v>
+        <v>5979</v>
       </c>
     </row>
     <row r="1338" spans="1:5" ht="71.25" customHeight="1">
@@ -42030,13 +42030,13 @@
         <v>3273</v>
       </c>
       <c r="C1338" t="s">
-        <v>5982</v>
+        <v>5980</v>
       </c>
       <c r="D1338" s="3" t="s">
         <v>3275</v>
       </c>
       <c r="E1338" t="s">
-        <v>5983</v>
+        <v>5981</v>
       </c>
     </row>
     <row r="1339" spans="1:5" ht="34.5" customHeight="1">
@@ -42053,7 +42053,7 @@
         <v>3279</v>
       </c>
       <c r="E1339" t="s">
-        <v>5984</v>
+        <v>5982</v>
       </c>
     </row>
     <row r="1340" spans="1:5" ht="85.5" customHeight="1">
@@ -42064,13 +42064,13 @@
         <v>3281</v>
       </c>
       <c r="C1340" t="s">
-        <v>5985</v>
+        <v>5983</v>
       </c>
       <c r="D1340" s="6" t="s">
         <v>3283</v>
       </c>
       <c r="E1340" t="s">
-        <v>5986</v>
+        <v>5984</v>
       </c>
     </row>
     <row r="1341" spans="1:5" ht="51.75" customHeight="1">
@@ -42087,7 +42087,7 @@
         <v>3287</v>
       </c>
       <c r="E1341" t="s">
-        <v>5987</v>
+        <v>5985</v>
       </c>
     </row>
     <row r="1342" spans="1:5" ht="171" customHeight="1">
@@ -42098,13 +42098,13 @@
         <v>1068</v>
       </c>
       <c r="C1342" t="s">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="D1342" s="3" t="s">
         <v>3289</v>
       </c>
       <c r="E1342" t="s">
-        <v>5989</v>
+        <v>5987</v>
       </c>
     </row>
     <row r="1343" spans="1:5" ht="42.75" customHeight="1">
@@ -42121,7 +42121,7 @@
         <v>3293</v>
       </c>
       <c r="E1343" t="s">
-        <v>5990</v>
+        <v>5988</v>
       </c>
     </row>
     <row r="1344" spans="1:5" ht="42.75" customHeight="1">
@@ -42132,13 +42132,13 @@
         <v>3295</v>
       </c>
       <c r="C1344" t="s">
-        <v>5991</v>
+        <v>5989</v>
       </c>
       <c r="D1344" s="3" t="s">
         <v>3297</v>
       </c>
       <c r="E1344" t="s">
-        <v>5992</v>
+        <v>5990</v>
       </c>
     </row>
     <row r="1345" spans="1:5" ht="114" customHeight="1">
@@ -42155,7 +42155,7 @@
         <v>3301</v>
       </c>
       <c r="E1345" t="s">
-        <v>5993</v>
+        <v>5991</v>
       </c>
     </row>
     <row r="1346" spans="1:5" ht="142.5" customHeight="1">
@@ -42166,13 +42166,13 @@
         <v>3303</v>
       </c>
       <c r="C1346" t="s">
-        <v>5994</v>
+        <v>5992</v>
       </c>
       <c r="D1346" s="3" t="s">
         <v>3305</v>
       </c>
       <c r="E1346" t="s">
-        <v>5995</v>
+        <v>5993</v>
       </c>
     </row>
     <row r="1347" spans="1:5" ht="99.75" customHeight="1">
@@ -42189,7 +42189,7 @@
         <v>3309</v>
       </c>
       <c r="E1347" t="s">
-        <v>5996</v>
+        <v>5994</v>
       </c>
     </row>
     <row r="1348" spans="1:5" ht="99.75" customHeight="1">
@@ -42200,13 +42200,13 @@
         <v>3311</v>
       </c>
       <c r="C1348" t="s">
-        <v>5997</v>
+        <v>5995</v>
       </c>
       <c r="D1348" s="3" t="s">
         <v>3313</v>
       </c>
       <c r="E1348" t="s">
-        <v>5998</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="1349" spans="1:5" ht="99.75" customHeight="1">
@@ -42223,7 +42223,7 @@
         <v>3313</v>
       </c>
       <c r="E1349" t="s">
-        <v>5998</v>
+        <v>5996</v>
       </c>
     </row>
     <row r="1350" spans="1:5" ht="71.25" customHeight="1">
@@ -42240,7 +42240,7 @@
         <v>3318</v>
       </c>
       <c r="E1350" t="s">
-        <v>5999</v>
+        <v>5997</v>
       </c>
     </row>
     <row r="1351" spans="1:5" ht="42.75" customHeight="1">
@@ -42257,7 +42257,7 @@
         <v>3322</v>
       </c>
       <c r="E1351" t="s">
-        <v>6000</v>
+        <v>5998</v>
       </c>
     </row>
     <row r="1352" spans="1:5" ht="99.75" customHeight="1">
@@ -42268,13 +42268,13 @@
         <v>3324</v>
       </c>
       <c r="C1352" t="s">
-        <v>6001</v>
+        <v>5999</v>
       </c>
       <c r="D1352" s="3" t="s">
         <v>3326</v>
       </c>
       <c r="E1352" t="s">
-        <v>6002</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="1353" spans="1:5" ht="99.75" customHeight="1">
@@ -42291,7 +42291,7 @@
         <v>3330</v>
       </c>
       <c r="E1353" t="s">
-        <v>6003</v>
+        <v>6001</v>
       </c>
     </row>
     <row r="1354" spans="1:5" ht="42.75" customHeight="1">
@@ -42302,13 +42302,13 @@
         <v>3332</v>
       </c>
       <c r="C1354" t="s">
-        <v>6004</v>
+        <v>6002</v>
       </c>
       <c r="D1354" s="3" t="s">
         <v>3334</v>
       </c>
       <c r="E1354" t="s">
-        <v>6005</v>
+        <v>6003</v>
       </c>
     </row>
     <row r="1355" spans="1:5" ht="42.75" customHeight="1">
@@ -42325,7 +42325,7 @@
         <v>3338</v>
       </c>
       <c r="E1355" t="s">
-        <v>6006</v>
+        <v>6004</v>
       </c>
     </row>
     <row r="1356" spans="1:5" ht="71.25" customHeight="1">
@@ -42336,13 +42336,13 @@
         <v>3340</v>
       </c>
       <c r="C1356" t="s">
-        <v>5963</v>
+        <v>5961</v>
       </c>
       <c r="D1356" s="6" t="s">
         <v>3342</v>
       </c>
       <c r="E1356" t="s">
-        <v>6007</v>
+        <v>6005</v>
       </c>
     </row>
     <row r="1357" spans="1:5" ht="28.5" customHeight="1">
@@ -42359,7 +42359,7 @@
         <v>3346</v>
       </c>
       <c r="E1357" t="s">
-        <v>6008</v>
+        <v>6006</v>
       </c>
     </row>
     <row r="1358" spans="1:5" ht="57" customHeight="1">
@@ -42370,13 +42370,13 @@
         <v>3348</v>
       </c>
       <c r="C1358" t="s">
-        <v>6009</v>
+        <v>6007</v>
       </c>
       <c r="D1358" s="3" t="s">
         <v>3350</v>
       </c>
       <c r="E1358" t="s">
-        <v>6010</v>
+        <v>6008</v>
       </c>
     </row>
     <row r="1359" spans="1:5" ht="114" customHeight="1">
@@ -42393,7 +42393,7 @@
         <v>3353</v>
       </c>
       <c r="E1359" t="s">
-        <v>6011</v>
+        <v>6009</v>
       </c>
     </row>
     <row r="1360" spans="1:5" ht="42.75" customHeight="1">
@@ -42404,13 +42404,13 @@
         <v>3355</v>
       </c>
       <c r="C1360" t="s">
-        <v>6012</v>
+        <v>6010</v>
       </c>
       <c r="D1360" s="3" t="s">
         <v>3356</v>
       </c>
       <c r="E1360" t="s">
-        <v>6013</v>
+        <v>6011</v>
       </c>
     </row>
     <row r="1361" spans="1:5" ht="42.75" customHeight="1">
@@ -42427,7 +42427,7 @@
         <v>3360</v>
       </c>
       <c r="E1361" t="s">
-        <v>6014</v>
+        <v>6012</v>
       </c>
     </row>
     <row r="1362" spans="1:5" ht="57" customHeight="1">
@@ -42438,13 +42438,13 @@
         <v>3362</v>
       </c>
       <c r="C1362" t="s">
-        <v>6015</v>
+        <v>6013</v>
       </c>
       <c r="D1362" s="3" t="s">
         <v>3364</v>
       </c>
       <c r="E1362" s="11" t="s">
-        <v>6016</v>
+        <v>6014</v>
       </c>
     </row>
     <row r="1363" spans="1:5" ht="71.25" customHeight="1">
@@ -42461,7 +42461,7 @@
         <v>3368</v>
       </c>
       <c r="E1363" t="s">
-        <v>6017</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="1364" spans="1:5" ht="71.25" customHeight="1">
@@ -42472,13 +42472,13 @@
         <v>3366</v>
       </c>
       <c r="C1364" t="s">
-        <v>6018</v>
+        <v>6016</v>
       </c>
       <c r="D1364" s="3" t="s">
         <v>3368</v>
       </c>
       <c r="E1364" t="s">
-        <v>6017</v>
+        <v>6015</v>
       </c>
     </row>
     <row r="1365" spans="1:5" ht="99.75" customHeight="1">
@@ -42495,7 +42495,7 @@
         <v>3373</v>
       </c>
       <c r="E1365" t="s">
-        <v>6019</v>
+        <v>6017</v>
       </c>
     </row>
     <row r="1366" spans="1:5" ht="99.75" customHeight="1">
@@ -42506,13 +42506,13 @@
         <v>3375</v>
       </c>
       <c r="C1366" t="s">
-        <v>6020</v>
+        <v>6018</v>
       </c>
       <c r="D1366" s="3" t="s">
         <v>3376</v>
       </c>
       <c r="E1366" t="s">
-        <v>6021</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="1367" spans="1:5" ht="99.75" customHeight="1">
@@ -42529,7 +42529,7 @@
         <v>3376</v>
       </c>
       <c r="E1367" t="s">
-        <v>6021</v>
+        <v>6019</v>
       </c>
     </row>
     <row r="1368" spans="1:5" ht="128.25" customHeight="1">
@@ -42540,13 +42540,13 @@
         <v>3379</v>
       </c>
       <c r="C1368" t="s">
-        <v>6022</v>
+        <v>6020</v>
       </c>
       <c r="D1368" s="3" t="s">
         <v>3380</v>
       </c>
       <c r="E1368" t="s">
-        <v>6023</v>
+        <v>6021</v>
       </c>
     </row>
     <row r="1369" spans="1:5" ht="42.75" customHeight="1">
@@ -42563,7 +42563,7 @@
         <v>3383</v>
       </c>
       <c r="E1369" t="s">
-        <v>6024</v>
+        <v>6022</v>
       </c>
     </row>
     <row r="1370" spans="1:5" ht="85.5" customHeight="1">
@@ -42574,13 +42574,13 @@
         <v>2186</v>
       </c>
       <c r="C1370" t="s">
-        <v>6025</v>
+        <v>6023</v>
       </c>
       <c r="D1370" s="3" t="s">
         <v>3385</v>
       </c>
       <c r="E1370" t="s">
-        <v>6026</v>
+        <v>6024</v>
       </c>
     </row>
     <row r="1371" spans="1:5" ht="114" customHeight="1">
@@ -42597,7 +42597,7 @@
         <v>3387</v>
       </c>
       <c r="E1371" t="s">
-        <v>6027</v>
+        <v>6025</v>
       </c>
     </row>
     <row r="1372" spans="1:5" ht="42.75" customHeight="1">
@@ -42608,13 +42608,13 @@
         <v>3389</v>
       </c>
       <c r="C1372" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="D1372" s="3" t="s">
         <v>3390</v>
       </c>
       <c r="E1372" t="s">
-        <v>6028</v>
+        <v>6026</v>
       </c>
     </row>
     <row r="1373" spans="1:5" ht="85.5" customHeight="1">
@@ -42631,7 +42631,7 @@
         <v>3393</v>
       </c>
       <c r="E1373" t="s">
-        <v>6029</v>
+        <v>6027</v>
       </c>
     </row>
     <row r="1374" spans="1:5" ht="57" customHeight="1">
@@ -42642,7 +42642,7 @@
         <v>2195</v>
       </c>
       <c r="C1374" t="s">
-        <v>6030</v>
+        <v>6028</v>
       </c>
       <c r="D1374" s="3" t="s">
         <v>3395</v>
@@ -42665,7 +42665,7 @@
         <v>3398</v>
       </c>
       <c r="E1375" t="s">
-        <v>6031</v>
+        <v>6029</v>
       </c>
     </row>
     <row r="1376" spans="1:5" ht="99.75" customHeight="1">
@@ -42676,13 +42676,13 @@
         <v>3400</v>
       </c>
       <c r="C1376" t="s">
-        <v>6032</v>
+        <v>6030</v>
       </c>
       <c r="D1376" s="3" t="s">
         <v>3401</v>
       </c>
       <c r="E1376" t="s">
-        <v>6033</v>
+        <v>6031</v>
       </c>
     </row>
     <row r="1377" spans="1:5" ht="128.25" customHeight="1">
@@ -42699,7 +42699,7 @@
         <v>3403</v>
       </c>
       <c r="E1377" t="s">
-        <v>6034</v>
+        <v>6032</v>
       </c>
     </row>
     <row r="1378" spans="1:5" ht="71.25" customHeight="1">
@@ -42710,13 +42710,13 @@
         <v>3405</v>
       </c>
       <c r="C1378" t="s">
-        <v>6035</v>
+        <v>6033</v>
       </c>
       <c r="D1378" s="3" t="s">
         <v>3406</v>
       </c>
       <c r="E1378" t="s">
-        <v>6036</v>
+        <v>6034</v>
       </c>
     </row>
     <row r="1379" spans="1:5" ht="71.25" customHeight="1">
@@ -42733,7 +42733,7 @@
         <v>3409</v>
       </c>
       <c r="E1379" t="s">
-        <v>6037</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="1380" spans="1:5" ht="99.75" customHeight="1">
@@ -42744,13 +42744,13 @@
         <v>3411</v>
       </c>
       <c r="C1380" t="s">
-        <v>6038</v>
+        <v>6036</v>
       </c>
       <c r="D1380" s="3" t="s">
         <v>3412</v>
       </c>
       <c r="E1380" t="s">
-        <v>6039</v>
+        <v>6037</v>
       </c>
     </row>
     <row r="1381" spans="1:5" ht="42.75" customHeight="1">
@@ -42767,7 +42767,7 @@
         <v>3415</v>
       </c>
       <c r="E1381" t="s">
-        <v>6040</v>
+        <v>6038</v>
       </c>
     </row>
     <row r="1382" spans="1:5" ht="57" customHeight="1">
@@ -42778,13 +42778,13 @@
         <v>3417</v>
       </c>
       <c r="C1382" t="s">
-        <v>6041</v>
+        <v>6039</v>
       </c>
       <c r="D1382" s="3" t="s">
         <v>3418</v>
       </c>
       <c r="E1382" t="s">
-        <v>6042</v>
+        <v>6040</v>
       </c>
     </row>
     <row r="1383" spans="1:5" ht="42.75" customHeight="1">
@@ -42801,7 +42801,7 @@
         <v>3421</v>
       </c>
       <c r="E1383" t="s">
-        <v>6043</v>
+        <v>6041</v>
       </c>
     </row>
     <row r="1384" spans="1:5" ht="85.5" customHeight="1">
@@ -42818,7 +42818,7 @@
         <v>3424</v>
       </c>
       <c r="E1384" t="s">
-        <v>6044</v>
+        <v>6042</v>
       </c>
     </row>
     <row r="1385" spans="1:5" ht="42.75" customHeight="1">
@@ -42835,7 +42835,7 @@
         <v>3427</v>
       </c>
       <c r="E1385" t="s">
-        <v>6045</v>
+        <v>6043</v>
       </c>
     </row>
     <row r="1386" spans="1:5" ht="42.75" customHeight="1">
@@ -42846,13 +42846,13 @@
         <v>2315</v>
       </c>
       <c r="C1386" t="s">
-        <v>6046</v>
+        <v>6044</v>
       </c>
       <c r="D1386" s="3" t="s">
         <v>3429</v>
       </c>
       <c r="E1386" t="s">
-        <v>6047</v>
+        <v>6045</v>
       </c>
     </row>
     <row r="1387" spans="1:5" ht="57" customHeight="1">
@@ -42869,7 +42869,7 @@
         <v>3431</v>
       </c>
       <c r="E1387" t="s">
-        <v>6048</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="1388" spans="1:5" ht="42.75" customHeight="1">
@@ -42880,13 +42880,13 @@
         <v>3433</v>
       </c>
       <c r="C1388" t="s">
-        <v>6049</v>
+        <v>6047</v>
       </c>
       <c r="D1388" s="3" t="s">
         <v>3434</v>
       </c>
       <c r="E1388" t="s">
-        <v>6050</v>
+        <v>6048</v>
       </c>
     </row>
     <row r="1389" spans="1:5" ht="85.5" customHeight="1">
@@ -42903,7 +42903,7 @@
         <v>3437</v>
       </c>
       <c r="E1389" t="s">
-        <v>6051</v>
+        <v>6049</v>
       </c>
     </row>
     <row r="1390" spans="1:5" ht="42.75" customHeight="1">
@@ -42914,13 +42914,13 @@
         <v>3439</v>
       </c>
       <c r="C1390" t="s">
-        <v>6052</v>
+        <v>6050</v>
       </c>
       <c r="D1390" s="6" t="s">
         <v>3440</v>
       </c>
       <c r="E1390" t="s">
-        <v>6053</v>
+        <v>6051</v>
       </c>
     </row>
     <row r="1391" spans="1:5" ht="53.25" customHeight="1">
@@ -42937,7 +42937,7 @@
         <v>3443</v>
       </c>
       <c r="E1391" t="s">
-        <v>6054</v>
+        <v>6052</v>
       </c>
     </row>
     <row r="1392" spans="1:5" ht="28.5" customHeight="1">
@@ -42948,13 +42948,13 @@
         <v>3445</v>
       </c>
       <c r="C1392" t="s">
-        <v>6055</v>
+        <v>6053</v>
       </c>
       <c r="D1392" s="3" t="s">
         <v>3446</v>
       </c>
       <c r="E1392" t="s">
-        <v>6056</v>
+        <v>6054</v>
       </c>
     </row>
     <row r="1393" spans="1:5" ht="114" customHeight="1">
@@ -42971,7 +42971,7 @@
         <v>3448</v>
       </c>
       <c r="E1393" t="s">
-        <v>6057</v>
+        <v>6055</v>
       </c>
     </row>
     <row r="1394" spans="1:5" ht="42.75" customHeight="1">
@@ -42982,13 +42982,13 @@
         <v>3450</v>
       </c>
       <c r="C1394" t="s">
-        <v>6058</v>
+        <v>6056</v>
       </c>
       <c r="D1394" s="3" t="s">
         <v>3451</v>
       </c>
       <c r="E1394" t="s">
-        <v>6059</v>
+        <v>6057</v>
       </c>
     </row>
     <row r="1395" spans="1:5" ht="57" customHeight="1">
@@ -43005,7 +43005,7 @@
         <v>3454</v>
       </c>
       <c r="E1395" t="s">
-        <v>6060</v>
+        <v>6058</v>
       </c>
     </row>
     <row r="1396" spans="1:5" ht="57" customHeight="1">
@@ -43016,13 +43016,13 @@
         <v>3456</v>
       </c>
       <c r="C1396" t="s">
-        <v>6061</v>
+        <v>6059</v>
       </c>
       <c r="D1396" s="3" t="s">
         <v>3457</v>
       </c>
       <c r="E1396" t="s">
-        <v>6062</v>
+        <v>6060</v>
       </c>
     </row>
     <row r="1397" spans="1:5" ht="28.5" customHeight="1">
@@ -43045,13 +43045,13 @@
         <v>3461</v>
       </c>
       <c r="C1398" t="s">
-        <v>6061</v>
+        <v>6059</v>
       </c>
       <c r="D1398" s="3" t="s">
         <v>3462</v>
       </c>
       <c r="E1398" t="s">
-        <v>6063</v>
+        <v>6061</v>
       </c>
     </row>
     <row r="1399" spans="1:5" ht="156.75" customHeight="1">
@@ -43068,7 +43068,7 @@
         <v>3465</v>
       </c>
       <c r="E1399" t="s">
-        <v>6064</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="1400" spans="1:5" ht="28.5" customHeight="1">
@@ -43079,7 +43079,7 @@
         <v>3466</v>
       </c>
       <c r="C1400" t="s">
-        <v>6065</v>
+        <v>6063</v>
       </c>
       <c r="D1400" s="3"/>
     </row>
@@ -43097,7 +43097,7 @@
         <v>3469</v>
       </c>
       <c r="E1401" t="s">
-        <v>6066</v>
+        <v>6064</v>
       </c>
     </row>
     <row r="1402" spans="1:5" ht="85.5" customHeight="1">
@@ -43108,13 +43108,13 @@
         <v>1121</v>
       </c>
       <c r="C1402" t="s">
-        <v>6067</v>
+        <v>6065</v>
       </c>
       <c r="D1402" s="3" t="s">
         <v>3471</v>
       </c>
       <c r="E1402" t="s">
-        <v>6068</v>
+        <v>6066</v>
       </c>
     </row>
     <row r="1403" spans="1:5" ht="57" customHeight="1">
@@ -43131,7 +43131,7 @@
         <v>3474</v>
       </c>
       <c r="E1403" t="s">
-        <v>6069</v>
+        <v>6067</v>
       </c>
     </row>
     <row r="1404" spans="1:5" ht="99.75" customHeight="1">
@@ -43142,13 +43142,13 @@
         <v>3476</v>
       </c>
       <c r="C1404" t="s">
-        <v>6070</v>
+        <v>6068</v>
       </c>
       <c r="D1404" s="3" t="s">
         <v>3477</v>
       </c>
       <c r="E1404" t="s">
-        <v>6071</v>
+        <v>6069</v>
       </c>
     </row>
     <row r="1405" spans="1:5" ht="85.5" customHeight="1">
@@ -43165,7 +43165,7 @@
         <v>3480</v>
       </c>
       <c r="E1405" t="s">
-        <v>6072</v>
+        <v>6070</v>
       </c>
     </row>
     <row r="1406" spans="1:5" ht="42.75" customHeight="1">
@@ -43176,13 +43176,13 @@
         <v>3482</v>
       </c>
       <c r="C1406" t="s">
-        <v>6073</v>
+        <v>6071</v>
       </c>
       <c r="D1406" s="3" t="s">
         <v>3483</v>
       </c>
       <c r="E1406" t="s">
-        <v>6074</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="1407" spans="1:5" ht="42.75" customHeight="1">
@@ -43199,7 +43199,7 @@
         <v>3486</v>
       </c>
       <c r="E1407" t="s">
-        <v>6074</v>
+        <v>6072</v>
       </c>
     </row>
     <row r="1408" spans="1:5" ht="42.75" customHeight="1">
@@ -43210,13 +43210,13 @@
         <v>3488</v>
       </c>
       <c r="C1408" t="s">
-        <v>6075</v>
+        <v>6073</v>
       </c>
       <c r="D1408" s="3" t="s">
         <v>3489</v>
       </c>
       <c r="E1408" t="s">
-        <v>6076</v>
+        <v>6074</v>
       </c>
     </row>
     <row r="1409" spans="1:5" ht="42.75" customHeight="1">
@@ -43233,7 +43233,7 @@
         <v>3492</v>
       </c>
       <c r="E1409" t="s">
-        <v>6077</v>
+        <v>6075</v>
       </c>
     </row>
     <row r="1410" spans="1:5" ht="42.75" customHeight="1">
@@ -43244,13 +43244,13 @@
         <v>3494</v>
       </c>
       <c r="C1410" t="s">
-        <v>6078</v>
+        <v>6076</v>
       </c>
       <c r="D1410" s="3" t="s">
         <v>3495</v>
       </c>
       <c r="E1410" t="s">
-        <v>6079</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="1411" spans="1:5" ht="57" customHeight="1">
@@ -43267,7 +43267,7 @@
         <v>3498</v>
       </c>
       <c r="E1411" t="s">
-        <v>6080</v>
+        <v>6078</v>
       </c>
     </row>
     <row r="1412" spans="1:5" ht="85.5" customHeight="1">
@@ -43278,13 +43278,13 @@
         <v>1316</v>
       </c>
       <c r="C1412" t="s">
-        <v>6081</v>
+        <v>6079</v>
       </c>
       <c r="D1412" s="3" t="s">
         <v>3500</v>
       </c>
       <c r="E1412" t="s">
-        <v>6082</v>
+        <v>6080</v>
       </c>
     </row>
     <row r="1413" spans="1:5" ht="42.75" customHeight="1">
@@ -43301,7 +43301,7 @@
         <v>3503</v>
       </c>
       <c r="E1413" t="s">
-        <v>6083</v>
+        <v>6081</v>
       </c>
     </row>
     <row r="1414" spans="1:5" ht="42.75" customHeight="1">
@@ -43312,13 +43312,13 @@
         <v>3505</v>
       </c>
       <c r="C1414" t="s">
-        <v>6084</v>
+        <v>6082</v>
       </c>
       <c r="D1414" s="3" t="s">
         <v>3506</v>
       </c>
       <c r="E1414" t="s">
-        <v>6085</v>
+        <v>6083</v>
       </c>
     </row>
     <row r="1415" spans="1:5" ht="28.5" customHeight="1">
@@ -43335,7 +43335,7 @@
         <v>3509</v>
       </c>
       <c r="E1415" t="s">
-        <v>6086</v>
+        <v>6084</v>
       </c>
     </row>
     <row r="1416" spans="1:5" ht="71.25" customHeight="1">
@@ -43346,13 +43346,13 @@
         <v>3511</v>
       </c>
       <c r="C1416" s="8" t="s">
-        <v>6087</v>
+        <v>6085</v>
       </c>
       <c r="D1416" s="7" t="s">
         <v>3512</v>
       </c>
       <c r="E1416" s="8" t="s">
-        <v>6088</v>
+        <v>6086</v>
       </c>
     </row>
     <row r="1417" spans="1:5" ht="57" customHeight="1">
@@ -43369,7 +43369,7 @@
         <v>3514</v>
       </c>
       <c r="E1417" s="8" t="s">
-        <v>6089</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="1418" spans="1:5" ht="71.25" customHeight="1">
@@ -43380,13 +43380,13 @@
         <v>3515</v>
       </c>
       <c r="C1418" t="s">
-        <v>6090</v>
+        <v>6088</v>
       </c>
       <c r="D1418" s="7" t="s">
         <v>3516</v>
       </c>
       <c r="E1418" s="8" t="s">
-        <v>6091</v>
+        <v>6089</v>
       </c>
     </row>
     <row r="1419" spans="1:5" ht="85.5" customHeight="1">
@@ -43403,7 +43403,7 @@
         <v>3517</v>
       </c>
       <c r="E1419" s="8" t="s">
-        <v>6092</v>
+        <v>6090</v>
       </c>
     </row>
     <row r="1420" spans="1:5" ht="85.5" customHeight="1">
@@ -43420,7 +43420,7 @@
         <v>3519</v>
       </c>
       <c r="E1420" s="8" t="s">
-        <v>6093</v>
+        <v>6091</v>
       </c>
     </row>
     <row r="1421" spans="1:5" ht="57" customHeight="1">
@@ -43437,7 +43437,7 @@
         <v>3521</v>
       </c>
       <c r="E1421" s="8" t="s">
-        <v>6094</v>
+        <v>6092</v>
       </c>
     </row>
     <row r="1422" spans="1:5" ht="99.75" customHeight="1">
@@ -43448,13 +43448,13 @@
         <v>3522</v>
       </c>
       <c r="C1422" t="s">
-        <v>6095</v>
+        <v>6093</v>
       </c>
       <c r="D1422" s="7" t="s">
         <v>3523</v>
       </c>
       <c r="E1422" s="8" t="s">
-        <v>6096</v>
+        <v>6094</v>
       </c>
     </row>
     <row r="1423" spans="1:5" ht="57" customHeight="1">
@@ -43471,7 +43471,7 @@
         <v>3525</v>
       </c>
       <c r="E1423" s="8" t="s">
-        <v>6097</v>
+        <v>6095</v>
       </c>
     </row>
     <row r="1424" spans="1:5" ht="28.5" customHeight="1">
@@ -43482,13 +43482,13 @@
         <v>3526</v>
       </c>
       <c r="C1424" t="s">
-        <v>6098</v>
+        <v>6096</v>
       </c>
       <c r="D1424" s="7" t="s">
         <v>3527</v>
       </c>
       <c r="E1424" s="8" t="s">
-        <v>6099</v>
+        <v>6097</v>
       </c>
     </row>
     <row r="1425" spans="1:5" ht="142.5" customHeight="1">
@@ -43505,7 +43505,7 @@
         <v>3529</v>
       </c>
       <c r="E1425" s="8" t="s">
-        <v>6100</v>
+        <v>6098</v>
       </c>
     </row>
     <row r="1426" spans="1:5" ht="114" customHeight="1">
@@ -43516,13 +43516,13 @@
         <v>3528</v>
       </c>
       <c r="C1426" t="s">
-        <v>6101</v>
+        <v>6099</v>
       </c>
       <c r="D1426" s="3" t="s">
         <v>3531</v>
       </c>
       <c r="E1426" t="s">
-        <v>6102</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="1427" spans="1:5" ht="42.75" customHeight="1">
@@ -43539,7 +43539,7 @@
         <v>3533</v>
       </c>
       <c r="E1427" s="8" t="s">
-        <v>6103</v>
+        <v>6101</v>
       </c>
     </row>
     <row r="1428" spans="1:5" ht="42.75" customHeight="1">
@@ -43550,13 +43550,13 @@
         <v>3534</v>
       </c>
       <c r="C1428" t="s">
-        <v>6101</v>
+        <v>6099</v>
       </c>
       <c r="D1428" s="7" t="s">
         <v>3535</v>
       </c>
       <c r="E1428" s="8" t="s">
-        <v>6104</v>
+        <v>6102</v>
       </c>
     </row>
     <row r="1429" spans="1:5" ht="57" customHeight="1">
@@ -43573,7 +43573,7 @@
         <v>3537</v>
       </c>
       <c r="E1429" s="8" t="s">
-        <v>6105</v>
+        <v>6103</v>
       </c>
     </row>
     <row r="1430" spans="1:5" ht="71.25" customHeight="1">
@@ -43584,13 +43584,13 @@
         <v>3538</v>
       </c>
       <c r="C1430" t="s">
-        <v>6106</v>
+        <v>6104</v>
       </c>
       <c r="D1430" s="7" t="s">
         <v>3539</v>
       </c>
       <c r="E1430" s="8" t="s">
-        <v>6107</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="1431" spans="1:5" ht="42.75" customHeight="1">
@@ -43601,13 +43601,13 @@
         <v>3540</v>
       </c>
       <c r="C1431" t="s">
-        <v>6108</v>
+        <v>6106</v>
       </c>
       <c r="D1431" s="7" t="s">
         <v>3541</v>
       </c>
       <c r="E1431" s="8" t="s">
-        <v>6109</v>
+        <v>6107</v>
       </c>
     </row>
     <row r="1432" spans="1:5" ht="114" customHeight="1">
@@ -43618,13 +43618,13 @@
         <v>3542</v>
       </c>
       <c r="C1432" t="s">
-        <v>6110</v>
+        <v>6108</v>
       </c>
       <c r="D1432" s="7" t="s">
         <v>3543</v>
       </c>
       <c r="E1432" s="8" t="s">
-        <v>6111</v>
+        <v>6109</v>
       </c>
     </row>
     <row r="1433" spans="1:5" ht="85.5" customHeight="1">
@@ -43635,13 +43635,13 @@
         <v>3544</v>
       </c>
       <c r="C1433" t="s">
-        <v>6112</v>
+        <v>6110</v>
       </c>
       <c r="D1433" s="7" t="s">
         <v>3545</v>
       </c>
       <c r="E1433" s="8" t="s">
-        <v>6113</v>
+        <v>6111</v>
       </c>
     </row>
     <row r="1434" spans="1:5" ht="142.5" customHeight="1">
@@ -43652,13 +43652,13 @@
         <v>3546</v>
       </c>
       <c r="C1434" s="8" t="s">
-        <v>6114</v>
+        <v>6112</v>
       </c>
       <c r="D1434" s="7" t="s">
         <v>3547</v>
       </c>
       <c r="E1434" s="9" t="s">
-        <v>6115</v>
+        <v>6113</v>
       </c>
     </row>
     <row r="1435" spans="1:5" ht="80.25" customHeight="1">
@@ -43675,7 +43675,7 @@
         <v>3550</v>
       </c>
       <c r="E1435" s="9" t="s">
-        <v>6116</v>
+        <v>6114</v>
       </c>
     </row>
     <row r="1436" spans="1:5" ht="71.25" customHeight="1">
@@ -43686,13 +43686,13 @@
         <v>3551</v>
       </c>
       <c r="C1436" t="s">
-        <v>6117</v>
+        <v>6115</v>
       </c>
       <c r="D1436" s="3" t="s">
         <v>3552</v>
       </c>
       <c r="E1436" t="s">
-        <v>6118</v>
+        <v>6116</v>
       </c>
     </row>
     <row r="1437" spans="1:5" ht="85.5" customHeight="1">
@@ -43703,13 +43703,13 @@
         <v>3551</v>
       </c>
       <c r="C1437" t="s">
-        <v>6117</v>
+        <v>6115</v>
       </c>
       <c r="D1437" s="7" t="s">
         <v>3554</v>
       </c>
       <c r="E1437" s="8" t="s">
-        <v>6119</v>
+        <v>6117</v>
       </c>
     </row>
     <row r="1438" spans="1:5" ht="42.75" customHeight="1">
@@ -43720,13 +43720,13 @@
         <v>3555</v>
       </c>
       <c r="C1438" t="s">
-        <v>6120</v>
+        <v>6118</v>
       </c>
       <c r="D1438" s="3" t="s">
         <v>3556</v>
       </c>
       <c r="E1438" t="s">
-        <v>6121</v>
+        <v>6119</v>
       </c>
     </row>
     <row r="1439" spans="1:5" ht="85.5" customHeight="1">
@@ -43737,13 +43737,13 @@
         <v>3557</v>
       </c>
       <c r="C1439" t="s">
-        <v>6122</v>
+        <v>6120</v>
       </c>
       <c r="D1439" s="7" t="s">
         <v>3558</v>
       </c>
       <c r="E1439" s="8" t="s">
-        <v>6123</v>
+        <v>6121</v>
       </c>
     </row>
     <row r="1440" spans="1:5" ht="71.25" customHeight="1">
@@ -43754,13 +43754,13 @@
         <v>3559</v>
       </c>
       <c r="C1440" t="s">
-        <v>6124</v>
+        <v>6122</v>
       </c>
       <c r="D1440" s="7" t="s">
         <v>3560</v>
       </c>
       <c r="E1440" s="8" t="s">
-        <v>6125</v>
+        <v>6123</v>
       </c>
     </row>
     <row r="1441" spans="1:5" ht="28.5" customHeight="1">
@@ -43771,13 +43771,13 @@
         <v>3562</v>
       </c>
       <c r="C1441" t="s">
-        <v>6126</v>
+        <v>6124</v>
       </c>
       <c r="D1441" s="3" t="s">
         <v>3563</v>
       </c>
       <c r="E1441" t="s">
-        <v>6127</v>
+        <v>6125</v>
       </c>
     </row>
     <row r="1442" spans="1:5" ht="57" customHeight="1">
@@ -43788,13 +43788,13 @@
         <v>3564</v>
       </c>
       <c r="C1442" t="s">
-        <v>6128</v>
+        <v>6126</v>
       </c>
       <c r="D1442" s="7" t="s">
         <v>3565</v>
       </c>
       <c r="E1442" s="8" t="s">
-        <v>6129</v>
+        <v>6127</v>
       </c>
     </row>
     <row r="1443" spans="1:5" ht="42.75" customHeight="1">
@@ -43805,13 +43805,13 @@
         <v>3566</v>
       </c>
       <c r="C1443" t="s">
-        <v>6130</v>
+        <v>6128</v>
       </c>
       <c r="D1443" s="3" t="s">
         <v>3567</v>
       </c>
       <c r="E1443" t="s">
-        <v>6131</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="1444" spans="1:5" ht="71.25" customHeight="1">
@@ -43822,13 +43822,13 @@
         <v>3566</v>
       </c>
       <c r="C1444" t="s">
-        <v>6130</v>
+        <v>6128</v>
       </c>
       <c r="D1444" s="3" t="s">
         <v>3569</v>
       </c>
       <c r="E1444" t="s">
-        <v>6132</v>
+        <v>6130</v>
       </c>
     </row>
     <row r="1445" spans="1:5" ht="57" customHeight="1">
@@ -43839,13 +43839,13 @@
         <v>3571</v>
       </c>
       <c r="C1445" t="s">
-        <v>6133</v>
+        <v>6131</v>
       </c>
       <c r="D1445" s="3" t="s">
         <v>3572</v>
       </c>
       <c r="E1445" t="s">
-        <v>6134</v>
+        <v>6132</v>
       </c>
     </row>
     <row r="1446" spans="1:5" ht="99.75" customHeight="1">
@@ -43856,13 +43856,13 @@
         <v>3570</v>
       </c>
       <c r="C1446" t="s">
-        <v>6135</v>
+        <v>6133</v>
       </c>
       <c r="D1446" s="3" t="s">
         <v>3574</v>
       </c>
       <c r="E1446" t="s">
-        <v>6136</v>
+        <v>6134</v>
       </c>
     </row>
     <row r="1447" spans="1:5" ht="28.5" customHeight="1">
@@ -43873,13 +43873,13 @@
         <v>3576</v>
       </c>
       <c r="C1447" t="s">
-        <v>6137</v>
+        <v>6135</v>
       </c>
       <c r="D1447" s="7" t="s">
         <v>3577</v>
       </c>
       <c r="E1447" s="8" t="s">
-        <v>6138</v>
+        <v>6136</v>
       </c>
     </row>
     <row r="1448" spans="1:5" ht="99.75" customHeight="1">
@@ -43890,13 +43890,13 @@
         <v>3578</v>
       </c>
       <c r="C1448" t="s">
-        <v>6139</v>
+        <v>6137</v>
       </c>
       <c r="D1448" s="3" t="s">
         <v>3579</v>
       </c>
       <c r="E1448" t="s">
-        <v>6140</v>
+        <v>6138</v>
       </c>
     </row>
     <row r="1449" spans="1:5" ht="28.5" customHeight="1">
@@ -43907,13 +43907,13 @@
         <v>3580</v>
       </c>
       <c r="C1449" t="s">
-        <v>6141</v>
+        <v>6139</v>
       </c>
       <c r="D1449" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1449" t="s">
-        <v>6142</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1450" spans="1:5" ht="28.5" customHeight="1">
@@ -43924,13 +43924,13 @@
         <v>3582</v>
       </c>
       <c r="C1450" t="s">
-        <v>6143</v>
+        <v>6141</v>
       </c>
       <c r="D1450" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1450" t="s">
-        <v>6142</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1451" spans="1:5" ht="28.5" customHeight="1">
@@ -43941,13 +43941,13 @@
         <v>3583</v>
       </c>
       <c r="C1451" t="s">
-        <v>6144</v>
+        <v>6142</v>
       </c>
       <c r="D1451" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1451" t="s">
-        <v>6142</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1452" spans="1:5" ht="28.5" customHeight="1">
@@ -43958,13 +43958,13 @@
         <v>3584</v>
       </c>
       <c r="C1452" t="s">
-        <v>6145</v>
+        <v>6143</v>
       </c>
       <c r="D1452" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1452" t="s">
-        <v>6142</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1453" spans="1:5" ht="28.5" customHeight="1">
@@ -43975,13 +43975,13 @@
         <v>3585</v>
       </c>
       <c r="C1453" t="s">
-        <v>6146</v>
+        <v>6144</v>
       </c>
       <c r="D1453" s="3" t="s">
         <v>3581</v>
       </c>
       <c r="E1453" t="s">
-        <v>6142</v>
+        <v>6140</v>
       </c>
     </row>
     <row r="1454" spans="1:5" ht="71.25" customHeight="1">
@@ -43992,13 +43992,13 @@
         <v>3587</v>
       </c>
       <c r="C1454" t="s">
-        <v>6147</v>
+        <v>6145</v>
       </c>
       <c r="D1454" s="3" t="s">
         <v>3588</v>
       </c>
       <c r="E1454" t="s">
-        <v>6148</v>
+        <v>6146</v>
       </c>
     </row>
     <row r="1455" spans="1:5" ht="42.75" customHeight="1">
@@ -44009,13 +44009,13 @@
         <v>3589</v>
       </c>
       <c r="C1455" t="s">
-        <v>6149</v>
+        <v>6147</v>
       </c>
       <c r="D1455" s="3" t="s">
         <v>3590</v>
       </c>
       <c r="E1455" t="s">
-        <v>6150</v>
+        <v>6148</v>
       </c>
     </row>
     <row r="1456" spans="1:5" ht="71.25" customHeight="1">
@@ -44026,13 +44026,13 @@
         <v>3589</v>
       </c>
       <c r="C1456" t="s">
-        <v>6149</v>
+        <v>6147</v>
       </c>
       <c r="D1456" s="3" t="s">
         <v>3592</v>
       </c>
       <c r="E1456" t="s">
-        <v>6151</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="1457" spans="1:5" ht="71.25" customHeight="1">
@@ -44043,13 +44043,13 @@
         <v>3594</v>
       </c>
       <c r="C1457" t="s">
-        <v>6149</v>
+        <v>6147</v>
       </c>
       <c r="D1457" s="3" t="s">
         <v>3592</v>
       </c>
       <c r="E1457" t="s">
-        <v>6152</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="1458" spans="1:5" ht="57" customHeight="1">
@@ -44066,7 +44066,7 @@
         <v>3598</v>
       </c>
       <c r="E1458" s="8" t="s">
-        <v>6153</v>
+        <v>6151</v>
       </c>
     </row>
     <row r="1459" spans="1:5" ht="28.5" customHeight="1">
@@ -44083,7 +44083,7 @@
         <v>3602</v>
       </c>
       <c r="E1459" t="s">
-        <v>6154</v>
+        <v>6152</v>
       </c>
     </row>
     <row r="1460" spans="1:5" ht="28.5" customHeight="1">
@@ -44100,7 +44100,7 @@
         <v>3604</v>
       </c>
       <c r="E1460" s="8" t="s">
-        <v>6155</v>
+        <v>6153</v>
       </c>
     </row>
     <row r="1461" spans="1:5" ht="57" customHeight="1">
@@ -44117,7 +44117,7 @@
         <v>3598</v>
       </c>
       <c r="E1461" s="8" t="s">
-        <v>6156</v>
+        <v>6154</v>
       </c>
     </row>
     <row r="1462" spans="1:5" ht="28.5" customHeight="1">
@@ -44128,13 +44128,13 @@
         <v>3610</v>
       </c>
       <c r="C1462" t="s">
-        <v>6157</v>
+        <v>6155</v>
       </c>
       <c r="D1462" s="3" t="s">
         <v>3611</v>
       </c>
       <c r="E1462" t="s">
-        <v>6158</v>
+        <v>6156</v>
       </c>
     </row>
     <row r="1463" spans="1:5" ht="114" customHeight="1">
@@ -44145,13 +44145,13 @@
         <v>3612</v>
       </c>
       <c r="C1463" t="s">
-        <v>6159</v>
+        <v>6157</v>
       </c>
       <c r="D1463" s="7" t="s">
         <v>3613</v>
       </c>
       <c r="E1463" s="8" t="s">
-        <v>6160</v>
+        <v>6158</v>
       </c>
     </row>
     <row r="1464" spans="1:5" ht="42.75" customHeight="1">
@@ -44162,13 +44162,13 @@
         <v>3614</v>
       </c>
       <c r="C1464" t="s">
-        <v>6161</v>
+        <v>6159</v>
       </c>
       <c r="D1464" s="3" t="s">
         <v>3615</v>
       </c>
       <c r="E1464" t="s">
-        <v>6162</v>
+        <v>6160</v>
       </c>
     </row>
     <row r="1465" spans="1:5" ht="42.75" customHeight="1">
@@ -44179,13 +44179,13 @@
         <v>3617</v>
       </c>
       <c r="C1465" s="8" t="s">
-        <v>6163</v>
+        <v>6161</v>
       </c>
       <c r="D1465" s="7" t="s">
         <v>3618</v>
       </c>
       <c r="E1465" s="8" t="s">
-        <v>6164</v>
+        <v>6162</v>
       </c>
     </row>
     <row r="1466" spans="1:5" ht="71.25" customHeight="1">
@@ -44196,13 +44196,13 @@
         <v>3619</v>
       </c>
       <c r="C1466" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1466" s="3" t="s">
         <v>3620</v>
       </c>
       <c r="E1466" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="1467" spans="1:5" ht="28.5" customHeight="1">
@@ -44213,13 +44213,13 @@
         <v>3619</v>
       </c>
       <c r="C1467" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1467" s="3" t="s">
         <v>3621</v>
       </c>
       <c r="E1467" t="s">
-        <v>6167</v>
+        <v>6165</v>
       </c>
     </row>
     <row r="1468" spans="1:5" ht="28.5" customHeight="1">
@@ -44230,13 +44230,13 @@
         <v>3619</v>
       </c>
       <c r="C1468" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1468" s="3" t="s">
         <v>3622</v>
       </c>
       <c r="E1468" t="s">
-        <v>6168</v>
+        <v>6166</v>
       </c>
     </row>
     <row r="1469" spans="1:5" ht="28.5" customHeight="1">
@@ -44247,13 +44247,13 @@
         <v>3619</v>
       </c>
       <c r="C1469" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1469" s="3" t="s">
         <v>3623</v>
       </c>
       <c r="E1469" t="s">
-        <v>6169</v>
+        <v>6167</v>
       </c>
     </row>
     <row r="1470" spans="1:5" ht="28.5" customHeight="1">
@@ -44264,13 +44264,13 @@
         <v>3619</v>
       </c>
       <c r="C1470" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1470" s="3" t="s">
         <v>3624</v>
       </c>
       <c r="E1470" t="s">
-        <v>6170</v>
+        <v>6168</v>
       </c>
     </row>
     <row r="1471" spans="1:5" ht="28.5" customHeight="1">
@@ -44281,13 +44281,13 @@
         <v>3619</v>
       </c>
       <c r="C1471" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1471" s="3" t="s">
         <v>3625</v>
       </c>
       <c r="E1471" t="s">
-        <v>6171</v>
+        <v>6169</v>
       </c>
     </row>
     <row r="1472" spans="1:5" ht="28.5" customHeight="1">
@@ -44298,13 +44298,13 @@
         <v>3626</v>
       </c>
       <c r="C1472" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1472" s="3" t="s">
         <v>3619</v>
       </c>
       <c r="E1472" t="s">
-        <v>6172</v>
+        <v>6170</v>
       </c>
     </row>
     <row r="1473" spans="1:5" ht="28.5" customHeight="1">
@@ -44315,13 +44315,13 @@
         <v>3626</v>
       </c>
       <c r="C1473" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1473" s="3" t="s">
         <v>3626</v>
       </c>
       <c r="E1473" t="s">
-        <v>6173</v>
+        <v>6171</v>
       </c>
     </row>
     <row r="1474" spans="1:5" ht="28.5" customHeight="1">
@@ -44332,13 +44332,13 @@
         <v>3628</v>
       </c>
       <c r="C1474" t="s">
-        <v>6174</v>
+        <v>6172</v>
       </c>
       <c r="D1474" s="3" t="s">
         <v>3628</v>
       </c>
       <c r="E1474" t="s">
-        <v>6175</v>
+        <v>6173</v>
       </c>
     </row>
     <row r="1475" spans="1:5" ht="28.5" customHeight="1">
@@ -44349,13 +44349,13 @@
         <v>3629</v>
       </c>
       <c r="C1475" t="s">
-        <v>6176</v>
+        <v>6174</v>
       </c>
       <c r="D1475" s="3" t="s">
         <v>3629</v>
       </c>
       <c r="E1475" t="s">
-        <v>6177</v>
+        <v>6175</v>
       </c>
     </row>
     <row r="1476" spans="1:5" ht="28.5" customHeight="1">
@@ -44366,13 +44366,13 @@
         <v>3630</v>
       </c>
       <c r="C1476" t="s">
-        <v>6178</v>
+        <v>6176</v>
       </c>
       <c r="D1476" s="3" t="s">
         <v>3630</v>
       </c>
       <c r="E1476" t="s">
-        <v>6179</v>
+        <v>6177</v>
       </c>
     </row>
     <row r="1477" spans="1:5" ht="28.5" customHeight="1">
@@ -44383,13 +44383,13 @@
         <v>3631</v>
       </c>
       <c r="C1477" t="s">
-        <v>6180</v>
+        <v>6178</v>
       </c>
       <c r="D1477" s="3" t="s">
         <v>3631</v>
       </c>
       <c r="E1477" t="s">
-        <v>6181</v>
+        <v>6179</v>
       </c>
     </row>
     <row r="1478" spans="1:5" ht="28.5" customHeight="1">
@@ -44400,13 +44400,13 @@
         <v>3619</v>
       </c>
       <c r="C1478" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1478" s="3" t="s">
         <v>3633</v>
       </c>
       <c r="E1478" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="1479" spans="1:5" ht="28.5" customHeight="1">
@@ -44417,13 +44417,13 @@
         <v>3619</v>
       </c>
       <c r="C1479" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1479" s="3" t="s">
         <v>3633</v>
       </c>
       <c r="E1479" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="1480" spans="1:5" ht="28.5" customHeight="1">
@@ -44434,13 +44434,13 @@
         <v>3619</v>
       </c>
       <c r="C1480" t="s">
-        <v>6165</v>
+        <v>6163</v>
       </c>
       <c r="D1480" s="3" t="s">
         <v>3633</v>
       </c>
       <c r="E1480" t="s">
-        <v>6166</v>
+        <v>6164</v>
       </c>
     </row>
     <row r="1481" spans="1:5" ht="28.5" customHeight="1">
@@ -44451,13 +44451,13 @@
         <v>3636</v>
       </c>
       <c r="C1481" t="s">
-        <v>6182</v>
+        <v>6180</v>
       </c>
       <c r="D1481" s="7" t="s">
         <v>3637</v>
       </c>
       <c r="E1481" s="8" t="s">
-        <v>6183</v>
+        <v>6181</v>
       </c>
     </row>
     <row r="1482" spans="1:5" ht="57" customHeight="1">
@@ -44468,13 +44468,13 @@
         <v>3638</v>
       </c>
       <c r="C1482" t="s">
-        <v>6184</v>
+        <v>6182</v>
       </c>
       <c r="D1482" s="3" t="s">
         <v>3639</v>
       </c>
       <c r="E1482" t="s">
-        <v>6185</v>
+        <v>6183</v>
       </c>
     </row>
     <row r="1483" spans="1:5" ht="57" customHeight="1">
@@ -44485,13 +44485,13 @@
         <v>3640</v>
       </c>
       <c r="C1483" t="s">
-        <v>6186</v>
+        <v>6184</v>
       </c>
       <c r="D1483" s="3" t="s">
         <v>3641</v>
       </c>
       <c r="E1483" t="s">
-        <v>6187</v>
+        <v>6185</v>
       </c>
     </row>
     <row r="1484" spans="1:5" ht="57" customHeight="1">
@@ -44508,7 +44508,7 @@
         <v>3644</v>
       </c>
       <c r="E1484" t="s">
-        <v>6188</v>
+        <v>6186</v>
       </c>
     </row>
     <row r="1485" spans="1:5" ht="57" customHeight="1">
@@ -44519,13 +44519,13 @@
         <v>3646</v>
       </c>
       <c r="C1485" s="8" t="s">
-        <v>6189</v>
+        <v>6187</v>
       </c>
       <c r="D1485" s="7" t="s">
         <v>3647</v>
       </c>
       <c r="E1485" s="8" t="s">
-        <v>6190</v>
+        <v>6188</v>
       </c>
     </row>
     <row r="1486" spans="1:5" ht="57" customHeight="1">
@@ -44536,13 +44536,13 @@
         <v>3649</v>
       </c>
       <c r="C1486" s="8" t="s">
-        <v>6191</v>
+        <v>6189</v>
       </c>
       <c r="D1486" s="7" t="s">
         <v>3650</v>
       </c>
       <c r="E1486" s="8" t="s">
-        <v>6192</v>
+        <v>6190</v>
       </c>
     </row>
     <row r="1487" spans="1:5" ht="142.5" customHeight="1">
@@ -44553,13 +44553,13 @@
         <v>3652</v>
       </c>
       <c r="C1487" s="8" t="s">
-        <v>6193</v>
+        <v>6191</v>
       </c>
       <c r="D1487" s="7" t="s">
         <v>3653</v>
       </c>
       <c r="E1487" s="8" t="s">
-        <v>6194</v>
+        <v>6192</v>
       </c>
     </row>
     <row r="1488" spans="1:5" ht="57" customHeight="1">
@@ -44570,13 +44570,13 @@
         <v>3655</v>
       </c>
       <c r="C1488" s="8" t="s">
-        <v>6195</v>
+        <v>6193</v>
       </c>
       <c r="D1488" s="7" t="s">
         <v>3656</v>
       </c>
       <c r="E1488" s="8" t="s">
-        <v>6196</v>
+        <v>6194</v>
       </c>
     </row>
     <row r="1489" spans="1:5" ht="85.5" customHeight="1">
@@ -44587,13 +44587,13 @@
         <v>3658</v>
       </c>
       <c r="C1489" s="8" t="s">
-        <v>6197</v>
+        <v>6195</v>
       </c>
       <c r="D1489" s="7" t="s">
         <v>3659</v>
       </c>
       <c r="E1489" s="8" t="s">
-        <v>6198</v>
+        <v>6196</v>
       </c>
     </row>
     <row r="1490" spans="1:5" ht="57" customHeight="1">
@@ -44610,7 +44610,7 @@
         <v>3662</v>
       </c>
       <c r="E1490" s="8" t="s">
-        <v>6199</v>
+        <v>6197</v>
       </c>
     </row>
     <row r="1491" spans="1:5" ht="28.5" customHeight="1">
@@ -44621,13 +44621,13 @@
         <v>3664</v>
       </c>
       <c r="C1491" s="8" t="s">
-        <v>6200</v>
+        <v>6198</v>
       </c>
       <c r="D1491" s="7" t="s">
         <v>3665</v>
       </c>
       <c r="E1491" s="8" t="s">
-        <v>6201</v>
+        <v>6199</v>
       </c>
     </row>
     <row r="1492" spans="1:5" ht="85.5" customHeight="1">
@@ -44638,13 +44638,13 @@
         <v>3664</v>
       </c>
       <c r="C1492" s="8" t="s">
-        <v>6200</v>
+        <v>6198</v>
       </c>
       <c r="D1492" s="7" t="s">
         <v>3667</v>
       </c>
       <c r="E1492" s="8" t="s">
-        <v>6202</v>
+        <v>6200</v>
       </c>
     </row>
     <row r="1493" spans="1:5" ht="71.25" customHeight="1">
@@ -44655,13 +44655,13 @@
         <v>3669</v>
       </c>
       <c r="C1493" s="8" t="s">
-        <v>6203</v>
+        <v>6201</v>
       </c>
       <c r="D1493" s="7" t="s">
         <v>3670</v>
       </c>
       <c r="E1493" s="8" t="s">
-        <v>6204</v>
+        <v>6202</v>
       </c>
     </row>
     <row r="1494" spans="1:5" ht="114" customHeight="1">
@@ -44672,13 +44672,13 @@
         <v>3672</v>
       </c>
       <c r="C1494" s="8" t="s">
-        <v>6205</v>
+        <v>6203</v>
       </c>
       <c r="D1494" s="7" t="s">
         <v>3673</v>
       </c>
       <c r="E1494" s="8" t="s">
-        <v>6206</v>
+        <v>6204</v>
       </c>
     </row>
     <row r="1495" spans="1:5" ht="71.25" customHeight="1">
@@ -44689,13 +44689,13 @@
         <v>3675</v>
       </c>
       <c r="C1495" s="8" t="s">
-        <v>6207</v>
+        <v>6205</v>
       </c>
       <c r="D1495" s="7" t="s">
         <v>3676</v>
       </c>
       <c r="E1495" s="8" t="s">
-        <v>6208</v>
+        <v>6206</v>
       </c>
     </row>
     <row r="1496" spans="1:5" ht="71.25" customHeight="1">
@@ -44706,13 +44706,13 @@
         <v>3678</v>
       </c>
       <c r="C1496" s="8" t="s">
-        <v>6209</v>
+        <v>6207</v>
       </c>
       <c r="D1496" s="7" t="s">
         <v>3679</v>
       </c>
       <c r="E1496" s="8" t="s">
-        <v>6210</v>
+        <v>6208</v>
       </c>
     </row>
     <row r="1497" spans="1:5" ht="71.25" customHeight="1">
@@ -44723,13 +44723,13 @@
         <v>3681</v>
       </c>
       <c r="C1497" s="8" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
       <c r="D1497" s="7" t="s">
         <v>3682</v>
       </c>
       <c r="E1497" s="8" t="s">
-        <v>6212</v>
+        <v>6210</v>
       </c>
     </row>
     <row r="1498" spans="1:5" ht="28.5" customHeight="1">
@@ -44740,13 +44740,13 @@
         <v>3681</v>
       </c>
       <c r="C1498" s="8" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
       <c r="D1498" s="7" t="s">
         <v>3684</v>
       </c>
       <c r="E1498" s="8" t="s">
-        <v>6213</v>
+        <v>6211</v>
       </c>
     </row>
     <row r="1499" spans="1:5" ht="42.75" customHeight="1">
@@ -44757,13 +44757,13 @@
         <v>3686</v>
       </c>
       <c r="C1499" s="8" t="s">
-        <v>6214</v>
+        <v>6212</v>
       </c>
       <c r="D1499" s="7" t="s">
         <v>3687</v>
       </c>
       <c r="E1499" s="8" t="s">
-        <v>6215</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="1500" spans="1:5" ht="42.75" customHeight="1">
@@ -44774,7 +44774,7 @@
         <v>3681</v>
       </c>
       <c r="C1500" s="8" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
       <c r="D1500" s="7">
         <v>1</v>
@@ -44791,13 +44791,13 @@
         <v>3681</v>
       </c>
       <c r="C1501" s="8" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
       <c r="D1501" s="7" t="s">
         <v>3690</v>
       </c>
       <c r="E1501" s="8" t="s">
-        <v>6215</v>
+        <v>6213</v>
       </c>
     </row>
     <row r="1502" spans="1:5" ht="42.75" customHeight="1">
@@ -44808,7 +44808,7 @@
         <v>3681</v>
       </c>
       <c r="C1502" s="8" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
       <c r="D1502" s="7">
         <v>2</v>
@@ -44825,13 +44825,13 @@
         <v>3681</v>
       </c>
       <c r="C1503" s="8" t="s">
-        <v>6211</v>
+        <v>6209</v>
       </c>
       <c r="D1503" s="7" t="s">
         <v>3690</v>
       </c>
       <c r="E1503" s="8" t="s">
-        <v>6216</v>
+        <v>6214</v>
       </c>
     </row>
     <row r="1504" spans="1:5" ht="42.75" customHeight="1">
@@ -44842,13 +44842,13 @@
         <v>3694</v>
       </c>
       <c r="C1504" s="8" t="s">
-        <v>6217</v>
+        <v>6215</v>
       </c>
       <c r="D1504" s="7" t="s">
         <v>3695</v>
       </c>
       <c r="E1504" s="8" t="s">
-        <v>6218</v>
+        <v>6216</v>
       </c>
     </row>
     <row r="1505" spans="1:5" ht="42.75" customHeight="1">
@@ -44859,13 +44859,13 @@
         <v>3697</v>
       </c>
       <c r="C1505" s="8" t="s">
-        <v>6219</v>
+        <v>6217</v>
       </c>
       <c r="D1505" s="7" t="s">
         <v>3698</v>
       </c>
       <c r="E1505" s="8" t="s">
-        <v>6220</v>
+        <v>6218</v>
       </c>
     </row>
     <row r="1506" spans="1:5" ht="42.75" customHeight="1">
@@ -44876,13 +44876,13 @@
         <v>3700</v>
       </c>
       <c r="C1506" s="8" t="s">
-        <v>6221</v>
+        <v>6219</v>
       </c>
       <c r="D1506" s="7" t="s">
         <v>3701</v>
       </c>
       <c r="E1506" s="8" t="s">
-        <v>6222</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="1507" spans="1:5" ht="57" customHeight="1">
@@ -44893,13 +44893,13 @@
         <v>3703</v>
       </c>
       <c r="C1507" s="8" t="s">
-        <v>6223</v>
+        <v>6221</v>
       </c>
       <c r="D1507" s="7" t="s">
         <v>3704</v>
       </c>
       <c r="E1507" s="8" t="s">
-        <v>6224</v>
+        <v>6222</v>
       </c>
     </row>
     <row r="1508" spans="1:5" ht="28.5" customHeight="1">
@@ -44910,13 +44910,13 @@
         <v>3706</v>
       </c>
       <c r="C1508" s="8" t="s">
-        <v>6225</v>
+        <v>6223</v>
       </c>
       <c r="D1508" s="7" t="s">
         <v>3707</v>
       </c>
       <c r="E1508" s="8" t="s">
-        <v>6226</v>
+        <v>6224</v>
       </c>
     </row>
     <row r="1509" spans="1:5" ht="85.5" customHeight="1">
@@ -44927,13 +44927,13 @@
         <v>3709</v>
       </c>
       <c r="C1509" s="8" t="s">
-        <v>6227</v>
+        <v>6225</v>
       </c>
       <c r="D1509" s="7" t="s">
         <v>3710</v>
       </c>
       <c r="E1509" s="9" t="s">
-        <v>6228</v>
+        <v>6226</v>
       </c>
     </row>
     <row r="1510" spans="1:5" ht="28.5" customHeight="1">
@@ -44944,13 +44944,13 @@
         <v>3712</v>
       </c>
       <c r="C1510" s="8" t="s">
-        <v>6229</v>
+        <v>6227</v>
       </c>
       <c r="D1510" s="7" t="s">
         <v>3713</v>
       </c>
       <c r="E1510" s="8" t="s">
-        <v>6230</v>
+        <v>6228</v>
       </c>
     </row>
     <row r="1511" spans="1:5" ht="28.5" customHeight="1">
@@ -44961,13 +44961,13 @@
         <v>3715</v>
       </c>
       <c r="C1511" s="8" t="s">
-        <v>6231</v>
+        <v>6229</v>
       </c>
       <c r="D1511" s="7" t="s">
         <v>3715</v>
       </c>
       <c r="E1511" s="8" t="s">
-        <v>6231</v>
+        <v>6229</v>
       </c>
     </row>
     <row r="1512" spans="1:5" ht="42.75" customHeight="1">
@@ -44978,13 +44978,13 @@
         <v>3717</v>
       </c>
       <c r="C1512" s="8" t="s">
-        <v>6232</v>
+        <v>6230</v>
       </c>
       <c r="D1512" s="7" t="s">
         <v>3717</v>
       </c>
       <c r="E1512" s="8" t="s">
-        <v>6233</v>
+        <v>6231</v>
       </c>
     </row>
     <row r="1513" spans="1:5" ht="42.75" customHeight="1">
@@ -44995,13 +44995,13 @@
         <v>3719</v>
       </c>
       <c r="C1513" s="8" t="s">
-        <v>6234</v>
+        <v>6232</v>
       </c>
       <c r="D1513" s="7" t="s">
         <v>3719</v>
       </c>
       <c r="E1513" s="8" t="s">
-        <v>6235</v>
+        <v>6233</v>
       </c>
     </row>
     <row r="1514" spans="1:5" ht="42.75" customHeight="1">
@@ -45012,13 +45012,13 @@
         <v>3721</v>
       </c>
       <c r="C1514" s="8" t="s">
-        <v>6236</v>
+        <v>6234</v>
       </c>
       <c r="D1514" s="7" t="s">
         <v>3721</v>
       </c>
       <c r="E1514" s="8" t="s">
-        <v>6237</v>
+        <v>6235</v>
       </c>
     </row>
     <row r="1515" spans="1:5" ht="42.75" customHeight="1">
@@ -45029,13 +45029,13 @@
         <v>3723</v>
       </c>
       <c r="C1515" s="8" t="s">
-        <v>6238</v>
+        <v>6236</v>
       </c>
       <c r="D1515" s="7" t="s">
         <v>3723</v>
       </c>
       <c r="E1515" s="8" t="s">
-        <v>6239</v>
+        <v>6237</v>
       </c>
     </row>
     <row r="1516" spans="1:5" ht="42.75" customHeight="1">
@@ -45046,13 +45046,13 @@
         <v>3725</v>
       </c>
       <c r="C1516" s="8" t="s">
-        <v>6240</v>
+        <v>6238</v>
       </c>
       <c r="D1516" s="7" t="s">
         <v>3725</v>
       </c>
       <c r="E1516" s="8" t="s">
-        <v>6241</v>
+        <v>6239</v>
       </c>
     </row>
     <row r="1517" spans="1:5" ht="42.75" customHeight="1">
@@ -45063,13 +45063,13 @@
         <v>3727</v>
       </c>
       <c r="C1517" s="8" t="s">
-        <v>6242</v>
+        <v>6240</v>
       </c>
       <c r="D1517" s="7" t="s">
         <v>3727</v>
       </c>
       <c r="E1517" s="8" t="s">
-        <v>6243</v>
+        <v>6241</v>
       </c>
     </row>
     <row r="1518" spans="1:5" ht="142.5" customHeight="1">
@@ -45080,13 +45080,13 @@
         <v>3728</v>
       </c>
       <c r="C1518" s="8" t="s">
-        <v>6244</v>
+        <v>6242</v>
       </c>
       <c r="D1518" s="7" t="s">
         <v>3729</v>
       </c>
       <c r="E1518" s="9" t="s">
-        <v>6245</v>
+        <v>6243</v>
       </c>
     </row>
     <row r="1519" spans="1:5" ht="28.5" customHeight="1">
@@ -45097,7 +45097,7 @@
         <v>3731</v>
       </c>
       <c r="C1519" s="8" t="s">
-        <v>6246</v>
+        <v>6244</v>
       </c>
       <c r="D1519" s="7"/>
       <c r="E1519" s="8"/>
@@ -45110,7 +45110,7 @@
         <v>3733</v>
       </c>
       <c r="C1520" s="8" t="s">
-        <v>6247</v>
+        <v>6245</v>
       </c>
       <c r="D1520" s="7"/>
       <c r="E1520" s="8"/>
@@ -45123,7 +45123,7 @@
         <v>3735</v>
       </c>
       <c r="C1521" s="8" t="s">
-        <v>6248</v>
+        <v>6246</v>
       </c>
       <c r="D1521" s="7"/>
       <c r="E1521" s="8"/>
@@ -45136,13 +45136,13 @@
         <v>3736</v>
       </c>
       <c r="C1522" s="8" t="s">
-        <v>6249</v>
+        <v>6247</v>
       </c>
       <c r="D1522" s="7" t="s">
         <v>3737</v>
       </c>
       <c r="E1522" s="8" t="s">
-        <v>6250</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="1523" spans="1:5" ht="142.5" customHeight="1">
@@ -45153,13 +45153,13 @@
         <v>3738</v>
       </c>
       <c r="C1523" s="8" t="s">
-        <v>6251</v>
+        <v>6249</v>
       </c>
       <c r="D1523" s="7" t="s">
         <v>3739</v>
       </c>
       <c r="E1523" s="8" t="s">
-        <v>6252</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="1524" spans="1:5" ht="28.5" customHeight="1">
@@ -45170,13 +45170,13 @@
         <v>3740</v>
       </c>
       <c r="C1524" s="8" t="s">
-        <v>6253</v>
+        <v>6251</v>
       </c>
       <c r="D1524" s="7" t="s">
         <v>3740</v>
       </c>
       <c r="E1524" s="8" t="s">
-        <v>6254</v>
+        <v>6252</v>
       </c>
     </row>
     <row r="1525" spans="1:5" ht="85.5" customHeight="1">
@@ -45187,13 +45187,13 @@
         <v>3741</v>
       </c>
       <c r="C1525" s="8" t="s">
-        <v>6255</v>
+        <v>6253</v>
       </c>
       <c r="D1525" s="7" t="s">
         <v>3742</v>
       </c>
       <c r="E1525" s="8" t="s">
-        <v>6256</v>
+        <v>6254</v>
       </c>
     </row>
     <row r="1526" spans="1:5" ht="156.75" customHeight="1">
@@ -45204,13 +45204,13 @@
         <v>3743</v>
       </c>
       <c r="C1526" s="8" t="s">
-        <v>6257</v>
+        <v>6255</v>
       </c>
       <c r="D1526" s="7" t="s">
         <v>3744</v>
       </c>
       <c r="E1526" s="8" t="s">
-        <v>6258</v>
+        <v>6256</v>
       </c>
     </row>
     <row r="1527" spans="1:5" ht="42.75" customHeight="1">
@@ -45221,13 +45221,13 @@
         <v>3745</v>
       </c>
       <c r="C1527" s="8" t="s">
-        <v>6259</v>
+        <v>6257</v>
       </c>
       <c r="D1527" s="7" t="s">
         <v>3746</v>
       </c>
       <c r="E1527" s="8" t="s">
-        <v>6260</v>
+        <v>6258</v>
       </c>
     </row>
     <row r="1528" spans="1:5" ht="85.5" customHeight="1">
@@ -45238,13 +45238,13 @@
         <v>3748</v>
       </c>
       <c r="C1528" s="8" t="s">
-        <v>6261</v>
+        <v>6259</v>
       </c>
       <c r="D1528" s="7" t="s">
         <v>3749</v>
       </c>
       <c r="E1528" s="8" t="s">
-        <v>6262</v>
+        <v>6260</v>
       </c>
     </row>
     <row r="1529" spans="1:5" ht="71.25" customHeight="1">
@@ -45255,13 +45255,13 @@
         <v>3750</v>
       </c>
       <c r="C1529" s="8" t="s">
-        <v>6263</v>
+        <v>6261</v>
       </c>
       <c r="D1529" s="7" t="s">
         <v>3751</v>
       </c>
       <c r="E1529" s="8" t="s">
-        <v>6264</v>
+        <v>6262</v>
       </c>
     </row>
     <row r="1530" spans="1:5" ht="71.25" customHeight="1">
@@ -45272,13 +45272,13 @@
         <v>3753</v>
       </c>
       <c r="C1530" s="8" t="s">
-        <v>6265</v>
+        <v>6263</v>
       </c>
       <c r="D1530" s="7" t="s">
         <v>3754</v>
       </c>
       <c r="E1530" s="8" t="s">
-        <v>6266</v>
+        <v>6264</v>
       </c>
     </row>
     <row r="1531" spans="1:5" ht="142.5" customHeight="1">
@@ -45289,13 +45289,13 @@
         <v>3755</v>
       </c>
       <c r="C1531" s="8" t="s">
-        <v>6267</v>
+        <v>6265</v>
       </c>
       <c r="D1531" s="7" t="s">
         <v>3756</v>
       </c>
       <c r="E1531" s="8" t="s">
-        <v>6268</v>
+        <v>6266</v>
       </c>
     </row>
     <row r="1532" spans="1:5" ht="28.5" customHeight="1">
@@ -45306,13 +45306,13 @@
         <v>3757</v>
       </c>
       <c r="C1532" s="8" t="s">
-        <v>6269</v>
+        <v>6267</v>
       </c>
       <c r="D1532" s="7" t="s">
         <v>3758</v>
       </c>
       <c r="E1532" s="8" t="s">
-        <v>6270</v>
+        <v>6268</v>
       </c>
     </row>
     <row r="1533" spans="1:5" ht="42.75" customHeight="1">
@@ -45323,13 +45323,13 @@
         <v>3759</v>
       </c>
       <c r="C1533" s="8" t="s">
-        <v>6271</v>
+        <v>6269</v>
       </c>
       <c r="D1533" s="7" t="s">
         <v>3760</v>
       </c>
       <c r="E1533" s="8" t="s">
-        <v>6272</v>
+        <v>6270</v>
       </c>
     </row>
     <row r="1534" spans="1:5" ht="28.5" customHeight="1">
@@ -45340,13 +45340,13 @@
         <v>3759</v>
       </c>
       <c r="C1534" s="8" t="s">
-        <v>6271</v>
+        <v>6269</v>
       </c>
       <c r="D1534" s="7" t="s">
         <v>3762</v>
       </c>
       <c r="E1534" s="8" t="s">
-        <v>6273</v>
+        <v>6271</v>
       </c>
     </row>
     <row r="1535" spans="1:5" ht="57" customHeight="1">
@@ -45357,13 +45357,13 @@
         <v>3763</v>
       </c>
       <c r="C1535" s="8" t="s">
-        <v>6274</v>
+        <v>6272</v>
       </c>
       <c r="D1535" s="7" t="s">
         <v>3764</v>
       </c>
       <c r="E1535" s="8" t="s">
-        <v>6275</v>
+        <v>6273</v>
       </c>
     </row>
     <row r="1536" spans="1:5" ht="28.5" customHeight="1">
@@ -45374,13 +45374,13 @@
         <v>3765</v>
       </c>
       <c r="C1536" s="8" t="s">
-        <v>6276</v>
+        <v>6274</v>
       </c>
       <c r="D1536" s="7" t="s">
         <v>3766</v>
       </c>
       <c r="E1536" s="8" t="s">
-        <v>6277</v>
+        <v>6275</v>
       </c>
     </row>
     <row r="1537" spans="1:5" ht="99.75" customHeight="1">
@@ -45391,13 +45391,13 @@
         <v>3767</v>
       </c>
       <c r="C1537" s="8" t="s">
-        <v>6278</v>
+        <v>6276</v>
       </c>
       <c r="D1537" s="7" t="s">
         <v>3768</v>
       </c>
       <c r="E1537" s="8" t="s">
-        <v>6279</v>
+        <v>6277</v>
       </c>
     </row>
     <row r="1538" spans="1:5" ht="57" customHeight="1">
@@ -45408,13 +45408,13 @@
         <v>3769</v>
       </c>
       <c r="C1538" s="8" t="s">
-        <v>6280</v>
+        <v>6278</v>
       </c>
       <c r="D1538" s="7" t="s">
         <v>3770</v>
       </c>
       <c r="E1538" s="8" t="s">
-        <v>6281</v>
+        <v>6279</v>
       </c>
     </row>
     <row r="1539" spans="1:5" ht="28.5" customHeight="1">
@@ -45425,7 +45425,7 @@
         <v>3771</v>
       </c>
       <c r="C1539" s="8" t="s">
-        <v>6282</v>
+        <v>6280</v>
       </c>
       <c r="D1539" s="7"/>
       <c r="E1539" s="8"/>
@@ -45438,13 +45438,13 @@
         <v>3773</v>
       </c>
       <c r="C1540" s="8" t="s">
-        <v>6283</v>
+        <v>6281</v>
       </c>
       <c r="D1540" s="7" t="s">
         <v>3774</v>
       </c>
       <c r="E1540" s="8" t="s">
-        <v>6284</v>
+        <v>6282</v>
       </c>
     </row>
     <row r="1541" spans="1:5" ht="85.5" customHeight="1">
@@ -45455,13 +45455,13 @@
         <v>3776</v>
       </c>
       <c r="C1541" s="8" t="s">
-        <v>6285</v>
+        <v>6283</v>
       </c>
       <c r="D1541" s="7" t="s">
         <v>3777</v>
       </c>
       <c r="E1541" s="8" t="s">
-        <v>6286</v>
+        <v>6284</v>
       </c>
     </row>
     <row r="1542" spans="1:5" ht="128.25" customHeight="1">
@@ -45472,13 +45472,13 @@
         <v>3778</v>
       </c>
       <c r="C1542" s="8" t="s">
-        <v>6287</v>
+        <v>6285</v>
       </c>
       <c r="D1542" s="7" t="s">
         <v>3779</v>
       </c>
       <c r="E1542" s="8" t="s">
-        <v>6288</v>
+        <v>6286</v>
       </c>
     </row>
     <row r="1543" spans="1:5" ht="28.5" customHeight="1">
@@ -45489,13 +45489,13 @@
         <v>3780</v>
       </c>
       <c r="C1543" s="8" t="s">
-        <v>6289</v>
+        <v>6287</v>
       </c>
       <c r="D1543" s="7" t="s">
         <v>3780</v>
       </c>
       <c r="E1543" s="8" t="s">
-        <v>6290</v>
+        <v>6288</v>
       </c>
     </row>
     <row r="1544" spans="1:5" ht="28.5" customHeight="1">
@@ -45506,13 +45506,13 @@
         <v>3781</v>
       </c>
       <c r="C1544" s="8" t="s">
-        <v>6291</v>
+        <v>6289</v>
       </c>
       <c r="D1544" s="7" t="s">
         <v>3781</v>
       </c>
       <c r="E1544" s="8" t="s">
-        <v>6292</v>
+        <v>6290</v>
       </c>
     </row>
     <row r="1545" spans="1:5" ht="28.5" customHeight="1">
@@ -45523,13 +45523,13 @@
         <v>3782</v>
       </c>
       <c r="C1545" s="8" t="s">
-        <v>6293</v>
+        <v>6291</v>
       </c>
       <c r="D1545" s="7" t="s">
         <v>3782</v>
       </c>
       <c r="E1545" s="8" t="s">
-        <v>6293</v>
+        <v>6291</v>
       </c>
     </row>
     <row r="1546" spans="1:5" ht="28.5" customHeight="1">
@@ -45540,13 +45540,13 @@
         <v>3783</v>
       </c>
       <c r="C1546" s="8" t="s">
-        <v>6294</v>
+        <v>6292</v>
       </c>
       <c r="D1546" s="7" t="s">
         <v>3783</v>
       </c>
       <c r="E1546" s="8" t="s">
-        <v>6294</v>
+        <v>6292</v>
       </c>
     </row>
     <row r="1547" spans="1:5" ht="28.5" customHeight="1">
@@ -45574,13 +45574,13 @@
         <v>3786</v>
       </c>
       <c r="C1548" s="8" t="s">
-        <v>6295</v>
+        <v>6293</v>
       </c>
       <c r="D1548" s="7" t="s">
         <v>3787</v>
       </c>
       <c r="E1548" s="8" t="s">
-        <v>6296</v>
+        <v>6294</v>
       </c>
     </row>
     <row r="1549" spans="1:5" ht="85.5" customHeight="1">
@@ -45591,13 +45591,13 @@
         <v>3789</v>
       </c>
       <c r="C1549" s="8" t="s">
-        <v>6297</v>
+        <v>6295</v>
       </c>
       <c r="D1549" s="7" t="s">
         <v>3790</v>
       </c>
       <c r="E1549" s="8" t="s">
-        <v>6298</v>
+        <v>6296</v>
       </c>
     </row>
     <row r="1550" spans="1:5" ht="114" customHeight="1">
@@ -45614,7 +45614,7 @@
         <v>3793</v>
       </c>
       <c r="E1550" s="8" t="s">
-        <v>6299</v>
+        <v>6297</v>
       </c>
     </row>
     <row r="1551" spans="1:5" ht="156.75" customHeight="1">
@@ -45625,13 +45625,13 @@
         <v>3795</v>
       </c>
       <c r="C1551" s="8" t="s">
-        <v>6300</v>
+        <v>6298</v>
       </c>
       <c r="D1551" s="7" t="s">
         <v>3796</v>
       </c>
       <c r="E1551" s="8" t="s">
-        <v>6301</v>
+        <v>6299</v>
       </c>
     </row>
     <row r="1552" spans="1:5" ht="142.5" customHeight="1">
@@ -45642,13 +45642,13 @@
         <v>3798</v>
       </c>
       <c r="C1552" s="8" t="s">
-        <v>6302</v>
+        <v>6300</v>
       </c>
       <c r="D1552" s="7" t="s">
         <v>3799</v>
       </c>
       <c r="E1552" s="8" t="s">
-        <v>6303</v>
+        <v>6301</v>
       </c>
     </row>
     <row r="1553" spans="1:5" ht="28.5" customHeight="1">
@@ -45659,13 +45659,13 @@
         <v>3801</v>
       </c>
       <c r="C1553" s="8" t="s">
-        <v>6304</v>
+        <v>6302</v>
       </c>
       <c r="D1553" s="7" t="s">
         <v>3802</v>
       </c>
       <c r="E1553" s="8" t="s">
-        <v>6305</v>
+        <v>6303</v>
       </c>
     </row>
     <row r="1554" spans="1:5" ht="71.25" customHeight="1">
@@ -45676,13 +45676,13 @@
         <v>3804</v>
       </c>
       <c r="C1554" s="8" t="s">
-        <v>6306</v>
+        <v>6304</v>
       </c>
       <c r="D1554" s="7" t="s">
         <v>3805</v>
       </c>
       <c r="E1554" s="8" t="s">
-        <v>6307</v>
+        <v>6305</v>
       </c>
     </row>
     <row r="1555" spans="1:5" ht="42.75" customHeight="1">
@@ -45693,13 +45693,13 @@
         <v>3807</v>
       </c>
       <c r="C1555" s="8" t="s">
-        <v>6308</v>
+        <v>6306</v>
       </c>
       <c r="D1555" s="7" t="s">
         <v>3808</v>
       </c>
       <c r="E1555" s="8" t="s">
-        <v>6309</v>
+        <v>6307</v>
       </c>
     </row>
     <row r="1556" spans="1:5" ht="313.5" customHeight="1">
@@ -45710,13 +45710,13 @@
         <v>3810</v>
       </c>
       <c r="C1556" s="8" t="s">
-        <v>6310</v>
+        <v>6308</v>
       </c>
       <c r="D1556" s="7" t="s">
         <v>3811</v>
       </c>
       <c r="E1556" s="9" t="s">
-        <v>6311</v>
+        <v>6309</v>
       </c>
     </row>
     <row r="1557" spans="1:5" ht="128.25" customHeight="1">
@@ -45727,13 +45727,13 @@
         <v>3813</v>
       </c>
       <c r="C1557" s="8" t="s">
-        <v>6312</v>
+        <v>6310</v>
       </c>
       <c r="D1557" s="7" t="s">
         <v>3814</v>
       </c>
       <c r="E1557" s="8" t="s">
-        <v>6313</v>
+        <v>6311</v>
       </c>
     </row>
     <row r="1558" spans="1:5" ht="99.75" customHeight="1">
@@ -45744,13 +45744,13 @@
         <v>3816</v>
       </c>
       <c r="C1558" s="8" t="s">
-        <v>6314</v>
+        <v>6312</v>
       </c>
       <c r="D1558" s="7" t="s">
         <v>3817</v>
       </c>
       <c r="E1558" s="8" t="s">
-        <v>6315</v>
+        <v>6313</v>
       </c>
     </row>
     <row r="1559" spans="1:5" ht="28.5" customHeight="1">
@@ -45761,13 +45761,13 @@
         <v>3819</v>
       </c>
       <c r="C1559" s="8" t="s">
-        <v>6316</v>
+        <v>6314</v>
       </c>
       <c r="D1559" s="7" t="s">
         <v>3820</v>
       </c>
       <c r="E1559" s="8" t="s">
-        <v>6317</v>
+        <v>6315</v>
       </c>
     </row>
     <row r="1560" spans="1:5" ht="228" customHeight="1">
@@ -45778,13 +45778,13 @@
         <v>3822</v>
       </c>
       <c r="C1560" s="8" t="s">
-        <v>6318</v>
+        <v>6316</v>
       </c>
       <c r="D1560" s="7" t="s">
         <v>3823</v>
       </c>
       <c r="E1560" s="9" t="s">
-        <v>6319</v>
+        <v>6317</v>
       </c>
     </row>
     <row r="1561" spans="1:5" ht="228" customHeight="1">
@@ -45795,13 +45795,13 @@
         <v>3825</v>
       </c>
       <c r="C1561" s="8" t="s">
-        <v>6320</v>
+        <v>6318</v>
       </c>
       <c r="D1561" s="7" t="s">
         <v>3826</v>
       </c>
       <c r="E1561" s="9" t="s">
-        <v>6321</v>
+        <v>6319</v>
       </c>
     </row>
     <row r="1562" spans="1:5" ht="228" customHeight="1">
@@ -45812,13 +45812,13 @@
         <v>3828</v>
       </c>
       <c r="C1562" s="8" t="s">
-        <v>6322</v>
+        <v>6320</v>
       </c>
       <c r="D1562" s="7" t="s">
         <v>3829</v>
       </c>
       <c r="E1562" s="9" t="s">
-        <v>6323</v>
+        <v>6321</v>
       </c>
     </row>
     <row r="1563" spans="1:5" ht="99.75" customHeight="1">
@@ -45829,13 +45829,13 @@
         <v>3831</v>
       </c>
       <c r="C1563" s="8" t="s">
-        <v>6324</v>
+        <v>6322</v>
       </c>
       <c r="D1563" s="7" t="s">
         <v>3832</v>
       </c>
       <c r="E1563" s="8" t="s">
-        <v>6325</v>
+        <v>6323</v>
       </c>
     </row>
     <row r="1564" spans="1:5" ht="99.75" customHeight="1">
@@ -45846,13 +45846,13 @@
         <v>3834</v>
       </c>
       <c r="C1564" s="8" t="s">
-        <v>6326</v>
+        <v>6324</v>
       </c>
       <c r="D1564" s="7" t="s">
         <v>3835</v>
       </c>
       <c r="E1564" s="8" t="s">
-        <v>6327</v>
+        <v>6325</v>
       </c>
     </row>
     <row r="1565" spans="1:5" ht="28.5" customHeight="1">
@@ -45863,13 +45863,13 @@
         <v>3834</v>
       </c>
       <c r="C1565" s="8" t="s">
-        <v>6326</v>
+        <v>6324</v>
       </c>
       <c r="D1565" s="7" t="s">
         <v>3837</v>
       </c>
       <c r="E1565" s="8" t="s">
-        <v>6328</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="1566" spans="1:5" ht="28.5" customHeight="1">
@@ -45880,13 +45880,13 @@
         <v>3834</v>
       </c>
       <c r="C1566" s="8" t="s">
-        <v>6329</v>
+        <v>6327</v>
       </c>
       <c r="D1566" s="7" t="s">
         <v>3837</v>
       </c>
       <c r="E1566" s="8" t="s">
-        <v>6328</v>
+        <v>6326</v>
       </c>
     </row>
     <row r="1567" spans="1:5" ht="114" customHeight="1">
@@ -45897,13 +45897,13 @@
         <v>3840</v>
       </c>
       <c r="C1567" s="8" t="s">
-        <v>6330</v>
+        <v>6328</v>
       </c>
       <c r="D1567" s="7" t="s">
         <v>3841</v>
       </c>
       <c r="E1567" s="8" t="s">
-        <v>6331</v>
+        <v>6329</v>
       </c>
     </row>
     <row r="1568" spans="1:5" ht="28.5" customHeight="1">
@@ -45914,13 +45914,13 @@
         <v>3840</v>
       </c>
       <c r="C1568" s="8" t="s">
-        <v>6330</v>
+        <v>6328</v>
       </c>
       <c r="D1568" s="7" t="s">
         <v>3843</v>
       </c>
       <c r="E1568" s="8" t="s">
-        <v>6332</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="1569" spans="1:5" ht="28.5" customHeight="1">
@@ -45931,13 +45931,13 @@
         <v>3840</v>
       </c>
       <c r="C1569" s="8" t="s">
-        <v>6330</v>
+        <v>6328</v>
       </c>
       <c r="D1569" s="7" t="s">
         <v>3843</v>
       </c>
       <c r="E1569" s="8" t="s">
-        <v>6332</v>
+        <v>6330</v>
       </c>
     </row>
     <row r="1570" spans="1:5" ht="142.5" customHeight="1">
@@ -45948,13 +45948,13 @@
         <v>3846</v>
       </c>
       <c r="C1570" s="8" t="s">
-        <v>6333</v>
+        <v>6331</v>
       </c>
       <c r="D1570" s="7" t="s">
         <v>3847</v>
       </c>
       <c r="E1570" s="8" t="s">
-        <v>6334</v>
+        <v>6332</v>
       </c>
     </row>
     <row r="1571" spans="1:5" ht="28.5" customHeight="1">
@@ -45965,13 +45965,13 @@
         <v>3846</v>
       </c>
       <c r="C1571" s="8" t="s">
-        <v>6333</v>
+        <v>6331</v>
       </c>
       <c r="D1571" s="7" t="s">
         <v>3849</v>
       </c>
       <c r="E1571" s="8" t="s">
-        <v>6335</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="1572" spans="1:5" ht="28.5" customHeight="1">
@@ -45982,13 +45982,13 @@
         <v>3846</v>
       </c>
       <c r="C1572" s="8" t="s">
-        <v>6333</v>
+        <v>6331</v>
       </c>
       <c r="D1572" s="7" t="s">
         <v>3849</v>
       </c>
       <c r="E1572" s="8" t="s">
-        <v>6335</v>
+        <v>6333</v>
       </c>
     </row>
     <row r="1573" spans="1:5" ht="42.75" customHeight="1">
@@ -45999,13 +45999,13 @@
         <v>3852</v>
       </c>
       <c r="C1573" s="8" t="s">
-        <v>6336</v>
+        <v>6334</v>
       </c>
       <c r="D1573" s="7" t="s">
         <v>3853</v>
       </c>
       <c r="E1573" s="8" t="s">
-        <v>6337</v>
+        <v>6335</v>
       </c>
     </row>
     <row r="1574" spans="1:5" ht="28.5" customHeight="1">
@@ -46016,13 +46016,13 @@
         <v>3855</v>
       </c>
       <c r="C1574" s="8" t="s">
-        <v>6338</v>
+        <v>6336</v>
       </c>
       <c r="D1574" s="7" t="s">
         <v>3856</v>
       </c>
       <c r="E1574" s="8" t="s">
-        <v>6339</v>
+        <v>6337</v>
       </c>
     </row>
     <row r="1575" spans="1:5" ht="42.75" customHeight="1">
@@ -46033,13 +46033,13 @@
         <v>3858</v>
       </c>
       <c r="C1575" s="8" t="s">
-        <v>6340</v>
+        <v>6338</v>
       </c>
       <c r="D1575" s="7" t="s">
         <v>3859</v>
       </c>
       <c r="E1575" s="8" t="s">
-        <v>6341</v>
+        <v>6339</v>
       </c>
     </row>
     <row r="1576" spans="1:5" ht="28.5" customHeight="1">
@@ -46050,13 +46050,13 @@
         <v>3861</v>
       </c>
       <c r="C1576" s="8" t="s">
-        <v>6342</v>
+        <v>6340</v>
       </c>
       <c r="D1576" s="7" t="s">
         <v>3862</v>
       </c>
       <c r="E1576" s="8" t="s">
-        <v>6343</v>
+        <v>6341</v>
       </c>
     </row>
     <row r="1577" spans="1:5" ht="42.75" customHeight="1">
@@ -46067,13 +46067,13 @@
         <v>3864</v>
       </c>
       <c r="C1577" s="8" t="s">
-        <v>6344</v>
+        <v>6342</v>
       </c>
       <c r="D1577" s="7" t="s">
         <v>3865</v>
       </c>
       <c r="E1577" s="8" t="s">
-        <v>6345</v>
+        <v>6343</v>
       </c>
     </row>
     <row r="1578" spans="1:5" ht="57" customHeight="1">
@@ -46084,13 +46084,13 @@
         <v>3867</v>
       </c>
       <c r="C1578" s="8" t="s">
-        <v>6346</v>
+        <v>6344</v>
       </c>
       <c r="D1578" s="7" t="s">
         <v>3868</v>
       </c>
       <c r="E1578" s="8" t="s">
-        <v>6347</v>
+        <v>6345</v>
       </c>
     </row>
     <row r="1579" spans="1:5" ht="57" customHeight="1">
@@ -46101,13 +46101,13 @@
         <v>3870</v>
       </c>
       <c r="C1579" s="8" t="s">
-        <v>6348</v>
+        <v>6346</v>
       </c>
       <c r="D1579" s="7" t="s">
         <v>3871</v>
       </c>
       <c r="E1579" s="8" t="s">
-        <v>6349</v>
+        <v>6347</v>
       </c>
     </row>
     <row r="1580" spans="1:5" ht="71.25" customHeight="1">
@@ -46118,13 +46118,13 @@
         <v>3873</v>
       </c>
       <c r="C1580" s="8" t="s">
-        <v>6350</v>
+        <v>6348</v>
       </c>
       <c r="D1580" s="7" t="s">
         <v>3874</v>
       </c>
       <c r="E1580" s="8" t="s">
-        <v>6351</v>
+        <v>6349</v>
       </c>
     </row>
     <row r="1581" spans="1:5" ht="57" customHeight="1">
@@ -46135,13 +46135,13 @@
         <v>3876</v>
       </c>
       <c r="C1581" s="8" t="s">
-        <v>6352</v>
+        <v>6350</v>
       </c>
       <c r="D1581" s="7" t="s">
         <v>3877</v>
       </c>
       <c r="E1581" s="8" t="s">
-        <v>6353</v>
+        <v>6351</v>
       </c>
     </row>
     <row r="1582" spans="1:5" ht="28.5" customHeight="1">
@@ -46152,13 +46152,13 @@
         <v>3879</v>
       </c>
       <c r="C1582" s="8" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
       <c r="D1582" s="7" t="s">
         <v>3879</v>
       </c>
       <c r="E1582" s="8" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="1583" spans="1:5" ht="28.5" customHeight="1">
@@ -46169,13 +46169,13 @@
         <v>3879</v>
       </c>
       <c r="C1583" s="8" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
       <c r="D1583" s="7" t="s">
         <v>3879</v>
       </c>
       <c r="E1583" s="8" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="1584" spans="1:5" ht="29.25" customHeight="1">
@@ -46186,13 +46186,13 @@
         <v>3879</v>
       </c>
       <c r="C1584" s="8" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
       <c r="D1584" s="7" t="s">
         <v>3879</v>
       </c>
       <c r="E1584" s="8" t="s">
-        <v>6354</v>
+        <v>6352</v>
       </c>
     </row>
     <row r="1585" spans="1:5" ht="28.5" customHeight="1">
@@ -46203,13 +46203,13 @@
         <v>3883</v>
       </c>
       <c r="C1585" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
       <c r="D1585" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1585" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="1586" spans="1:5" ht="28.5" customHeight="1">
@@ -46220,13 +46220,13 @@
         <v>3883</v>
       </c>
       <c r="C1586" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
       <c r="D1586" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1586" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="1587" spans="1:5" ht="29.25" customHeight="1">
@@ -46237,13 +46237,13 @@
         <v>3883</v>
       </c>
       <c r="C1587" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
       <c r="D1587" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1587" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="1588" spans="1:5" ht="29.25" customHeight="1">
@@ -46254,13 +46254,13 @@
         <v>3883</v>
       </c>
       <c r="C1588" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
       <c r="D1588" s="7" t="s">
         <v>3883</v>
       </c>
       <c r="E1588" s="8" t="s">
-        <v>6355</v>
+        <v>6353</v>
       </c>
     </row>
     <row r="1589" spans="1:5" ht="28.5" customHeight="1">
@@ -46271,13 +46271,13 @@
         <v>3888</v>
       </c>
       <c r="C1589" s="8" t="s">
-        <v>6356</v>
+        <v>6354</v>
       </c>
       <c r="D1589" s="7" t="s">
         <v>3888</v>
       </c>
       <c r="E1589" s="8" t="s">
-        <v>6357</v>
+        <v>6355</v>
       </c>
     </row>
   </sheetData>
